--- a/BelInt_WebHelper/Docs/курсовая для работы/Книга регистрации клиентов.xlsx
+++ b/BelInt_WebHelper/Docs/курсовая для работы/Книга регистрации клиентов.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myaki\Desktop\юля\курсовая для работы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myaki\source\repos\BelInt_WebHelper\BelInt_WebHelper\Docs\курсовая для работы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547F7C6-83E9-432A-ACCD-C52A124A3E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D5FDBF-0F2F-4CFA-A74E-70ACDB5EFA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="договоры" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">договоры!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">договоры!$A$2:$O$150</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="693">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1862,6 +1862,261 @@
   </si>
   <si>
     <t>валюта договора</t>
+  </si>
+  <si>
+    <t>220314/042001/45753</t>
+  </si>
+  <si>
+    <t>220314/042001/45755</t>
+  </si>
+  <si>
+    <t>220314/042001/45756</t>
+  </si>
+  <si>
+    <t>220314/042001/45757</t>
+  </si>
+  <si>
+    <t>220314/042001/45759</t>
+  </si>
+  <si>
+    <t>220314/042001/45761</t>
+  </si>
+  <si>
+    <t>220314/042001/45762</t>
+  </si>
+  <si>
+    <t>220314/042001/45763</t>
+  </si>
+  <si>
+    <t>220314/042001/45765</t>
+  </si>
+  <si>
+    <t>220314/042001/45766</t>
+  </si>
+  <si>
+    <t>220314/042001/45767</t>
+  </si>
+  <si>
+    <t>220314/042001/45768</t>
+  </si>
+  <si>
+    <t>220314/042001/45769</t>
+  </si>
+  <si>
+    <t>220314/042001/45770</t>
+  </si>
+  <si>
+    <t>220314/042001/45771</t>
+  </si>
+  <si>
+    <t>220314/042001/45773</t>
+  </si>
+  <si>
+    <t>220314/042001/45774</t>
+  </si>
+  <si>
+    <t>220314/042001/45775</t>
+  </si>
+  <si>
+    <t>220314/042001/45779</t>
+  </si>
+  <si>
+    <t>220314/042001/45787</t>
+  </si>
+  <si>
+    <t>220314/042001/45789</t>
+  </si>
+  <si>
+    <t>220314/042001/45793</t>
+  </si>
+  <si>
+    <t>220314/042001/45795</t>
+  </si>
+  <si>
+    <t>220314/042001/45798</t>
+  </si>
+  <si>
+    <t>220314/042001/45799</t>
+  </si>
+  <si>
+    <t>220314/042001/45803</t>
+  </si>
+  <si>
+    <t>220314/042001/45804</t>
+  </si>
+  <si>
+    <t>220314/042001/45805</t>
+  </si>
+  <si>
+    <t>220314/042001/45807</t>
+  </si>
+  <si>
+    <t>220314/042001/45814</t>
+  </si>
+  <si>
+    <t>220314/042001/45815</t>
+  </si>
+  <si>
+    <t>220314/042001/45816</t>
+  </si>
+  <si>
+    <t>220314/042001/45817</t>
+  </si>
+  <si>
+    <t>220314/042001/45819</t>
+  </si>
+  <si>
+    <t>220314/042001/45821</t>
+  </si>
+  <si>
+    <t>220314/042001/45822</t>
+  </si>
+  <si>
+    <t>220314/042001/45823</t>
+  </si>
+  <si>
+    <t>220314/042001/45824</t>
+  </si>
+  <si>
+    <t>220314/042001/45827</t>
+  </si>
+  <si>
+    <t>220314/042001/45828</t>
+  </si>
+  <si>
+    <t>220314/042001/45829</t>
+  </si>
+  <si>
+    <t>220314/042001/45832</t>
+  </si>
+  <si>
+    <t>220314/042001/45833</t>
+  </si>
+  <si>
+    <t>220314/042001/45836</t>
+  </si>
+  <si>
+    <t>220314/042001/45837</t>
+  </si>
+  <si>
+    <t>220314/042001/45838</t>
+  </si>
+  <si>
+    <t>220314/042001/45839</t>
+  </si>
+  <si>
+    <t>220314/042001/45840</t>
+  </si>
+  <si>
+    <t>220314/042001/45841</t>
+  </si>
+  <si>
+    <t>220314/042001/45842</t>
+  </si>
+  <si>
+    <t>220314/042001/45845</t>
+  </si>
+  <si>
+    <t>220314/042001/45848</t>
+  </si>
+  <si>
+    <t>220314/042001/45849</t>
+  </si>
+  <si>
+    <t>220314/042001/45851</t>
+  </si>
+  <si>
+    <t>220314/042001/45853</t>
+  </si>
+  <si>
+    <t>220314/042001/45854</t>
+  </si>
+  <si>
+    <t>220314/042001/45855</t>
+  </si>
+  <si>
+    <t>220314/042001/45856</t>
+  </si>
+  <si>
+    <t>220314/042001/45857</t>
+  </si>
+  <si>
+    <t>220314/042001/45858</t>
+  </si>
+  <si>
+    <t>220314/042001/45859</t>
+  </si>
+  <si>
+    <t>220314/042001/45861</t>
+  </si>
+  <si>
+    <t>220314/042001/45862</t>
+  </si>
+  <si>
+    <t>220314/042001/45864</t>
+  </si>
+  <si>
+    <t>220314/042001/45865</t>
+  </si>
+  <si>
+    <t>220314/042001/45866</t>
+  </si>
+  <si>
+    <t>220314/042001/45869</t>
+  </si>
+  <si>
+    <t>220314/042001/45871</t>
+  </si>
+  <si>
+    <t>220314/042001/45875</t>
+  </si>
+  <si>
+    <t>220314/042001/45876</t>
+  </si>
+  <si>
+    <t>220314/042001/45879</t>
+  </si>
+  <si>
+    <t>220314/042001/45880</t>
+  </si>
+  <si>
+    <t>220314/042001/45883</t>
+  </si>
+  <si>
+    <t>220314/042001/45886</t>
+  </si>
+  <si>
+    <t>220314/042001/45887</t>
+  </si>
+  <si>
+    <t>220314/042001/45888</t>
+  </si>
+  <si>
+    <t>220314/042001/45889</t>
+  </si>
+  <si>
+    <t>220314/042001/45892</t>
+  </si>
+  <si>
+    <t>220314/042001/45893</t>
+  </si>
+  <si>
+    <t>220314/042001/45896</t>
+  </si>
+  <si>
+    <t>220314/042001/45897</t>
+  </si>
+  <si>
+    <t>220314/042001/45898</t>
+  </si>
+  <si>
+    <t>220314/042001/45899</t>
+  </si>
+  <si>
+    <t>220314/042001/45900</t>
+  </si>
+  <si>
+    <t>RUB, USD, EUR</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2358,6 +2613,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2653,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8193A89-A4D5-455A-9323-2060B1E8F87A}">
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,8 +2923,11 @@
     <col min="1" max="1" width="4.85546875" style="62" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="82" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="8" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="62" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" style="62" customWidth="1"/>
@@ -2784,12 +3048,20 @@
       <c r="D3" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="E3" s="67" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" s="71">
+        <v>44240</v>
+      </c>
+      <c r="G3" s="102">
+        <v>20000</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I3" s="67" t="s">
-        <v>593</v>
+        <v>692</v>
       </c>
       <c r="J3" s="69" t="s">
         <v>15</v>
@@ -2825,9 +3097,11 @@
         <v>379</v>
       </c>
       <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I4" s="67" t="s">
         <v>595</v>
       </c>
@@ -2864,10 +3138,18 @@
       <c r="D5" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="E5" s="67" t="s">
+        <v>609</v>
+      </c>
+      <c r="F5" s="71">
+        <v>44296</v>
+      </c>
+      <c r="G5" s="102">
+        <v>145000</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I5" s="67" t="s">
         <v>596</v>
       </c>
@@ -2904,10 +3186,18 @@
       <c r="D6" s="67" t="s">
         <v>381</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="E6" s="67" t="s">
+        <v>610</v>
+      </c>
+      <c r="F6" s="71">
+        <v>44526</v>
+      </c>
+      <c r="G6" s="102">
+        <v>25700</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I6" s="67" t="s">
         <v>599</v>
       </c>
@@ -2944,10 +3234,18 @@
       <c r="D7" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="E7" s="67" t="s">
+        <v>611</v>
+      </c>
+      <c r="F7" s="71">
+        <v>44299</v>
+      </c>
+      <c r="G7" s="102">
+        <v>1250000</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I7" s="67" t="s">
         <v>602</v>
       </c>
@@ -2983,9 +3281,11 @@
         <v>383</v>
       </c>
       <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I8" s="67" t="s">
         <v>603</v>
       </c>
@@ -3020,10 +3320,18 @@
       <c r="D9" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="E9" s="67" t="s">
+        <v>612</v>
+      </c>
+      <c r="F9" s="71">
+        <v>44341</v>
+      </c>
+      <c r="G9" s="102">
+        <v>450000</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I9" s="67" t="s">
         <v>596</v>
       </c>
@@ -3061,9 +3369,11 @@
         <v>385</v>
       </c>
       <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I10" s="67" t="s">
         <v>599</v>
       </c>
@@ -3100,10 +3410,18 @@
       <c r="D11" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="E11" s="67" t="s">
+        <v>613</v>
+      </c>
+      <c r="F11" s="71">
+        <v>44518</v>
+      </c>
+      <c r="G11" s="102">
+        <v>785000</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I11" s="67" t="s">
         <v>596</v>
       </c>
@@ -3140,10 +3458,18 @@
       <c r="D12" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="E12" s="67" t="s">
+        <v>614</v>
+      </c>
+      <c r="F12" s="71">
+        <v>44586</v>
+      </c>
+      <c r="G12" s="102">
+        <v>368000</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>594</v>
+      </c>
       <c r="I12" s="69" t="s">
         <v>594</v>
       </c>
@@ -3180,10 +3506,18 @@
       <c r="D13" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="E13" s="67" t="s">
+        <v>615</v>
+      </c>
+      <c r="F13" s="71">
+        <v>44634</v>
+      </c>
+      <c r="G13" s="102">
+        <v>678200</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>594</v>
+      </c>
       <c r="I13" s="69" t="s">
         <v>594</v>
       </c>
@@ -3221,9 +3555,11 @@
         <v>389</v>
       </c>
       <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I14" s="67" t="s">
         <v>604</v>
       </c>
@@ -3260,10 +3596,18 @@
       <c r="D15" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="E15" s="67" t="s">
+        <v>616</v>
+      </c>
+      <c r="F15" s="71">
+        <v>44409</v>
+      </c>
+      <c r="G15" s="102">
+        <v>2564100</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>594</v>
+      </c>
       <c r="I15" s="69" t="s">
         <v>594</v>
       </c>
@@ -3298,10 +3642,18 @@
       <c r="D16" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="E16" s="67" t="s">
+        <v>617</v>
+      </c>
+      <c r="F16" s="71">
+        <v>44464</v>
+      </c>
+      <c r="G16" s="102">
+        <v>3690000</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I16" s="67" t="s">
         <v>595</v>
       </c>
@@ -3338,10 +3690,18 @@
       <c r="D17" s="67" t="s">
         <v>392</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="E17" s="67" t="s">
+        <v>618</v>
+      </c>
+      <c r="F17" s="71">
+        <v>44583</v>
+      </c>
+      <c r="G17" s="102">
+        <v>3589300</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I17" s="67" t="s">
         <v>596</v>
       </c>
@@ -3376,12 +3736,20 @@
       <c r="D18" s="67" t="s">
         <v>393</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
+      <c r="E18" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="F18" s="71">
+        <v>44587</v>
+      </c>
+      <c r="G18" s="102">
+        <v>3256000</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I18" s="67" t="s">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="J18" s="69" t="s">
         <v>15</v>
@@ -3416,10 +3784,18 @@
       <c r="D19" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="E19" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="F19" s="71">
+        <v>44737</v>
+      </c>
+      <c r="G19" s="102">
+        <v>4565000</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I19" s="67" t="s">
         <v>602</v>
       </c>
@@ -3456,10 +3832,18 @@
       <c r="D20" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+      <c r="E20" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="F20" s="71">
+        <v>44387</v>
+      </c>
+      <c r="G20" s="102">
+        <v>24569000</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I20" s="67" t="s">
         <v>603</v>
       </c>
@@ -3496,10 +3880,18 @@
       <c r="D21" s="67" t="s">
         <v>396</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="E21" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="F21" s="71">
+        <v>44425</v>
+      </c>
+      <c r="G21" s="102">
+        <v>4568000</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I21" s="69" t="s">
         <v>594</v>
       </c>
@@ -3537,9 +3929,11 @@
         <v>397</v>
       </c>
       <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I22" s="67" t="s">
         <v>599</v>
       </c>
@@ -3574,10 +3968,18 @@
       <c r="D23" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="E23" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="F23" s="71">
+        <v>44485</v>
+      </c>
+      <c r="G23" s="102">
+        <v>458750</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I23" s="67" t="s">
         <v>596</v>
       </c>
@@ -3614,10 +4016,18 @@
       <c r="D24" s="67" t="s">
         <v>399</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="E24" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="F24" s="71">
+        <v>44499</v>
+      </c>
+      <c r="G24" s="102">
+        <v>2556900</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I24" s="67" t="s">
         <v>594</v>
       </c>
@@ -3652,10 +4062,18 @@
       <c r="D25" s="67" t="s">
         <v>400</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="E25" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="F25" s="71">
+        <v>44505</v>
+      </c>
+      <c r="G25" s="102">
+        <v>540000</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I25" s="67" t="s">
         <v>594</v>
       </c>
@@ -3693,9 +4111,11 @@
         <v>401</v>
       </c>
       <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I26" s="67" t="s">
         <v>604</v>
       </c>
@@ -3731,9 +4151,11 @@
         <v>402</v>
       </c>
       <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I27" s="67" t="s">
         <v>593</v>
       </c>
@@ -3771,9 +4193,11 @@
         <v>403</v>
       </c>
       <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I28" s="67" t="s">
         <v>595</v>
       </c>
@@ -3810,10 +4234,18 @@
       <c r="D29" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="E29" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="F29" s="71">
+        <v>44558</v>
+      </c>
+      <c r="G29" s="102">
+        <v>56950</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I29" s="67" t="s">
         <v>596</v>
       </c>
@@ -3851,9 +4283,11 @@
         <v>405</v>
       </c>
       <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I30" s="67" t="s">
         <v>599</v>
       </c>
@@ -3891,9 +4325,11 @@
         <v>406</v>
       </c>
       <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I31" s="67" t="s">
         <v>602</v>
       </c>
@@ -3931,9 +4367,11 @@
         <v>407</v>
       </c>
       <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I32" s="67" t="s">
         <v>603</v>
       </c>
@@ -3969,9 +4407,11 @@
         <v>408</v>
       </c>
       <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I33" s="67" t="s">
         <v>596</v>
       </c>
@@ -4009,9 +4449,11 @@
         <v>409</v>
       </c>
       <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I34" s="67" t="s">
         <v>599</v>
       </c>
@@ -4047,9 +4489,11 @@
         <v>410</v>
       </c>
       <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I35" s="67" t="s">
         <v>596</v>
       </c>
@@ -4087,9 +4531,11 @@
         <v>411</v>
       </c>
       <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I36" s="69" t="s">
         <v>594</v>
       </c>
@@ -4126,10 +4572,18 @@
       <c r="D37" s="67" t="s">
         <v>412</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+      <c r="E37" s="67" t="s">
+        <v>627</v>
+      </c>
+      <c r="F37" s="71">
+        <v>44583</v>
+      </c>
+      <c r="G37" s="102">
+        <v>25800</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I37" s="69" t="s">
         <v>594</v>
       </c>
@@ -4167,9 +4621,11 @@
         <v>413</v>
       </c>
       <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I38" s="67" t="s">
         <v>604</v>
       </c>
@@ -4206,12 +4662,20 @@
       <c r="D39" s="67" t="s">
         <v>414</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
+      <c r="E39" s="67" t="s">
+        <v>628</v>
+      </c>
+      <c r="F39" s="71">
+        <v>44593</v>
+      </c>
+      <c r="G39" s="102">
+        <v>59750</v>
+      </c>
+      <c r="H39" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I39" s="67" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="J39" s="69" t="s">
         <v>28</v>
@@ -4245,9 +4709,11 @@
         <v>415</v>
       </c>
       <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I40" s="67" t="s">
         <v>595</v>
       </c>
@@ -4285,9 +4751,11 @@
         <v>416</v>
       </c>
       <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I41" s="67" t="s">
         <v>596</v>
       </c>
@@ -4325,9 +4793,11 @@
         <v>417</v>
       </c>
       <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I42" s="67" t="s">
         <v>599</v>
       </c>
@@ -4364,10 +4834,18 @@
       <c r="D43" s="67" t="s">
         <v>418</v>
       </c>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
+      <c r="E43" s="67" t="s">
+        <v>629</v>
+      </c>
+      <c r="F43" s="71">
+        <v>44704</v>
+      </c>
+      <c r="G43" s="102">
+        <v>145800</v>
+      </c>
+      <c r="H43" s="69" t="s">
+        <v>594</v>
+      </c>
       <c r="I43" s="69" t="s">
         <v>594</v>
       </c>
@@ -4403,9 +4881,11 @@
         <v>419</v>
       </c>
       <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I44" s="67" t="s">
         <v>603</v>
       </c>
@@ -4442,10 +4922,18 @@
       <c r="D45" s="67" t="s">
         <v>420</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
+      <c r="E45" s="67" t="s">
+        <v>630</v>
+      </c>
+      <c r="F45" s="71">
+        <v>44382</v>
+      </c>
+      <c r="G45" s="102">
+        <v>2456000</v>
+      </c>
+      <c r="H45" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I45" s="67" t="s">
         <v>596</v>
       </c>
@@ -4483,9 +4971,11 @@
         <v>421</v>
       </c>
       <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I46" s="67" t="s">
         <v>599</v>
       </c>
@@ -4523,9 +5013,11 @@
         <v>422</v>
       </c>
       <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I47" s="67" t="s">
         <v>596</v>
       </c>
@@ -4562,10 +5054,18 @@
       <c r="D48" s="67" t="s">
         <v>423</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
+      <c r="E48" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F48" s="71">
+        <v>44416</v>
+      </c>
+      <c r="G48" s="102">
+        <v>369700</v>
+      </c>
+      <c r="H48" s="69" t="s">
+        <v>594</v>
+      </c>
       <c r="I48" s="69" t="s">
         <v>594</v>
       </c>
@@ -4600,12 +5100,20 @@
       <c r="D49" s="67" t="s">
         <v>424</v>
       </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="69" t="s">
-        <v>594</v>
+      <c r="E49" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="F49" s="71">
+        <v>44416</v>
+      </c>
+      <c r="G49" s="102">
+        <v>478960</v>
+      </c>
+      <c r="H49" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="I49" s="67" t="s">
+        <v>605</v>
       </c>
       <c r="J49" s="69" t="s">
         <v>154</v>
@@ -4641,9 +5149,11 @@
         <v>425</v>
       </c>
       <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I50" s="67" t="s">
         <v>604</v>
       </c>
@@ -4679,9 +5189,11 @@
         <v>426</v>
       </c>
       <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I51" s="67" t="s">
         <v>593</v>
       </c>
@@ -4719,9 +5231,11 @@
         <v>427</v>
       </c>
       <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I52" s="67" t="s">
         <v>595</v>
       </c>
@@ -4758,10 +5272,18 @@
       <c r="D53" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
+      <c r="E53" s="67" t="s">
+        <v>633</v>
+      </c>
+      <c r="F53" s="71">
+        <v>44525</v>
+      </c>
+      <c r="G53" s="102">
+        <v>254000</v>
+      </c>
+      <c r="H53" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I53" s="67" t="s">
         <v>596</v>
       </c>
@@ -4796,10 +5318,18 @@
       <c r="D54" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
+      <c r="E54" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="F54" s="71">
+        <v>44528</v>
+      </c>
+      <c r="G54" s="102">
+        <v>12300</v>
+      </c>
+      <c r="H54" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I54" s="67" t="s">
         <v>599</v>
       </c>
@@ -4834,10 +5364,18 @@
       <c r="D55" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
+      <c r="E55" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="F55" s="71">
+        <v>44542</v>
+      </c>
+      <c r="G55" s="102">
+        <v>258000</v>
+      </c>
+      <c r="H55" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I55" s="67" t="s">
         <v>602</v>
       </c>
@@ -4873,9 +5411,11 @@
         <v>431</v>
       </c>
       <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I56" s="67" t="s">
         <v>603</v>
       </c>
@@ -4910,10 +5450,18 @@
       <c r="D57" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
+      <c r="E57" s="67" t="s">
+        <v>636</v>
+      </c>
+      <c r="F57" s="71">
+        <v>44548</v>
+      </c>
+      <c r="G57" s="102">
+        <v>255000</v>
+      </c>
+      <c r="H57" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I57" s="67" t="s">
         <v>596</v>
       </c>
@@ -4951,9 +5499,11 @@
         <v>433</v>
       </c>
       <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I58" s="67" t="s">
         <v>599</v>
       </c>
@@ -4989,9 +5539,11 @@
         <v>434</v>
       </c>
       <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I59" s="67" t="s">
         <v>596</v>
       </c>
@@ -5027,9 +5579,11 @@
         <v>435</v>
       </c>
       <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I60" s="69" t="s">
         <v>594</v>
       </c>
@@ -5065,9 +5619,11 @@
         <v>436</v>
       </c>
       <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I61" s="69" t="s">
         <v>594</v>
       </c>
@@ -5103,9 +5659,11 @@
         <v>437</v>
       </c>
       <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I62" s="67" t="s">
         <v>604</v>
       </c>
@@ -5141,9 +5699,11 @@
         <v>438</v>
       </c>
       <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I63" s="67" t="s">
         <v>593</v>
       </c>
@@ -5180,10 +5740,18 @@
       <c r="D64" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
+      <c r="E64" s="67" t="s">
+        <v>637</v>
+      </c>
+      <c r="F64" s="71">
+        <v>44578</v>
+      </c>
+      <c r="G64" s="102">
+        <v>265000</v>
+      </c>
+      <c r="H64" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I64" s="67" t="s">
         <v>595</v>
       </c>
@@ -5218,10 +5786,18 @@
       <c r="D65" s="67" t="s">
         <v>440</v>
       </c>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
+      <c r="E65" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="F65" s="71">
+        <v>44592</v>
+      </c>
+      <c r="G65" s="102">
+        <v>2589000</v>
+      </c>
+      <c r="H65" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I65" s="67" t="s">
         <v>596</v>
       </c>
@@ -5256,10 +5832,18 @@
       <c r="D66" s="67" t="s">
         <v>441</v>
       </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
+      <c r="E66" s="67" t="s">
+        <v>639</v>
+      </c>
+      <c r="F66" s="71">
+        <v>44603</v>
+      </c>
+      <c r="G66" s="102">
+        <v>2569000</v>
+      </c>
+      <c r="H66" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I66" s="67" t="s">
         <v>599</v>
       </c>
@@ -5296,10 +5880,18 @@
       <c r="D67" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
+      <c r="E67" s="67" t="s">
+        <v>640</v>
+      </c>
+      <c r="F67" s="71">
+        <v>44609</v>
+      </c>
+      <c r="G67" s="102">
+        <v>148000</v>
+      </c>
+      <c r="H67" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I67" s="67" t="s">
         <v>602</v>
       </c>
@@ -5337,9 +5929,11 @@
         <v>443</v>
       </c>
       <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I68" s="67" t="s">
         <v>603</v>
       </c>
@@ -5376,10 +5970,18 @@
       <c r="D69" s="67" t="s">
         <v>444</v>
       </c>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
+      <c r="E69" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="F69" s="71">
+        <v>44610</v>
+      </c>
+      <c r="G69" s="102">
+        <v>21000000</v>
+      </c>
+      <c r="H69" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I69" s="67" t="s">
         <v>596</v>
       </c>
@@ -5415,9 +6017,11 @@
         <v>445</v>
       </c>
       <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I70" s="67" t="s">
         <v>599</v>
       </c>
@@ -5454,10 +6058,18 @@
       <c r="D71" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
+      <c r="E71" s="67" t="s">
+        <v>642</v>
+      </c>
+      <c r="F71" s="74">
+        <v>44632</v>
+      </c>
+      <c r="G71" s="102">
+        <v>145500</v>
+      </c>
+      <c r="H71" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I71" s="67" t="s">
         <v>596</v>
       </c>
@@ -5492,10 +6104,18 @@
       <c r="D72" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
+      <c r="E72" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="F72" s="74">
+        <v>44640</v>
+      </c>
+      <c r="G72" s="102">
+        <v>365000</v>
+      </c>
+      <c r="H72" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I72" s="67" t="s">
         <v>594</v>
       </c>
@@ -5530,12 +6150,20 @@
       <c r="D73" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
+      <c r="E73" s="67" t="s">
+        <v>644</v>
+      </c>
+      <c r="F73" s="74">
+        <v>44640</v>
+      </c>
+      <c r="G73" s="102">
+        <v>265000</v>
+      </c>
+      <c r="H73" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I73" s="67" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="J73" s="69" t="s">
         <v>128</v>
@@ -5570,10 +6198,18 @@
       <c r="D74" s="67" t="s">
         <v>449</v>
       </c>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
+      <c r="E74" s="67" t="s">
+        <v>645</v>
+      </c>
+      <c r="F74" s="74">
+        <v>44657</v>
+      </c>
+      <c r="G74" s="102">
+        <v>5600000</v>
+      </c>
+      <c r="H74" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I74" s="67" t="s">
         <v>604</v>
       </c>
@@ -5611,9 +6247,11 @@
         <v>450</v>
       </c>
       <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I75" s="67" t="s">
         <v>593</v>
       </c>
@@ -5651,9 +6289,11 @@
         <v>451</v>
       </c>
       <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I76" s="67" t="s">
         <v>595</v>
       </c>
@@ -5690,10 +6330,18 @@
       <c r="D77" s="67" t="s">
         <v>452</v>
       </c>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
+      <c r="E77" s="67" t="s">
+        <v>646</v>
+      </c>
+      <c r="F77" s="74">
+        <v>44671</v>
+      </c>
+      <c r="G77" s="102">
+        <v>258000</v>
+      </c>
+      <c r="H77" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I77" s="67" t="s">
         <v>596</v>
       </c>
@@ -5728,10 +6376,18 @@
       <c r="D78" s="67" t="s">
         <v>453</v>
       </c>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
+      <c r="E78" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="F78" s="74">
+        <v>44672</v>
+      </c>
+      <c r="G78" s="102">
+        <v>220000</v>
+      </c>
+      <c r="H78" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I78" s="67" t="s">
         <v>599</v>
       </c>
@@ -5768,12 +6424,20 @@
       <c r="D79" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
+      <c r="E79" s="67" t="s">
+        <v>648</v>
+      </c>
+      <c r="F79" s="74">
+        <v>44655</v>
+      </c>
+      <c r="G79" s="102">
+        <v>5000000</v>
+      </c>
+      <c r="H79" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I79" s="67" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="J79" s="69" t="s">
         <v>15</v>
@@ -5807,9 +6471,11 @@
         <v>455</v>
       </c>
       <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I80" s="67" t="s">
         <v>603</v>
       </c>
@@ -5845,9 +6511,11 @@
         <v>456</v>
       </c>
       <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I81" s="67" t="s">
         <v>596</v>
       </c>
@@ -5882,12 +6550,20 @@
       <c r="D82" s="67" t="s">
         <v>457</v>
       </c>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
+      <c r="E82" s="67" t="s">
+        <v>649</v>
+      </c>
+      <c r="F82" s="71">
+        <v>44408</v>
+      </c>
+      <c r="G82" s="102">
+        <v>300000</v>
+      </c>
+      <c r="H82" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I82" s="67" t="s">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="J82" s="69" t="s">
         <v>15</v>
@@ -5922,10 +6598,18 @@
       <c r="D83" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
+      <c r="E83" s="67" t="s">
+        <v>650</v>
+      </c>
+      <c r="F83" s="71">
+        <v>44421</v>
+      </c>
+      <c r="G83" s="102">
+        <v>2100</v>
+      </c>
+      <c r="H83" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I83" s="67" t="s">
         <v>596</v>
       </c>
@@ -5961,9 +6645,11 @@
         <v>459</v>
       </c>
       <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="102"/>
+      <c r="H84" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I84" s="69" t="s">
         <v>594</v>
       </c>
@@ -5999,9 +6685,11 @@
         <v>460</v>
       </c>
       <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I85" s="69" t="s">
         <v>594</v>
       </c>
@@ -6038,10 +6726,18 @@
       <c r="D86" s="67" t="s">
         <v>461</v>
       </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
+      <c r="E86" s="67" t="s">
+        <v>651</v>
+      </c>
+      <c r="F86" s="71">
+        <v>44461</v>
+      </c>
+      <c r="G86" s="102">
+        <v>360000</v>
+      </c>
+      <c r="H86" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I86" s="67" t="s">
         <v>604</v>
       </c>
@@ -6076,12 +6772,20 @@
       <c r="D87" s="67" t="s">
         <v>462</v>
       </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67" t="s">
-        <v>593</v>
+      <c r="E87" s="67" t="s">
+        <v>652</v>
+      </c>
+      <c r="F87" s="71">
+        <v>44462</v>
+      </c>
+      <c r="G87" s="102">
+        <v>450000</v>
+      </c>
+      <c r="H87" s="69" t="s">
+        <v>594</v>
+      </c>
+      <c r="I87" s="69" t="s">
+        <v>594</v>
       </c>
       <c r="J87" s="69" t="s">
         <v>15</v>
@@ -6114,10 +6818,18 @@
       <c r="D88" s="67" t="s">
         <v>463</v>
       </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
+      <c r="E88" s="67" t="s">
+        <v>653</v>
+      </c>
+      <c r="F88" s="71">
+        <v>44462</v>
+      </c>
+      <c r="G88" s="102">
+        <v>2480000</v>
+      </c>
+      <c r="H88" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I88" s="67" t="s">
         <v>595</v>
       </c>
@@ -6152,10 +6864,18 @@
       <c r="D89" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
+      <c r="E89" s="67" t="s">
+        <v>654</v>
+      </c>
+      <c r="F89" s="71">
+        <v>44496</v>
+      </c>
+      <c r="G89" s="102">
+        <v>2560000</v>
+      </c>
+      <c r="H89" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I89" s="67" t="s">
         <v>596</v>
       </c>
@@ -6190,12 +6910,20 @@
       <c r="D90" s="67" t="s">
         <v>465</v>
       </c>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
+      <c r="E90" s="67" t="s">
+        <v>655</v>
+      </c>
+      <c r="F90" s="71">
+        <v>44531</v>
+      </c>
+      <c r="G90" s="102">
+        <v>7800000</v>
+      </c>
+      <c r="H90" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I90" s="67" t="s">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="J90" s="69" t="s">
         <v>15</v>
@@ -6230,12 +6958,20 @@
       <c r="D91" s="67" t="s">
         <v>466</v>
       </c>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
+      <c r="E91" s="67" t="s">
+        <v>656</v>
+      </c>
+      <c r="F91" s="71">
+        <v>44537</v>
+      </c>
+      <c r="G91" s="102">
+        <v>9640000</v>
+      </c>
+      <c r="H91" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I91" s="67" t="s">
-        <v>602</v>
+        <v>692</v>
       </c>
       <c r="J91" s="69" t="s">
         <v>15</v>
@@ -6270,10 +7006,18 @@
       <c r="D92" s="67" t="s">
         <v>467</v>
       </c>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
+      <c r="E92" s="67" t="s">
+        <v>657</v>
+      </c>
+      <c r="F92" s="71">
+        <v>44540</v>
+      </c>
+      <c r="G92" s="102">
+        <v>258000</v>
+      </c>
+      <c r="H92" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I92" s="67" t="s">
         <v>603</v>
       </c>
@@ -6309,9 +7053,11 @@
         <v>468</v>
       </c>
       <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I93" s="67" t="s">
         <v>596</v>
       </c>
@@ -6347,9 +7093,11 @@
         <v>469</v>
       </c>
       <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I94" s="67" t="s">
         <v>599</v>
       </c>
@@ -6384,10 +7132,18 @@
       <c r="D95" s="67" t="s">
         <v>470</v>
       </c>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
+      <c r="E95" s="67" t="s">
+        <v>658</v>
+      </c>
+      <c r="F95" s="71">
+        <v>44574</v>
+      </c>
+      <c r="G95" s="102">
+        <v>245000</v>
+      </c>
+      <c r="H95" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I95" s="67" t="s">
         <v>596</v>
       </c>
@@ -6425,9 +7181,11 @@
         <v>471</v>
       </c>
       <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="102"/>
+      <c r="H96" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I96" s="69" t="s">
         <v>594</v>
       </c>
@@ -6463,9 +7221,11 @@
         <v>472</v>
       </c>
       <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="102"/>
+      <c r="H97" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I97" s="69" t="s">
         <v>594</v>
       </c>
@@ -6500,10 +7260,18 @@
       <c r="D98" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
+      <c r="E98" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="F98" s="71">
+        <v>44593</v>
+      </c>
+      <c r="G98" s="102">
+        <v>8900000</v>
+      </c>
+      <c r="H98" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I98" s="67" t="s">
         <v>604</v>
       </c>
@@ -6538,12 +7306,20 @@
       <c r="D99" s="67" t="s">
         <v>474</v>
       </c>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67" t="s">
-        <v>593</v>
+      <c r="E99" s="67" t="s">
+        <v>660</v>
+      </c>
+      <c r="F99" s="71">
+        <v>44594</v>
+      </c>
+      <c r="G99" s="102">
+        <v>587000</v>
+      </c>
+      <c r="H99" s="69" t="s">
+        <v>594</v>
+      </c>
+      <c r="I99" s="69" t="s">
+        <v>594</v>
       </c>
       <c r="J99" s="69" t="s">
         <v>15</v>
@@ -6577,9 +7353,11 @@
         <v>475</v>
       </c>
       <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="102"/>
+      <c r="H100" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I100" s="67" t="s">
         <v>595</v>
       </c>
@@ -6614,10 +7392,18 @@
       <c r="D101" s="67" t="s">
         <v>476</v>
       </c>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
+      <c r="E101" s="67" t="s">
+        <v>661</v>
+      </c>
+      <c r="F101" s="71">
+        <v>44596</v>
+      </c>
+      <c r="G101" s="102">
+        <v>65000</v>
+      </c>
+      <c r="H101" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I101" s="67" t="s">
         <v>596</v>
       </c>
@@ -6653,9 +7439,11 @@
         <v>477</v>
       </c>
       <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="102"/>
+      <c r="H102" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I102" s="67" t="s">
         <v>599</v>
       </c>
@@ -6690,10 +7478,18 @@
       <c r="D103" s="67" t="s">
         <v>478</v>
       </c>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
+      <c r="E103" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="F103" s="71">
+        <v>44630</v>
+      </c>
+      <c r="G103" s="102">
+        <v>112200</v>
+      </c>
+      <c r="H103" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I103" s="67" t="s">
         <v>602</v>
       </c>
@@ -6728,10 +7524,18 @@
       <c r="D104" s="67" t="s">
         <v>479</v>
       </c>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
+      <c r="E104" s="67" t="s">
+        <v>663</v>
+      </c>
+      <c r="F104" s="71">
+        <v>44630</v>
+      </c>
+      <c r="G104" s="102">
+        <v>870000</v>
+      </c>
+      <c r="H104" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I104" s="67" t="s">
         <v>603</v>
       </c>
@@ -6766,10 +7570,18 @@
       <c r="D105" s="67" t="s">
         <v>480</v>
       </c>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
+      <c r="E105" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="F105" s="71">
+        <v>44632</v>
+      </c>
+      <c r="G105" s="102">
+        <v>28000</v>
+      </c>
+      <c r="H105" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I105" s="67" t="s">
         <v>596</v>
       </c>
@@ -6804,10 +7616,18 @@
       <c r="D106" s="67" t="s">
         <v>481</v>
       </c>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
+      <c r="E106" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="F106" s="71">
+        <v>44642</v>
+      </c>
+      <c r="G106" s="102">
+        <v>15000</v>
+      </c>
+      <c r="H106" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I106" s="67" t="s">
         <v>599</v>
       </c>
@@ -6842,10 +7662,18 @@
       <c r="D107" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
+      <c r="E107" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="F107" s="71">
+        <v>44644</v>
+      </c>
+      <c r="G107" s="102">
+        <v>150000</v>
+      </c>
+      <c r="H107" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I107" s="67" t="s">
         <v>596</v>
       </c>
@@ -6880,10 +7708,18 @@
       <c r="D108" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
+      <c r="E108" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="F108" s="71">
+        <v>44646</v>
+      </c>
+      <c r="G108" s="102">
+        <v>36980000</v>
+      </c>
+      <c r="H108" s="69" t="s">
+        <v>594</v>
+      </c>
       <c r="I108" s="69" t="s">
         <v>594</v>
       </c>
@@ -6920,12 +7756,20 @@
       <c r="D109" s="67" t="s">
         <v>484</v>
       </c>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="69" t="s">
-        <v>594</v>
+      <c r="E109" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="F109" s="71">
+        <v>44649</v>
+      </c>
+      <c r="G109" s="102">
+        <v>154000</v>
+      </c>
+      <c r="H109" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="I109" s="67" t="s">
+        <v>605</v>
       </c>
       <c r="J109" s="69" t="s">
         <v>128</v>
@@ -6959,9 +7803,11 @@
         <v>485</v>
       </c>
       <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="102"/>
+      <c r="H110" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I110" s="67" t="s">
         <v>604</v>
       </c>
@@ -6996,12 +7842,20 @@
       <c r="D111" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
+      <c r="E111" s="67" t="s">
+        <v>669</v>
+      </c>
+      <c r="F111" s="71">
+        <v>44657</v>
+      </c>
+      <c r="G111" s="102">
+        <v>145000</v>
+      </c>
+      <c r="H111" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I111" s="67" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="J111" s="69" t="s">
         <v>28</v>
@@ -7034,10 +7888,18 @@
       <c r="D112" s="67" t="s">
         <v>487</v>
       </c>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
+      <c r="E112" s="67" t="s">
+        <v>670</v>
+      </c>
+      <c r="F112" s="71">
+        <v>44674</v>
+      </c>
+      <c r="G112" s="102">
+        <v>22000</v>
+      </c>
+      <c r="H112" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I112" s="67" t="s">
         <v>595</v>
       </c>
@@ -7073,9 +7935,11 @@
         <v>488</v>
       </c>
       <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="102"/>
+      <c r="H113" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I113" s="67" t="s">
         <v>596</v>
       </c>
@@ -7112,10 +7976,18 @@
       <c r="D114" s="67" t="s">
         <v>489</v>
       </c>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
+      <c r="E114" s="67" t="s">
+        <v>671</v>
+      </c>
+      <c r="F114" s="71">
+        <v>44687</v>
+      </c>
+      <c r="G114" s="102">
+        <v>65000</v>
+      </c>
+      <c r="H114" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I114" s="67" t="s">
         <v>599</v>
       </c>
@@ -7150,12 +8022,20 @@
       <c r="D115" s="67" t="s">
         <v>490</v>
       </c>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
+      <c r="E115" s="67" t="s">
+        <v>672</v>
+      </c>
+      <c r="F115" s="71">
+        <v>44698</v>
+      </c>
+      <c r="G115" s="102">
+        <v>2580000</v>
+      </c>
+      <c r="H115" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I115" s="67" t="s">
-        <v>602</v>
+        <v>692</v>
       </c>
       <c r="J115" s="69" t="s">
         <v>15</v>
@@ -7188,12 +8068,20 @@
       <c r="D116" s="67" t="s">
         <v>491</v>
       </c>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="67"/>
+      <c r="E116" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="F116" s="71">
+        <v>44714</v>
+      </c>
+      <c r="G116" s="102">
+        <v>365000</v>
+      </c>
+      <c r="H116" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I116" s="67" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="J116" s="69" t="s">
         <v>128</v>
@@ -7229,9 +8117,11 @@
         <v>492</v>
       </c>
       <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="102"/>
+      <c r="H117" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I117" s="67" t="s">
         <v>596</v>
       </c>
@@ -7267,9 +8157,11 @@
         <v>493</v>
       </c>
       <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="67"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="102"/>
+      <c r="H118" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I118" s="67" t="s">
         <v>599</v>
       </c>
@@ -7304,10 +8196,18 @@
       <c r="D119" s="67" t="s">
         <v>494</v>
       </c>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
+      <c r="E119" s="67" t="s">
+        <v>674</v>
+      </c>
+      <c r="F119" s="71">
+        <v>44727</v>
+      </c>
+      <c r="G119" s="102">
+        <v>100000</v>
+      </c>
+      <c r="H119" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I119" s="67" t="s">
         <v>596</v>
       </c>
@@ -7343,9 +8243,11 @@
         <v>495</v>
       </c>
       <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="67"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="102"/>
+      <c r="H120" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I120" s="67" t="s">
         <v>594</v>
       </c>
@@ -7380,12 +8282,20 @@
       <c r="D121" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
+      <c r="E121" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="F121" s="71">
+        <v>44392</v>
+      </c>
+      <c r="G121" s="102">
+        <v>24500</v>
+      </c>
+      <c r="H121" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I121" s="67" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="J121" s="69" t="s">
         <v>128</v>
@@ -7419,9 +8329,11 @@
         <v>497</v>
       </c>
       <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="102"/>
+      <c r="H122" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I122" s="67" t="s">
         <v>604</v>
       </c>
@@ -7457,9 +8369,11 @@
         <v>498</v>
       </c>
       <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="102"/>
+      <c r="H123" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I123" s="67" t="s">
         <v>593</v>
       </c>
@@ -7495,9 +8409,11 @@
         <v>499</v>
       </c>
       <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67"/>
-      <c r="H124" s="67"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="102"/>
+      <c r="H124" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I124" s="67" t="s">
         <v>595</v>
       </c>
@@ -7534,10 +8450,18 @@
       <c r="D125" s="67" t="s">
         <v>500</v>
       </c>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
+      <c r="E125" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="F125" s="71">
+        <v>44435</v>
+      </c>
+      <c r="G125" s="102">
+        <v>22200000</v>
+      </c>
+      <c r="H125" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I125" s="67" t="s">
         <v>596</v>
       </c>
@@ -7572,12 +8496,20 @@
       <c r="D126" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
+      <c r="E126" s="67" t="s">
+        <v>677</v>
+      </c>
+      <c r="F126" s="71">
+        <v>44438</v>
+      </c>
+      <c r="G126" s="102">
+        <v>3600000</v>
+      </c>
+      <c r="H126" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I126" s="67" t="s">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="J126" s="69" t="s">
         <v>15</v>
@@ -7611,9 +8543,11 @@
         <v>502</v>
       </c>
       <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="102"/>
+      <c r="H127" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I127" s="67" t="s">
         <v>602</v>
       </c>
@@ -7651,9 +8585,11 @@
         <v>503</v>
       </c>
       <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="102"/>
+      <c r="H128" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I128" s="67" t="s">
         <v>603</v>
       </c>
@@ -7690,10 +8626,18 @@
       <c r="D129" s="67" t="s">
         <v>504</v>
       </c>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
+      <c r="E129" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="F129" s="71">
+        <v>44454</v>
+      </c>
+      <c r="G129" s="102">
+        <v>200000</v>
+      </c>
+      <c r="H129" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I129" s="67" t="s">
         <v>596</v>
       </c>
@@ -7728,12 +8672,20 @@
       <c r="D130" s="67" t="s">
         <v>505</v>
       </c>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
+      <c r="E130" s="67" t="s">
+        <v>679</v>
+      </c>
+      <c r="F130" s="71">
+        <v>44463</v>
+      </c>
+      <c r="G130" s="102">
+        <v>4000500</v>
+      </c>
+      <c r="H130" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I130" s="67" t="s">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="J130" s="69" t="s">
         <v>15</v>
@@ -7767,9 +8719,11 @@
         <v>506</v>
       </c>
       <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="102"/>
+      <c r="H131" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I131" s="67" t="s">
         <v>596</v>
       </c>
@@ -7805,9 +8759,11 @@
         <v>507</v>
       </c>
       <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="102"/>
+      <c r="H132" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I132" s="69" t="s">
         <v>594</v>
       </c>
@@ -7842,10 +8798,18 @@
       <c r="D133" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="E133" s="67"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="67"/>
-      <c r="H133" s="67"/>
+      <c r="E133" s="67" t="s">
+        <v>680</v>
+      </c>
+      <c r="F133" s="71">
+        <v>44484</v>
+      </c>
+      <c r="G133" s="102">
+        <v>3600000</v>
+      </c>
+      <c r="H133" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I133" s="69" t="s">
         <v>594</v>
       </c>
@@ -7883,9 +8847,11 @@
         <v>509</v>
       </c>
       <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="67"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="102"/>
+      <c r="H134" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I134" s="67" t="s">
         <v>604</v>
       </c>
@@ -7923,9 +8889,11 @@
         <v>510</v>
       </c>
       <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="67"/>
-      <c r="H135" s="67"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="102"/>
+      <c r="H135" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I135" s="67" t="s">
         <v>593</v>
       </c>
@@ -7960,10 +8928,18 @@
       <c r="D136" s="67" t="s">
         <v>511</v>
       </c>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
+      <c r="E136" s="67" t="s">
+        <v>681</v>
+      </c>
+      <c r="F136" s="71">
+        <v>44532</v>
+      </c>
+      <c r="G136" s="102">
+        <v>25850000</v>
+      </c>
+      <c r="H136" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I136" s="67" t="s">
         <v>595</v>
       </c>
@@ -7998,10 +8974,18 @@
       <c r="D137" s="67" t="s">
         <v>512</v>
       </c>
-      <c r="E137" s="67"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
+      <c r="E137" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="F137" s="71">
+        <v>44544</v>
+      </c>
+      <c r="G137" s="102">
+        <v>15420000</v>
+      </c>
+      <c r="H137" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I137" s="67" t="s">
         <v>596</v>
       </c>
@@ -8036,12 +9020,20 @@
       <c r="D138" s="67" t="s">
         <v>513</v>
       </c>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="67"/>
-      <c r="H138" s="67"/>
+      <c r="E138" s="67" t="s">
+        <v>683</v>
+      </c>
+      <c r="F138" s="71">
+        <v>44546</v>
+      </c>
+      <c r="G138" s="102">
+        <v>14750000</v>
+      </c>
+      <c r="H138" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I138" s="67" t="s">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="J138" s="69" t="s">
         <v>15</v>
@@ -8076,12 +9068,20 @@
       <c r="D139" s="67" t="s">
         <v>514</v>
       </c>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="67"/>
+      <c r="E139" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="F139" s="71">
+        <v>44553</v>
+      </c>
+      <c r="G139" s="102">
+        <v>12300000</v>
+      </c>
+      <c r="H139" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I139" s="67" t="s">
-        <v>602</v>
+        <v>692</v>
       </c>
       <c r="J139" s="69" t="s">
         <v>15</v>
@@ -8115,9 +9115,11 @@
         <v>515</v>
       </c>
       <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="102"/>
+      <c r="H140" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I140" s="67" t="s">
         <v>603</v>
       </c>
@@ -8153,9 +9155,11 @@
         <v>516</v>
       </c>
       <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="102"/>
+      <c r="H141" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I141" s="67" t="s">
         <v>596</v>
       </c>
@@ -8192,12 +9196,20 @@
       <c r="D142" s="67" t="s">
         <v>517</v>
       </c>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="67"/>
+      <c r="E142" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="F142" s="71">
+        <v>44575</v>
+      </c>
+      <c r="G142" s="102">
+        <v>450000</v>
+      </c>
+      <c r="H142" s="67" t="s">
+        <v>594</v>
+      </c>
       <c r="I142" s="67" t="s">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="J142" s="69" t="s">
         <v>15</v>
@@ -8230,10 +9242,18 @@
       <c r="D143" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
+      <c r="E143" s="67" t="s">
+        <v>686</v>
+      </c>
+      <c r="F143" s="71">
+        <v>44586</v>
+      </c>
+      <c r="G143" s="102">
+        <v>157000</v>
+      </c>
+      <c r="H143" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I143" s="67" t="s">
         <v>596</v>
       </c>
@@ -8269,9 +9289,11 @@
         <v>519</v>
       </c>
       <c r="E144" s="67"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="67"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="102"/>
+      <c r="H144" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I144" s="69" t="s">
         <v>594</v>
       </c>
@@ -8307,9 +9329,11 @@
         <v>520</v>
       </c>
       <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="67"/>
-      <c r="H145" s="67"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="102"/>
+      <c r="H145" s="67" t="s">
+        <v>604</v>
+      </c>
       <c r="I145" s="69" t="s">
         <v>594</v>
       </c>
@@ -8344,10 +9368,18 @@
       <c r="D146" s="67" t="s">
         <v>521</v>
       </c>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="67"/>
-      <c r="H146" s="67"/>
+      <c r="E146" s="67" t="s">
+        <v>687</v>
+      </c>
+      <c r="F146" s="71">
+        <v>44594</v>
+      </c>
+      <c r="G146" s="102">
+        <v>125800000</v>
+      </c>
+      <c r="H146" s="69" t="s">
+        <v>594</v>
+      </c>
       <c r="I146" s="69" t="s">
         <v>594</v>
       </c>
@@ -8384,10 +9416,18 @@
       <c r="D147" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="67"/>
-      <c r="H147" s="67"/>
+      <c r="E147" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="F147" s="71">
+        <v>44594</v>
+      </c>
+      <c r="G147" s="102">
+        <v>350000</v>
+      </c>
+      <c r="H147" s="69" t="s">
+        <v>594</v>
+      </c>
       <c r="I147" s="69" t="s">
         <v>594</v>
       </c>
@@ -8424,10 +9464,18 @@
       <c r="D148" s="67" t="s">
         <v>523</v>
       </c>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
+      <c r="E148" s="67" t="s">
+        <v>689</v>
+      </c>
+      <c r="F148" s="71">
+        <v>44596</v>
+      </c>
+      <c r="G148" s="102">
+        <v>236500000</v>
+      </c>
+      <c r="H148" s="69" t="s">
+        <v>594</v>
+      </c>
       <c r="I148" s="69" t="s">
         <v>594</v>
       </c>
@@ -8464,10 +9512,18 @@
       <c r="D149" s="67" t="s">
         <v>524</v>
       </c>
-      <c r="E149" s="67"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="67"/>
-      <c r="H149" s="67"/>
+      <c r="E149" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="F149" s="71">
+        <v>44603</v>
+      </c>
+      <c r="G149" s="102">
+        <v>28900</v>
+      </c>
+      <c r="H149" s="67" t="s">
+        <v>596</v>
+      </c>
       <c r="I149" s="67" t="s">
         <v>605</v>
       </c>
@@ -8504,10 +9560,16 @@
       <c r="D150" s="67" t="s">
         <v>525</v>
       </c>
-      <c r="E150" s="67"/>
+      <c r="E150" s="67" t="s">
+        <v>691</v>
+      </c>
       <c r="F150" s="67"/>
-      <c r="G150" s="67"/>
-      <c r="H150" s="67"/>
+      <c r="G150" s="102">
+        <v>8950000</v>
+      </c>
+      <c r="H150" s="67" t="s">
+        <v>595</v>
+      </c>
       <c r="I150" s="67" t="s">
         <v>605</v>
       </c>
@@ -8533,6 +9595,7 @@
     <row r="151" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="78"/>
       <c r="C151" s="81"/>
+      <c r="G151" s="78"/>
       <c r="K151" s="79"/>
       <c r="L151" s="78"/>
       <c r="N151" s="78"/>
@@ -8540,12 +9603,13 @@
     <row r="152" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="78"/>
       <c r="C152" s="81"/>
+      <c r="G152" s="78"/>
       <c r="K152" s="78"/>
       <c r="L152" s="78"/>
       <c r="N152" s="78"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2" xr:uid="{E8193A89-A4D5-455A-9323-2060B1E8F87A}"/>
+  <autoFilter ref="A2:O150" xr:uid="{E8193A89-A4D5-455A-9323-2060B1E8F87A}"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BelInt_WebHelper/Docs/курсовая для работы/Книга регистрации клиентов.xlsx
+++ b/BelInt_WebHelper/Docs/курсовая для работы/Книга регистрации клиентов.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myaki\source\repos\BelInt_WebHelper\BelInt_WebHelper\Docs\курсовая для работы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doctor\source\repos\boyvano\BelInt_WebHelper\BelInt_WebHelper\Docs\курсовая для работы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D5FDBF-0F2F-4CFA-A74E-70ACDB5EFA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21624BA3-D51C-466C-AE57-4204BA9607EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2915,7 +2915,7 @@
   <dimension ref="A1:P152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,7 +2929,7 @@
     <col min="7" max="7" width="17.42578125" style="62" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="12" style="62" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="62" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" customWidth="1"/>

--- a/BelInt_WebHelper/Docs/курсовая для работы/Книга регистрации клиентов.xlsx
+++ b/BelInt_WebHelper/Docs/курсовая для работы/Книга регистрации клиентов.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doctor\source\repos\boyvano\BelInt_WebHelper\BelInt_WebHelper\Docs\курсовая для работы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21624BA3-D51C-466C-AE57-4204BA9607EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28060942-9239-443A-8E74-6D3553E78A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="договоры" sheetId="2" r:id="rId1"/>
-    <sheet name="реквизиты банка" sheetId="3" r:id="rId2"/>
+    <sheet name="реквизиты банка" sheetId="3" r:id="rId1"/>
+    <sheet name="договоры" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">договоры!$A$2:$O$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">договоры!$A$2:$O$148</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="691">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1337,12 +1337,6 @@
   </si>
   <si>
     <t>Клиент 55</t>
-  </si>
-  <si>
-    <t>Клиент 56</t>
-  </si>
-  <si>
-    <t>Клиент 57</t>
   </si>
   <si>
     <t>Клиент 58</t>
@@ -2911,11 +2905,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B4AC96-11DB-4D96-B1C8-791E9D8AE765}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8193A89-A4D5-455A-9323-2060B1E8F87A}">
-  <dimension ref="A1:P152"/>
+  <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,19 +3006,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F1" s="88" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G1" s="88" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I1" s="88" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J1" s="90" t="s">
         <v>5</v>
@@ -2972,16 +3027,16 @@
         <v>6</v>
       </c>
       <c r="L1" s="90" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M1" s="90" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="90" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="O1" s="90" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3049,7 +3104,7 @@
         <v>378</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F3" s="71">
         <v>44240</v>
@@ -3058,28 +3113,28 @@
         <v>20000</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I3" s="67" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J3" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L3" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M3" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3100,33 +3155,33 @@
       <c r="F4" s="71"/>
       <c r="G4" s="101"/>
       <c r="H4" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I4" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J4" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L4" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70">
-        <f t="shared" ref="A5:A68" si="0">A4+1</f>
+        <f t="shared" ref="A5:A66" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="71">
@@ -3139,7 +3194,7 @@
         <v>380</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F5" s="71">
         <v>44296</v>
@@ -3148,28 +3203,28 @@
         <v>145000</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J5" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L5" s="70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M5" s="73">
         <v>1</v>
       </c>
       <c r="N5" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3187,7 +3242,7 @@
         <v>381</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F6" s="71">
         <v>44526</v>
@@ -3196,28 +3251,28 @@
         <v>25700</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J6" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3235,7 +3290,7 @@
         <v>382</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F7" s="71">
         <v>44299</v>
@@ -3244,25 +3299,25 @@
         <v>1250000</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I7" s="67" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J7" s="69" t="s">
         <v>56</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L7" s="70" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M7" s="70" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O7" s="10"/>
     </row>
@@ -3284,25 +3339,25 @@
       <c r="F8" s="71"/>
       <c r="G8" s="102"/>
       <c r="H8" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J8" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L8" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M8" s="70" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O8" s="10"/>
     </row>
@@ -3321,7 +3376,7 @@
         <v>384</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F9" s="71">
         <v>44341</v>
@@ -3330,28 +3385,28 @@
         <v>450000</v>
       </c>
       <c r="H9" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I9" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L9" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M9" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3372,28 +3427,28 @@
       <c r="F10" s="71"/>
       <c r="G10" s="102"/>
       <c r="H10" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J10" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L10" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L10" s="70" t="s">
-        <v>529</v>
-      </c>
       <c r="M10" s="73">
         <v>1</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3411,7 +3466,7 @@
         <v>386</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F11" s="71">
         <v>44518</v>
@@ -3420,28 +3475,28 @@
         <v>785000</v>
       </c>
       <c r="H11" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J11" s="69" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L11" s="70" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M11" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N11" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3459,7 +3514,7 @@
         <v>387</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F12" s="71">
         <v>44586</v>
@@ -3468,28 +3523,28 @@
         <v>368000</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J12" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K12" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L12" s="70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M12" s="73">
         <v>1</v>
       </c>
       <c r="N12" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3507,7 +3562,7 @@
         <v>388</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F13" s="71">
         <v>44634</v>
@@ -3516,28 +3571,28 @@
         <v>678200</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J13" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L13" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M13" s="73">
         <v>1</v>
       </c>
       <c r="N13" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3558,28 +3613,28 @@
       <c r="F14" s="71"/>
       <c r="G14" s="102"/>
       <c r="H14" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J14" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L14" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M14" s="73">
         <v>1</v>
       </c>
       <c r="N14" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3597,7 +3652,7 @@
         <v>390</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F15" s="71">
         <v>44409</v>
@@ -3606,25 +3661,25 @@
         <v>2564100</v>
       </c>
       <c r="H15" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J15" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L15" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M15" s="73">
         <v>1</v>
       </c>
       <c r="N15" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O15" s="10"/>
     </row>
@@ -3643,7 +3698,7 @@
         <v>391</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F16" s="71">
         <v>44464</v>
@@ -3652,28 +3707,28 @@
         <v>3690000</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J16" s="69" t="s">
         <v>79</v>
       </c>
       <c r="K16" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M16" s="70" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="83" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3691,7 +3746,7 @@
         <v>392</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F17" s="71">
         <v>44583</v>
@@ -3700,25 +3755,25 @@
         <v>3589300</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I17" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J17" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L17" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M17" s="73">
         <v>1</v>
       </c>
       <c r="N17" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O17" s="10"/>
     </row>
@@ -3737,7 +3792,7 @@
         <v>393</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F18" s="71">
         <v>44587</v>
@@ -3746,28 +3801,28 @@
         <v>3256000</v>
       </c>
       <c r="H18" s="67" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I18" s="67" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J18" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K18" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L18" s="70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M18" s="73">
         <v>1</v>
       </c>
       <c r="N18" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3785,7 +3840,7 @@
         <v>394</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F19" s="71">
         <v>44737</v>
@@ -3794,28 +3849,28 @@
         <v>4565000</v>
       </c>
       <c r="H19" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I19" s="67" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J19" s="69" t="s">
         <v>86</v>
       </c>
       <c r="K19" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L19" s="70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M19" s="73">
         <v>1</v>
       </c>
       <c r="N19" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,7 +3888,7 @@
         <v>395</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F20" s="71">
         <v>44387</v>
@@ -3842,28 +3897,28 @@
         <v>24569000</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I20" s="67" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J20" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L20" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M20" s="73">
         <v>1</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3881,7 +3936,7 @@
         <v>396</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F21" s="71">
         <v>44425</v>
@@ -3890,28 +3945,28 @@
         <v>4568000</v>
       </c>
       <c r="H21" s="67" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I21" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J21" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L21" s="70" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M21" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3923,7 +3978,7 @@
         <v>43355</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D22" s="67" t="s">
         <v>397</v>
@@ -3932,25 +3987,25 @@
       <c r="F22" s="71"/>
       <c r="G22" s="102"/>
       <c r="H22" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I22" s="67" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J22" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K22" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L22" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L22" s="70" t="s">
-        <v>529</v>
-      </c>
       <c r="M22" s="73">
         <v>1</v>
       </c>
       <c r="N22" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O22" s="10"/>
     </row>
@@ -3969,7 +4024,7 @@
         <v>398</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F23" s="71">
         <v>44485</v>
@@ -3978,28 +4033,28 @@
         <v>458750</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I23" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J23" s="69" t="s">
         <v>96</v>
       </c>
       <c r="K23" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L23" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M23" s="73">
         <v>1</v>
       </c>
       <c r="N23" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4017,7 +4072,7 @@
         <v>399</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F24" s="71">
         <v>44499</v>
@@ -4026,25 +4081,25 @@
         <v>2556900</v>
       </c>
       <c r="H24" s="67" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I24" s="67" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J24" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M24" s="73">
         <v>1</v>
       </c>
       <c r="N24" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O24" s="10"/>
     </row>
@@ -4063,7 +4118,7 @@
         <v>400</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F25" s="71">
         <v>44505</v>
@@ -4072,28 +4127,28 @@
         <v>540000</v>
       </c>
       <c r="H25" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I25" s="67" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J25" s="69" t="s">
         <v>86</v>
       </c>
       <c r="K25" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L25" s="70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M25" s="73">
         <v>1</v>
       </c>
       <c r="N25" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4114,25 +4169,25 @@
       <c r="F26" s="71"/>
       <c r="G26" s="102"/>
       <c r="H26" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I26" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J26" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L26" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M26" s="73">
         <v>1</v>
       </c>
       <c r="N26" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O26" s="10"/>
     </row>
@@ -4154,28 +4209,28 @@
       <c r="F27" s="71"/>
       <c r="G27" s="102"/>
       <c r="H27" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I27" s="67" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J27" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L27" s="70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M27" s="73">
         <v>1</v>
       </c>
       <c r="N27" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4196,28 +4251,28 @@
       <c r="F28" s="71"/>
       <c r="G28" s="102"/>
       <c r="H28" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I28" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J28" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K28" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L28" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M28" s="73">
         <v>1</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4235,7 +4290,7 @@
         <v>404</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F29" s="71">
         <v>44558</v>
@@ -4244,28 +4299,28 @@
         <v>56950</v>
       </c>
       <c r="H29" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I29" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J29" s="69" t="s">
         <v>110</v>
       </c>
       <c r="K29" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L29" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M29" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N29" s="85" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4286,28 +4341,28 @@
       <c r="F30" s="71"/>
       <c r="G30" s="102"/>
       <c r="H30" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I30" s="67" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J30" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K30" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L30" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M30" s="73">
         <v>1</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4328,28 +4383,28 @@
       <c r="F31" s="71"/>
       <c r="G31" s="102"/>
       <c r="H31" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I31" s="67" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J31" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L31" s="70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M31" s="73">
         <v>1</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4370,25 +4425,25 @@
       <c r="F32" s="71"/>
       <c r="G32" s="102"/>
       <c r="H32" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I32" s="67" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J32" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L32" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M32" s="73">
         <v>1</v>
       </c>
       <c r="N32" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O32" s="10"/>
     </row>
@@ -4410,28 +4465,28 @@
       <c r="F33" s="71"/>
       <c r="G33" s="102"/>
       <c r="H33" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I33" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J33" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L33" s="70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M33" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N33" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4452,25 +4507,25 @@
       <c r="F34" s="71"/>
       <c r="G34" s="102"/>
       <c r="H34" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I34" s="67" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J34" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K34" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L34" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M34" s="73">
         <v>1</v>
       </c>
       <c r="N34" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O34" s="10"/>
     </row>
@@ -4492,28 +4547,28 @@
       <c r="F35" s="71"/>
       <c r="G35" s="102"/>
       <c r="H35" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I35" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J35" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K35" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L35" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M35" s="73">
         <v>1</v>
       </c>
       <c r="N35" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4534,28 +4589,28 @@
       <c r="F36" s="71"/>
       <c r="G36" s="102"/>
       <c r="H36" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I36" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J36" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K36" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L36" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M36" s="73">
         <v>1</v>
       </c>
       <c r="N36" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4573,7 +4628,7 @@
         <v>412</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F37" s="71">
         <v>44583</v>
@@ -4582,28 +4637,28 @@
         <v>25800</v>
       </c>
       <c r="H37" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I37" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J37" s="69" t="s">
         <v>128</v>
       </c>
       <c r="K37" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L37" s="70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M37" s="73">
         <v>1</v>
       </c>
       <c r="N37" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4624,28 +4679,28 @@
       <c r="F38" s="71"/>
       <c r="G38" s="102"/>
       <c r="H38" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J38" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K38" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L38" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M38" s="73">
         <v>1</v>
       </c>
       <c r="N38" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4663,7 +4718,7 @@
         <v>414</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F39" s="71">
         <v>44593</v>
@@ -4672,25 +4727,25 @@
         <v>59750</v>
       </c>
       <c r="H39" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I39" s="67" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J39" s="69" t="s">
         <v>28</v>
       </c>
       <c r="K39" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L39" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M39" s="73">
         <v>1</v>
       </c>
       <c r="N39" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O39" s="10"/>
     </row>
@@ -4712,28 +4767,28 @@
       <c r="F40" s="71"/>
       <c r="G40" s="102"/>
       <c r="H40" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J40" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K40" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L40" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M40" s="73">
         <v>1</v>
       </c>
       <c r="N40" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4754,28 +4809,28 @@
       <c r="F41" s="71"/>
       <c r="G41" s="102"/>
       <c r="H41" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J41" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K41" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L41" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M41" s="73">
         <v>1</v>
       </c>
       <c r="N41" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4796,28 +4851,28 @@
       <c r="F42" s="71"/>
       <c r="G42" s="102"/>
       <c r="H42" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J42" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K42" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L42" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M42" s="70" t="s">
         <v>18</v>
       </c>
       <c r="N42" s="86" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4835,7 +4890,7 @@
         <v>418</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F43" s="71">
         <v>44704</v>
@@ -4844,25 +4899,25 @@
         <v>145800</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I43" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J43" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L43" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M43" s="73">
         <v>1</v>
       </c>
       <c r="N43" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O43" s="10"/>
     </row>
@@ -4884,28 +4939,28 @@
       <c r="F44" s="71"/>
       <c r="G44" s="102"/>
       <c r="H44" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I44" s="67" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J44" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K44" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L44" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M44" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N44" s="73" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4923,7 +4978,7 @@
         <v>420</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F45" s="71">
         <v>44382</v>
@@ -4932,28 +4987,28 @@
         <v>2456000</v>
       </c>
       <c r="H45" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I45" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J45" s="69" t="s">
         <v>28</v>
       </c>
       <c r="K45" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L45" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M45" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N45" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4974,28 +5029,28 @@
       <c r="F46" s="71"/>
       <c r="G46" s="102"/>
       <c r="H46" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I46" s="67" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J46" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K46" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L46" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L46" s="70" t="s">
-        <v>529</v>
-      </c>
       <c r="M46" s="73">
         <v>1</v>
       </c>
       <c r="N46" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5016,28 +5071,28 @@
       <c r="F47" s="71"/>
       <c r="G47" s="102"/>
       <c r="H47" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I47" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J47" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K47" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L47" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M47" s="73">
         <v>1</v>
       </c>
       <c r="N47" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5055,7 +5110,7 @@
         <v>423</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F48" s="71">
         <v>44416</v>
@@ -5064,25 +5119,25 @@
         <v>369700</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I48" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J48" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K48" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L48" s="70" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M48" s="73">
         <v>1</v>
       </c>
       <c r="N48" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O48" s="10"/>
     </row>
@@ -5101,7 +5156,7 @@
         <v>424</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F49" s="71">
         <v>44416</v>
@@ -5110,28 +5165,28 @@
         <v>478960</v>
       </c>
       <c r="H49" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I49" s="67" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J49" s="69" t="s">
         <v>154</v>
       </c>
       <c r="K49" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L49" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M49" s="73">
         <v>1</v>
       </c>
       <c r="N49" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5152,25 +5207,25 @@
       <c r="F50" s="71"/>
       <c r="G50" s="102"/>
       <c r="H50" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I50" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J50" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K50" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L50" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M50" s="73">
         <v>1</v>
       </c>
       <c r="N50" s="73" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O50" s="10"/>
     </row>
@@ -5192,28 +5247,28 @@
       <c r="F51" s="71"/>
       <c r="G51" s="102"/>
       <c r="H51" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I51" s="67" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J51" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L51" s="70" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M51" s="73">
         <v>1</v>
       </c>
       <c r="N51" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5234,28 +5289,28 @@
       <c r="F52" s="71"/>
       <c r="G52" s="102"/>
       <c r="H52" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J52" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K52" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L52" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M52" s="73">
         <v>1</v>
       </c>
       <c r="N52" s="73" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5273,7 +5328,7 @@
         <v>428</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F53" s="71">
         <v>44525</v>
@@ -5282,25 +5337,25 @@
         <v>254000</v>
       </c>
       <c r="H53" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I53" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J53" s="69" t="s">
         <v>44</v>
       </c>
       <c r="K53" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L53" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L53" s="70" t="s">
-        <v>529</v>
-      </c>
       <c r="M53" s="73">
         <v>1</v>
       </c>
       <c r="N53" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O53" s="10"/>
     </row>
@@ -5319,7 +5374,7 @@
         <v>429</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F54" s="71">
         <v>44528</v>
@@ -5328,25 +5383,25 @@
         <v>12300</v>
       </c>
       <c r="H54" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I54" s="67" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J54" s="69" t="s">
         <v>128</v>
       </c>
       <c r="K54" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L54" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M54" s="73">
         <v>1</v>
       </c>
       <c r="N54" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O54" s="10"/>
     </row>
@@ -5365,7 +5420,7 @@
         <v>430</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F55" s="71">
         <v>44542</v>
@@ -5374,25 +5429,25 @@
         <v>258000</v>
       </c>
       <c r="H55" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I55" s="67" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J55" s="69" t="s">
         <v>96</v>
       </c>
       <c r="K55" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L55" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M55" s="73">
         <v>1</v>
       </c>
       <c r="N55" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O55" s="10"/>
     </row>
@@ -5414,25 +5469,25 @@
       <c r="F56" s="71"/>
       <c r="G56" s="102"/>
       <c r="H56" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I56" s="67" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J56" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K56" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L56" s="70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M56" s="73">
         <v>1</v>
       </c>
       <c r="N56" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O56" s="10"/>
     </row>
@@ -5451,7 +5506,7 @@
         <v>432</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F57" s="71">
         <v>44548</v>
@@ -5460,28 +5515,28 @@
         <v>255000</v>
       </c>
       <c r="H57" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I57" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J57" s="69" t="s">
         <v>44</v>
       </c>
       <c r="K57" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L57" s="70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M57" s="73">
         <v>1</v>
       </c>
       <c r="N57" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5490,10 +5545,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="71">
-        <v>43825</v>
+        <v>43830</v>
       </c>
       <c r="C58" s="80" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D58" s="67" t="s">
         <v>433</v>
@@ -5502,25 +5557,25 @@
       <c r="F58" s="71"/>
       <c r="G58" s="102"/>
       <c r="H58" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="I58" s="67" t="s">
-        <v>599</v>
+        <v>602</v>
+      </c>
+      <c r="I58" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J58" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K58" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L58" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L58" s="70" t="s">
-        <v>535</v>
-      </c>
       <c r="M58" s="73">
         <v>1</v>
       </c>
       <c r="N58" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O58" s="10"/>
     </row>
@@ -5529,38 +5584,38 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="71">
-        <v>43829</v>
-      </c>
-      <c r="C59" s="80" t="s">
-        <v>174</v>
+      <c r="B59" s="74">
+        <v>43830</v>
+      </c>
+      <c r="C59" s="75" t="s">
+        <v>537</v>
       </c>
       <c r="D59" s="67" t="s">
         <v>434</v>
       </c>
       <c r="E59" s="67"/>
-      <c r="F59" s="71"/>
+      <c r="F59" s="74"/>
       <c r="G59" s="102"/>
       <c r="H59" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="I59" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
+      </c>
+      <c r="I59" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J59" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K59" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L59" s="70" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M59" s="73">
         <v>1</v>
       </c>
       <c r="N59" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O59" s="10"/>
     </row>
@@ -5570,10 +5625,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="71">
-        <v>43830</v>
+        <v>43840</v>
       </c>
       <c r="C60" s="80" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D60" s="67" t="s">
         <v>435</v>
@@ -5582,25 +5637,25 @@
       <c r="F60" s="71"/>
       <c r="G60" s="102"/>
       <c r="H60" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="I60" s="69" t="s">
-        <v>594</v>
+        <v>602</v>
+      </c>
+      <c r="I60" s="67" t="s">
+        <v>602</v>
       </c>
       <c r="J60" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K60" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L60" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L60" s="70" t="s">
-        <v>529</v>
-      </c>
       <c r="M60" s="73">
         <v>1</v>
       </c>
       <c r="N60" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O60" s="10"/>
     </row>
@@ -5609,40 +5664,42 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="74">
-        <v>43830</v>
-      </c>
-      <c r="C61" s="75" t="s">
-        <v>539</v>
+      <c r="B61" s="71">
+        <v>43840</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>183</v>
       </c>
       <c r="D61" s="67" t="s">
         <v>436</v>
       </c>
       <c r="E61" s="67"/>
-      <c r="F61" s="74"/>
+      <c r="F61" s="71"/>
       <c r="G61" s="102"/>
       <c r="H61" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="I61" s="69" t="s">
-        <v>594</v>
+        <v>602</v>
+      </c>
+      <c r="I61" s="67" t="s">
+        <v>591</v>
       </c>
       <c r="J61" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K61" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L61" s="70" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="M61" s="73">
         <v>1</v>
       </c>
       <c r="N61" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O61" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="62" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
@@ -5650,37 +5707,43 @@
         <v>60</v>
       </c>
       <c r="B62" s="71">
-        <v>43840</v>
+        <v>43847</v>
       </c>
       <c r="C62" s="80" t="s">
-        <v>181</v>
+        <v>538</v>
       </c>
       <c r="D62" s="67" t="s">
         <v>437</v>
       </c>
-      <c r="E62" s="67"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="102"/>
+      <c r="E62" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="F62" s="71">
+        <v>44578</v>
+      </c>
+      <c r="G62" s="102">
+        <v>265000</v>
+      </c>
       <c r="H62" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="I62" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="J62" s="69" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K62" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L62" s="70" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M62" s="73">
         <v>1</v>
       </c>
       <c r="N62" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O62" s="10"/>
     </row>
@@ -5690,41 +5753,45 @@
         <v>61</v>
       </c>
       <c r="B63" s="71">
-        <v>43840</v>
+        <v>43861</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D63" s="67" t="s">
         <v>438</v>
       </c>
-      <c r="E63" s="67"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="102"/>
+      <c r="E63" s="67" t="s">
+        <v>636</v>
+      </c>
+      <c r="F63" s="71">
+        <v>44592</v>
+      </c>
+      <c r="G63" s="102">
+        <v>2589000</v>
+      </c>
       <c r="H63" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I63" s="67" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J63" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K63" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L63" s="70" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M63" s="73">
         <v>1</v>
       </c>
       <c r="N63" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O63" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O63" s="10"/>
     </row>
     <row r="64" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
@@ -5732,10 +5799,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="71">
-        <v>43847</v>
+        <v>43872</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>540</v>
+        <v>190</v>
       </c>
       <c r="D64" s="67" t="s">
         <v>439</v>
@@ -5744,33 +5811,35 @@
         <v>637</v>
       </c>
       <c r="F64" s="71">
-        <v>44578</v>
+        <v>44603</v>
       </c>
       <c r="G64" s="102">
-        <v>265000</v>
+        <v>2569000</v>
       </c>
       <c r="H64" s="67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I64" s="67" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="J64" s="69" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K64" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L64" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L64" s="70" t="s">
-        <v>534</v>
-      </c>
       <c r="M64" s="73">
         <v>1</v>
       </c>
       <c r="N64" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O64" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="65" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="70">
@@ -5778,10 +5847,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="71">
-        <v>43861</v>
+        <v>43878</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>188</v>
+        <v>539</v>
       </c>
       <c r="D65" s="67" t="s">
         <v>440</v>
@@ -5790,33 +5859,35 @@
         <v>638</v>
       </c>
       <c r="F65" s="71">
-        <v>44592</v>
+        <v>44609</v>
       </c>
       <c r="G65" s="102">
-        <v>2589000</v>
+        <v>148000</v>
       </c>
       <c r="H65" s="67" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I65" s="67" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="J65" s="69" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="K65" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L65" s="70" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M65" s="73">
         <v>1</v>
       </c>
       <c r="N65" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O65" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="66" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
@@ -5824,106 +5895,98 @@
         <v>64</v>
       </c>
       <c r="B66" s="71">
-        <v>43872</v>
+        <v>43879</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D66" s="67" t="s">
         <v>441</v>
       </c>
-      <c r="E66" s="67" t="s">
-        <v>639</v>
-      </c>
-      <c r="F66" s="71">
-        <v>44603</v>
-      </c>
-      <c r="G66" s="102">
-        <v>2569000</v>
-      </c>
+      <c r="E66" s="67"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="102"/>
       <c r="H66" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="I66" s="67" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J66" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K66" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L66" s="70" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M66" s="73">
         <v>1</v>
       </c>
       <c r="N66" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A67:A130" si="1">A66+1</f>
         <v>65</v>
       </c>
       <c r="B67" s="71">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>541</v>
+        <v>196</v>
       </c>
       <c r="D67" s="67" t="s">
         <v>442</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F67" s="71">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="G67" s="102">
-        <v>148000</v>
+        <v>21000000</v>
       </c>
       <c r="H67" s="67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I67" s="67" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="J67" s="69" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="K67" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L67" s="70" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M67" s="73">
         <v>1</v>
       </c>
       <c r="N67" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O67" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O67" s="10"/>
     </row>
     <row r="68" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="71">
-        <v>43879</v>
+        <v>43901</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D68" s="67" t="s">
         <v>443</v>
@@ -5932,73 +5995,73 @@
       <c r="F68" s="71"/>
       <c r="G68" s="102"/>
       <c r="H68" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I68" s="67" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J68" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K68" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L68" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M68" s="73">
         <v>1</v>
       </c>
       <c r="N68" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
-        <f t="shared" ref="A69:A132" si="1">A68+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="71">
-        <v>43879</v>
-      </c>
-      <c r="C69" s="80" t="s">
-        <v>196</v>
+      <c r="B69" s="74">
+        <v>43902</v>
+      </c>
+      <c r="C69" s="75" t="s">
+        <v>200</v>
       </c>
       <c r="D69" s="67" t="s">
         <v>444</v>
       </c>
       <c r="E69" s="67" t="s">
-        <v>641</v>
-      </c>
-      <c r="F69" s="71">
-        <v>44610</v>
+        <v>640</v>
+      </c>
+      <c r="F69" s="74">
+        <v>44632</v>
       </c>
       <c r="G69" s="102">
-        <v>21000000</v>
+        <v>145500</v>
       </c>
       <c r="H69" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I69" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J69" s="69" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="K69" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L69" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M69" s="73">
-        <v>1</v>
+        <v>532</v>
+      </c>
+      <c r="M69" s="73" t="s">
+        <v>18</v>
       </c>
       <c r="N69" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O69" s="10"/>
     </row>
@@ -6007,42 +6070,46 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="71">
-        <v>43901</v>
-      </c>
-      <c r="C70" s="80" t="s">
-        <v>198</v>
+      <c r="B70" s="74">
+        <v>43910</v>
+      </c>
+      <c r="C70" s="75" t="s">
+        <v>204</v>
       </c>
       <c r="D70" s="67" t="s">
         <v>445</v>
       </c>
-      <c r="E70" s="67"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="102"/>
+      <c r="E70" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="F70" s="74">
+        <v>44640</v>
+      </c>
+      <c r="G70" s="102">
+        <v>365000</v>
+      </c>
       <c r="H70" s="67" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="I70" s="67" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="J70" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K70" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L70" s="70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M70" s="73">
         <v>1</v>
       </c>
       <c r="N70" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O70" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O70" s="10"/>
     </row>
     <row r="71" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
@@ -6050,10 +6117,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="74">
-        <v>43902</v>
+        <v>43910</v>
       </c>
       <c r="C71" s="75" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D71" s="67" t="s">
         <v>446</v>
@@ -6062,33 +6129,35 @@
         <v>642</v>
       </c>
       <c r="F71" s="74">
-        <v>44632</v>
+        <v>44640</v>
       </c>
       <c r="G71" s="102">
-        <v>145500</v>
+        <v>265000</v>
       </c>
       <c r="H71" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I71" s="67" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="J71" s="69" t="s">
         <v>128</v>
       </c>
       <c r="K71" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L71" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M71" s="73" t="s">
-        <v>18</v>
+        <v>530</v>
+      </c>
+      <c r="M71" s="73">
+        <v>1</v>
       </c>
       <c r="N71" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O71" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="72" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
@@ -6096,10 +6165,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="74">
-        <v>43910</v>
+        <v>43927</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D72" s="67" t="s">
         <v>447</v>
@@ -6108,33 +6177,35 @@
         <v>643</v>
       </c>
       <c r="F72" s="74">
-        <v>44640</v>
+        <v>44657</v>
       </c>
       <c r="G72" s="102">
-        <v>365000</v>
+        <v>5600000</v>
       </c>
       <c r="H72" s="67" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I72" s="67" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="J72" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K72" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L72" s="70" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M72" s="73">
         <v>1</v>
       </c>
       <c r="N72" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O72" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="73" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70">
@@ -6142,46 +6213,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="74">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D73" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="E73" s="67" t="s">
-        <v>644</v>
-      </c>
-      <c r="F73" s="74">
-        <v>44640</v>
-      </c>
-      <c r="G73" s="102">
-        <v>265000</v>
-      </c>
+      <c r="E73" s="67"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="102"/>
       <c r="H73" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="I73" s="67" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="J73" s="69" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="K73" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L73" s="70" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M73" s="73">
         <v>1</v>
       </c>
       <c r="N73" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O73" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,46 +6255,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="74">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>208</v>
+        <v>540</v>
       </c>
       <c r="D74" s="67" t="s">
         <v>449</v>
       </c>
-      <c r="E74" s="67" t="s">
-        <v>645</v>
-      </c>
-      <c r="F74" s="74">
-        <v>44657</v>
-      </c>
-      <c r="G74" s="102">
-        <v>5600000</v>
-      </c>
+      <c r="E74" s="67"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="102"/>
       <c r="H74" s="67" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="I74" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="J74" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K74" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L74" s="70" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M74" s="73">
         <v>1</v>
       </c>
       <c r="N74" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O74" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6241,38 +6300,42 @@
         <v>43941</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>210</v>
+        <v>543</v>
       </c>
       <c r="D75" s="67" t="s">
         <v>450</v>
       </c>
-      <c r="E75" s="67"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="102"/>
+      <c r="E75" s="67" t="s">
+        <v>644</v>
+      </c>
+      <c r="F75" s="74">
+        <v>44671</v>
+      </c>
+      <c r="G75" s="102">
+        <v>258000</v>
+      </c>
       <c r="H75" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I75" s="67" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J75" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K75" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L75" s="70" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="M75" s="73">
         <v>1</v>
       </c>
       <c r="N75" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O75" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O75" s="10"/>
     </row>
     <row r="76" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
@@ -6280,40 +6343,46 @@
         <v>74</v>
       </c>
       <c r="B76" s="74">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D76" s="67" t="s">
         <v>451</v>
       </c>
-      <c r="E76" s="67"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="102"/>
+      <c r="E76" s="67" t="s">
+        <v>645</v>
+      </c>
+      <c r="F76" s="74">
+        <v>44672</v>
+      </c>
+      <c r="G76" s="102">
+        <v>220000</v>
+      </c>
       <c r="H76" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I76" s="67" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="J76" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K76" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L76" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L76" s="70" t="s">
-        <v>533</v>
-      </c>
       <c r="M76" s="73">
         <v>1</v>
       </c>
       <c r="N76" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6322,10 +6391,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="74">
-        <v>43941</v>
+        <v>43925</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>545</v>
+        <v>218</v>
       </c>
       <c r="D77" s="67" t="s">
         <v>452</v>
@@ -6334,22 +6403,22 @@
         <v>646</v>
       </c>
       <c r="F77" s="74">
-        <v>44671</v>
+        <v>44655</v>
       </c>
       <c r="G77" s="102">
-        <v>258000</v>
+        <v>5000000</v>
       </c>
       <c r="H77" s="67" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I77" s="67" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J77" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L77" s="70" t="s">
         <v>532</v>
@@ -6358,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="N77" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O77" s="10"/>
     </row>
@@ -6368,91 +6437,77 @@
         <v>76</v>
       </c>
       <c r="B78" s="74">
-        <v>43942</v>
+        <v>43955</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>543</v>
+        <v>220</v>
       </c>
       <c r="D78" s="67" t="s">
         <v>453</v>
       </c>
-      <c r="E78" s="67" t="s">
-        <v>647</v>
-      </c>
-      <c r="F78" s="74">
-        <v>44672</v>
-      </c>
-      <c r="G78" s="102">
-        <v>220000</v>
-      </c>
+      <c r="E78" s="67"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="102"/>
       <c r="H78" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="I78" s="67" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J78" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K78" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L78" s="70" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M78" s="73">
         <v>1</v>
       </c>
       <c r="N78" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O78" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="70">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B79" s="74">
-        <v>43925</v>
-      </c>
-      <c r="C79" s="75" t="s">
-        <v>218</v>
+      <c r="B79" s="71">
+        <v>44018</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>542</v>
       </c>
       <c r="D79" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="E79" s="67" t="s">
-        <v>648</v>
-      </c>
-      <c r="F79" s="74">
-        <v>44655</v>
-      </c>
-      <c r="G79" s="102">
-        <v>5000000</v>
-      </c>
+      <c r="E79" s="67"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="102"/>
       <c r="H79" s="67" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="I79" s="67" t="s">
         <v>594</v>
       </c>
       <c r="J79" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K79" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L79" s="70" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M79" s="73">
         <v>1</v>
       </c>
       <c r="N79" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O79" s="10"/>
     </row>
@@ -6461,40 +6516,48 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B80" s="74">
-        <v>43955</v>
-      </c>
-      <c r="C80" s="75" t="s">
-        <v>220</v>
+      <c r="B80" s="71">
+        <v>44043</v>
+      </c>
+      <c r="C80" s="80" t="s">
+        <v>224</v>
       </c>
       <c r="D80" s="67" t="s">
         <v>455</v>
       </c>
-      <c r="E80" s="67"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="102"/>
+      <c r="E80" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="F80" s="71">
+        <v>44408</v>
+      </c>
+      <c r="G80" s="102">
+        <v>300000</v>
+      </c>
       <c r="H80" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I80" s="67" t="s">
-        <v>603</v>
+        <v>690</v>
       </c>
       <c r="J80" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K80" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L80" s="70" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M80" s="73">
         <v>1</v>
       </c>
       <c r="N80" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O80" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="81" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="70">
@@ -6502,37 +6565,43 @@
         <v>79</v>
       </c>
       <c r="B81" s="71">
-        <v>44018</v>
+        <v>44056</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>544</v>
+        <v>226</v>
       </c>
       <c r="D81" s="67" t="s">
         <v>456</v>
       </c>
-      <c r="E81" s="67"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="102"/>
+      <c r="E81" s="67" t="s">
+        <v>648</v>
+      </c>
+      <c r="F81" s="71">
+        <v>44421</v>
+      </c>
+      <c r="G81" s="102">
+        <v>2100</v>
+      </c>
       <c r="H81" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I81" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J81" s="69" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="K81" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L81" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L81" s="70" t="s">
-        <v>531</v>
-      </c>
       <c r="M81" s="73">
         <v>1</v>
       </c>
       <c r="N81" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O81" s="10"/>
     </row>
@@ -6542,47 +6611,39 @@
         <v>80</v>
       </c>
       <c r="B82" s="71">
-        <v>44043</v>
+        <v>44057</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D82" s="67" t="s">
         <v>457</v>
       </c>
-      <c r="E82" s="67" t="s">
-        <v>649</v>
-      </c>
-      <c r="F82" s="71">
-        <v>44408</v>
-      </c>
-      <c r="G82" s="102">
-        <v>300000</v>
-      </c>
+      <c r="E82" s="67"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="102"/>
       <c r="H82" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="I82" s="67" t="s">
-        <v>692</v>
+        <v>602</v>
+      </c>
+      <c r="I82" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J82" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K82" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L82" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M82" s="73">
+        <v>530</v>
+      </c>
+      <c r="M82" s="76">
         <v>1</v>
       </c>
       <c r="N82" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O82" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O82" s="10"/>
     </row>
     <row r="83" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
@@ -6590,45 +6651,41 @@
         <v>81</v>
       </c>
       <c r="B83" s="71">
-        <v>44056</v>
-      </c>
-      <c r="C83" s="80" t="s">
-        <v>226</v>
+        <v>44071</v>
+      </c>
+      <c r="C83" s="75" t="s">
+        <v>544</v>
       </c>
       <c r="D83" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="E83" s="67" t="s">
-        <v>650</v>
-      </c>
-      <c r="F83" s="71">
-        <v>44421</v>
-      </c>
-      <c r="G83" s="102">
-        <v>2100</v>
-      </c>
+      <c r="E83" s="67"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="102"/>
       <c r="H83" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="I83" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="J83" s="69" t="s">
-        <v>128</v>
+        <v>602</v>
+      </c>
+      <c r="I83" s="69" t="s">
+        <v>592</v>
+      </c>
+      <c r="J83" s="77" t="s">
+        <v>22</v>
       </c>
       <c r="K83" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="L83" s="70" t="s">
-        <v>529</v>
+        <v>525</v>
+      </c>
+      <c r="L83" s="72" t="s">
+        <v>532</v>
       </c>
       <c r="M83" s="73">
         <v>1</v>
       </c>
       <c r="N83" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O83" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="84" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
@@ -6636,37 +6693,43 @@
         <v>82</v>
       </c>
       <c r="B84" s="71">
-        <v>44057</v>
+        <v>44096</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D84" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="E84" s="67"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="102"/>
+      <c r="E84" s="67" t="s">
+        <v>649</v>
+      </c>
+      <c r="F84" s="71">
+        <v>44461</v>
+      </c>
+      <c r="G84" s="102">
+        <v>360000</v>
+      </c>
       <c r="H84" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="I84" s="69" t="s">
-        <v>594</v>
+        <v>593</v>
+      </c>
+      <c r="I84" s="67" t="s">
+        <v>602</v>
       </c>
       <c r="J84" s="69" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="K84" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L84" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M84" s="76">
+        <v>530</v>
+      </c>
+      <c r="M84" s="73">
         <v>1</v>
       </c>
       <c r="N84" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O84" s="10"/>
     </row>
@@ -6676,41 +6739,45 @@
         <v>83</v>
       </c>
       <c r="B85" s="71">
-        <v>44071</v>
-      </c>
-      <c r="C85" s="75" t="s">
-        <v>546</v>
+        <v>44097</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>234</v>
       </c>
       <c r="D85" s="67" t="s">
         <v>460</v>
       </c>
-      <c r="E85" s="67"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="67" t="s">
-        <v>604</v>
+      <c r="E85" s="67" t="s">
+        <v>650</v>
+      </c>
+      <c r="F85" s="71">
+        <v>44462</v>
+      </c>
+      <c r="G85" s="102">
+        <v>450000</v>
+      </c>
+      <c r="H85" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="I85" s="69" t="s">
-        <v>594</v>
-      </c>
-      <c r="J85" s="77" t="s">
-        <v>22</v>
+        <v>592</v>
+      </c>
+      <c r="J85" s="69" t="s">
+        <v>15</v>
       </c>
       <c r="K85" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="L85" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="L85" s="70" t="s">
         <v>534</v>
       </c>
       <c r="M85" s="73">
         <v>1</v>
       </c>
       <c r="N85" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O85" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O85" s="10"/>
     </row>
     <row r="86" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
@@ -6718,10 +6785,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="71">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D86" s="67" t="s">
         <v>461</v>
@@ -6730,33 +6797,33 @@
         <v>651</v>
       </c>
       <c r="F86" s="71">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="G86" s="102">
-        <v>360000</v>
+        <v>2480000</v>
       </c>
       <c r="H86" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I86" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="J86" s="69" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="K86" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L86" s="70" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M86" s="73">
         <v>1</v>
       </c>
       <c r="N86" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O86" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O86" s="72"/>
     </row>
     <row r="87" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="70">
@@ -6764,10 +6831,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="71">
-        <v>44097</v>
+        <v>44131</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D87" s="67" t="s">
         <v>462</v>
@@ -6776,31 +6843,31 @@
         <v>652</v>
       </c>
       <c r="F87" s="71">
-        <v>44462</v>
+        <v>44496</v>
       </c>
       <c r="G87" s="102">
-        <v>450000</v>
-      </c>
-      <c r="H87" s="69" t="s">
+        <v>2560000</v>
+      </c>
+      <c r="H87" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="I87" s="67" t="s">
         <v>594</v>
       </c>
-      <c r="I87" s="69" t="s">
-        <v>594</v>
-      </c>
       <c r="J87" s="69" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K87" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L87" s="70" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M87" s="73">
         <v>1</v>
       </c>
       <c r="N87" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O87" s="10"/>
     </row>
@@ -6810,10 +6877,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="71">
-        <v>44097</v>
+        <v>44166</v>
       </c>
       <c r="C88" s="80" t="s">
-        <v>236</v>
+        <v>546</v>
       </c>
       <c r="D88" s="67" t="s">
         <v>463</v>
@@ -6822,33 +6889,35 @@
         <v>653</v>
       </c>
       <c r="F88" s="71">
-        <v>44462</v>
+        <v>44531</v>
       </c>
       <c r="G88" s="102">
-        <v>2480000</v>
+        <v>7800000</v>
       </c>
       <c r="H88" s="67" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I88" s="67" t="s">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="J88" s="69" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="K88" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L88" s="70" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M88" s="73">
         <v>1</v>
       </c>
       <c r="N88" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O88" s="72"/>
+        <v>586</v>
+      </c>
+      <c r="O88" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="89" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="70">
@@ -6856,10 +6925,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="71">
-        <v>44131</v>
+        <v>44172</v>
       </c>
       <c r="C89" s="80" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D89" s="67" t="s">
         <v>464</v>
@@ -6868,33 +6937,35 @@
         <v>654</v>
       </c>
       <c r="F89" s="71">
-        <v>44496</v>
+        <v>44537</v>
       </c>
       <c r="G89" s="102">
-        <v>2560000</v>
+        <v>9640000</v>
       </c>
       <c r="H89" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I89" s="67" t="s">
-        <v>596</v>
+        <v>690</v>
       </c>
       <c r="J89" s="69" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K89" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L89" s="70" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M89" s="73">
         <v>1</v>
       </c>
       <c r="N89" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O89" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O89" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="90" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="70">
@@ -6902,10 +6973,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="71">
-        <v>44166</v>
+        <v>44175</v>
       </c>
       <c r="C90" s="80" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D90" s="67" t="s">
         <v>465</v>
@@ -6914,35 +6985,33 @@
         <v>655</v>
       </c>
       <c r="F90" s="71">
-        <v>44531</v>
+        <v>44540</v>
       </c>
       <c r="G90" s="102">
-        <v>7800000</v>
+        <v>258000</v>
       </c>
       <c r="H90" s="67" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I90" s="67" t="s">
-        <v>692</v>
+        <v>601</v>
       </c>
       <c r="J90" s="69" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="K90" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L90" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L90" s="70" t="s">
-        <v>534</v>
-      </c>
       <c r="M90" s="73">
         <v>1</v>
       </c>
       <c r="N90" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O90" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O90" s="10"/>
     </row>
     <row r="91" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="70">
@@ -6950,47 +7019,39 @@
         <v>89</v>
       </c>
       <c r="B91" s="71">
-        <v>44172</v>
+        <v>44183</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D91" s="67" t="s">
         <v>466</v>
       </c>
-      <c r="E91" s="67" t="s">
-        <v>656</v>
-      </c>
-      <c r="F91" s="71">
-        <v>44537</v>
-      </c>
-      <c r="G91" s="102">
-        <v>9640000</v>
-      </c>
+      <c r="E91" s="67"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="102"/>
       <c r="H91" s="67" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="I91" s="67" t="s">
-        <v>692</v>
+        <v>594</v>
       </c>
       <c r="J91" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K91" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L91" s="70" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M91" s="73">
         <v>1</v>
       </c>
       <c r="N91" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O91" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="O91" s="10"/>
     </row>
     <row r="92" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="70">
@@ -6998,7 +7059,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="71">
-        <v>44175</v>
+        <v>44188</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>547</v>
@@ -7006,35 +7067,29 @@
       <c r="D92" s="67" t="s">
         <v>467</v>
       </c>
-      <c r="E92" s="67" t="s">
-        <v>657</v>
-      </c>
-      <c r="F92" s="71">
-        <v>44540</v>
-      </c>
-      <c r="G92" s="102">
-        <v>258000</v>
-      </c>
+      <c r="E92" s="67"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="102"/>
       <c r="H92" s="67" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="I92" s="67" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J92" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L92" s="70" t="s">
         <v>530</v>
       </c>
-      <c r="K92" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="L92" s="70" t="s">
-        <v>529</v>
-      </c>
       <c r="M92" s="73">
         <v>1</v>
       </c>
       <c r="N92" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O92" s="10"/>
     </row>
@@ -7044,39 +7099,47 @@
         <v>91</v>
       </c>
       <c r="B93" s="71">
-        <v>44183</v>
+        <v>44209</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>248</v>
+        <v>548</v>
       </c>
       <c r="D93" s="67" t="s">
         <v>468</v>
       </c>
-      <c r="E93" s="67"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="102"/>
+      <c r="E93" s="67" t="s">
+        <v>656</v>
+      </c>
+      <c r="F93" s="71">
+        <v>44574</v>
+      </c>
+      <c r="G93" s="102">
+        <v>245000</v>
+      </c>
       <c r="H93" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I93" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J93" s="69" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K93" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L93" s="70" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="M93" s="73">
         <v>1</v>
       </c>
       <c r="N93" s="73" t="s">
-        <v>587</v>
-      </c>
-      <c r="O93" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O93" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="94" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="70">
@@ -7084,7 +7147,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="71">
-        <v>44188</v>
+        <v>44222</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>549</v>
@@ -7096,25 +7159,25 @@
       <c r="F94" s="71"/>
       <c r="G94" s="102"/>
       <c r="H94" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="I94" s="67" t="s">
-        <v>599</v>
+        <v>602</v>
+      </c>
+      <c r="I94" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J94" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K94" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L94" s="70" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M94" s="73">
         <v>1</v>
       </c>
       <c r="N94" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O94" s="10"/>
     </row>
@@ -7124,7 +7187,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="71">
-        <v>44209</v>
+        <v>44228</v>
       </c>
       <c r="C95" s="80" t="s">
         <v>550</v>
@@ -7132,39 +7195,31 @@
       <c r="D95" s="67" t="s">
         <v>470</v>
       </c>
-      <c r="E95" s="67" t="s">
-        <v>658</v>
-      </c>
-      <c r="F95" s="71">
-        <v>44574</v>
-      </c>
-      <c r="G95" s="102">
-        <v>245000</v>
-      </c>
+      <c r="E95" s="67"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="102"/>
       <c r="H95" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="I95" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
+      </c>
+      <c r="I95" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J95" s="69" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="K95" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L95" s="70" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M95" s="73">
         <v>1</v>
       </c>
       <c r="N95" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O95" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O95" s="10"/>
     </row>
     <row r="96" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="70">
@@ -7172,7 +7227,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="71">
-        <v>44222</v>
+        <v>44228</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>551</v>
@@ -7180,29 +7235,35 @@
       <c r="D96" s="67" t="s">
         <v>471</v>
       </c>
-      <c r="E96" s="67"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="102"/>
+      <c r="E96" s="67" t="s">
+        <v>657</v>
+      </c>
+      <c r="F96" s="71">
+        <v>44593</v>
+      </c>
+      <c r="G96" s="102">
+        <v>8900000</v>
+      </c>
       <c r="H96" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="I96" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
+      </c>
+      <c r="I96" s="67" t="s">
+        <v>602</v>
       </c>
       <c r="J96" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K96" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L96" s="70" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M96" s="73">
         <v>1</v>
       </c>
       <c r="N96" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O96" s="10"/>
     </row>
@@ -7212,7 +7273,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="71">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="C97" s="80" t="s">
         <v>552</v>
@@ -7220,29 +7281,35 @@
       <c r="D97" s="67" t="s">
         <v>472</v>
       </c>
-      <c r="E97" s="67"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="102"/>
-      <c r="H97" s="67" t="s">
-        <v>604</v>
+      <c r="E97" s="67" t="s">
+        <v>658</v>
+      </c>
+      <c r="F97" s="71">
+        <v>44594</v>
+      </c>
+      <c r="G97" s="102">
+        <v>587000</v>
+      </c>
+      <c r="H97" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="I97" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J97" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K97" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L97" s="70" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="M97" s="73">
         <v>1</v>
       </c>
       <c r="N97" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O97" s="10"/>
     </row>
@@ -7252,7 +7319,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="71">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="C98" s="80" t="s">
         <v>553</v>
@@ -7260,35 +7327,29 @@
       <c r="D98" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="E98" s="67" t="s">
-        <v>659</v>
-      </c>
-      <c r="F98" s="71">
-        <v>44593</v>
-      </c>
-      <c r="G98" s="102">
-        <v>8900000</v>
-      </c>
+      <c r="E98" s="67"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="102"/>
       <c r="H98" s="67" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="I98" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="J98" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K98" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L98" s="70" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M98" s="73">
         <v>1</v>
       </c>
       <c r="N98" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O98" s="10"/>
     </row>
@@ -7298,7 +7359,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="71">
-        <v>44229</v>
+        <v>44231</v>
       </c>
       <c r="C99" s="80" t="s">
         <v>554</v>
@@ -7307,34 +7368,34 @@
         <v>474</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F99" s="71">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="G99" s="102">
-        <v>587000</v>
-      </c>
-      <c r="H99" s="69" t="s">
+        <v>65000</v>
+      </c>
+      <c r="H99" s="67" t="s">
         <v>594</v>
       </c>
-      <c r="I99" s="69" t="s">
+      <c r="I99" s="67" t="s">
         <v>594</v>
       </c>
       <c r="J99" s="69" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K99" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L99" s="70" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M99" s="73">
         <v>1</v>
       </c>
       <c r="N99" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O99" s="10"/>
     </row>
@@ -7344,7 +7405,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="71">
-        <v>44229</v>
+        <v>44231</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>555</v>
@@ -7356,25 +7417,25 @@
       <c r="F100" s="71"/>
       <c r="G100" s="102"/>
       <c r="H100" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I100" s="67" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="J100" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K100" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L100" s="70" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="M100" s="73">
         <v>1</v>
       </c>
       <c r="N100" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O100" s="10"/>
     </row>
@@ -7384,43 +7445,43 @@
         <v>99</v>
       </c>
       <c r="B101" s="71">
-        <v>44231</v>
+        <v>44265</v>
       </c>
       <c r="C101" s="80" t="s">
-        <v>556</v>
+        <v>271</v>
       </c>
       <c r="D101" s="67" t="s">
         <v>476</v>
       </c>
       <c r="E101" s="67" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F101" s="71">
-        <v>44596</v>
+        <v>44630</v>
       </c>
       <c r="G101" s="102">
-        <v>65000</v>
+        <v>112200</v>
       </c>
       <c r="H101" s="67" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I101" s="67" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="J101" s="69" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="K101" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L101" s="70" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M101" s="73">
         <v>1</v>
       </c>
       <c r="N101" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O101" s="10"/>
     </row>
@@ -7430,37 +7491,43 @@
         <v>100</v>
       </c>
       <c r="B102" s="71">
-        <v>44231</v>
+        <v>44265</v>
       </c>
       <c r="C102" s="80" t="s">
-        <v>557</v>
+        <v>273</v>
       </c>
       <c r="D102" s="67" t="s">
         <v>477</v>
       </c>
-      <c r="E102" s="67"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="102"/>
+      <c r="E102" s="67" t="s">
+        <v>661</v>
+      </c>
+      <c r="F102" s="71">
+        <v>44630</v>
+      </c>
+      <c r="G102" s="102">
+        <v>870000</v>
+      </c>
       <c r="H102" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="I102" s="67" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J102" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K102" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L102" s="70" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M102" s="73">
         <v>1</v>
       </c>
       <c r="N102" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O102" s="10"/>
     </row>
@@ -7470,10 +7537,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="71">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="C103" s="80" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D103" s="67" t="s">
         <v>478</v>
@@ -7482,31 +7549,31 @@
         <v>662</v>
       </c>
       <c r="F103" s="71">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="G103" s="102">
-        <v>112200</v>
+        <v>28000</v>
       </c>
       <c r="H103" s="67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I103" s="67" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="J103" s="69" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="K103" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L103" s="70" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M103" s="73">
         <v>1</v>
       </c>
       <c r="N103" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O103" s="10"/>
     </row>
@@ -7516,10 +7583,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="71">
-        <v>44265</v>
+        <v>44277</v>
       </c>
       <c r="C104" s="80" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D104" s="67" t="s">
         <v>479</v>
@@ -7528,31 +7595,31 @@
         <v>663</v>
       </c>
       <c r="F104" s="71">
-        <v>44630</v>
+        <v>44642</v>
       </c>
       <c r="G104" s="102">
-        <v>870000</v>
+        <v>15000</v>
       </c>
       <c r="H104" s="67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I104" s="67" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J104" s="69" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K104" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L104" s="70" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M104" s="73">
         <v>1</v>
       </c>
       <c r="N104" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O104" s="10"/>
     </row>
@@ -7562,10 +7629,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="71">
-        <v>44267</v>
+        <v>44279</v>
       </c>
       <c r="C105" s="80" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D105" s="67" t="s">
         <v>480</v>
@@ -7574,31 +7641,31 @@
         <v>664</v>
       </c>
       <c r="F105" s="71">
-        <v>44632</v>
+        <v>44644</v>
       </c>
       <c r="G105" s="102">
-        <v>28000</v>
+        <v>150000</v>
       </c>
       <c r="H105" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I105" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J105" s="69" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="K105" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L105" s="70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M105" s="73">
         <v>1</v>
       </c>
       <c r="N105" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O105" s="10"/>
     </row>
@@ -7608,10 +7675,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="71">
-        <v>44277</v>
+        <v>44281</v>
       </c>
       <c r="C106" s="80" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D106" s="67" t="s">
         <v>481</v>
@@ -7620,33 +7687,35 @@
         <v>665</v>
       </c>
       <c r="F106" s="71">
-        <v>44642</v>
+        <v>44646</v>
       </c>
       <c r="G106" s="102">
-        <v>15000</v>
-      </c>
-      <c r="H106" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="I106" s="67" t="s">
-        <v>599</v>
+        <v>36980000</v>
+      </c>
+      <c r="H106" s="69" t="s">
+        <v>592</v>
+      </c>
+      <c r="I106" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J106" s="69" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K106" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L106" s="70" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M106" s="73">
         <v>1</v>
       </c>
       <c r="N106" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O106" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O106" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="107" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="70">
@@ -7654,10 +7723,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="71">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="C107" s="80" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D107" s="67" t="s">
         <v>482</v>
@@ -7666,31 +7735,31 @@
         <v>666</v>
       </c>
       <c r="F107" s="71">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="G107" s="102">
-        <v>150000</v>
+        <v>154000</v>
       </c>
       <c r="H107" s="67" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I107" s="67" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="J107" s="69" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="K107" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L107" s="70" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M107" s="73">
         <v>1</v>
       </c>
       <c r="N107" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O107" s="10"/>
     </row>
@@ -7700,47 +7769,39 @@
         <v>106</v>
       </c>
       <c r="B108" s="71">
-        <v>44281</v>
+        <v>44284</v>
       </c>
       <c r="C108" s="80" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D108" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="E108" s="67" t="s">
-        <v>667</v>
-      </c>
-      <c r="F108" s="71">
-        <v>44646</v>
-      </c>
-      <c r="G108" s="102">
-        <v>36980000</v>
-      </c>
-      <c r="H108" s="69" t="s">
-        <v>594</v>
-      </c>
-      <c r="I108" s="69" t="s">
-        <v>594</v>
+      <c r="E108" s="67"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="102"/>
+      <c r="H108" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="I108" s="67" t="s">
+        <v>602</v>
       </c>
       <c r="J108" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K108" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L108" s="70" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M108" s="73">
         <v>1</v>
       </c>
       <c r="N108" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O108" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O108" s="10"/>
     </row>
     <row r="109" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="70">
@@ -7748,45 +7809,45 @@
         <v>107</v>
       </c>
       <c r="B109" s="71">
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="C109" s="80" t="s">
-        <v>282</v>
+        <v>556</v>
       </c>
       <c r="D109" s="67" t="s">
         <v>484</v>
       </c>
       <c r="E109" s="67" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F109" s="71">
-        <v>44649</v>
+        <v>44657</v>
       </c>
       <c r="G109" s="102">
-        <v>154000</v>
+        <v>145000</v>
       </c>
       <c r="H109" s="67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I109" s="67" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J109" s="69" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="K109" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L109" s="70" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M109" s="73">
         <v>1</v>
       </c>
       <c r="N109" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O109" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O109" s="72"/>
     </row>
     <row r="110" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="70">
@@ -7794,39 +7855,45 @@
         <v>108</v>
       </c>
       <c r="B110" s="71">
-        <v>44284</v>
+        <v>44309</v>
       </c>
       <c r="C110" s="80" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D110" s="67" t="s">
         <v>485</v>
       </c>
-      <c r="E110" s="67"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="102"/>
+      <c r="E110" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="F110" s="71">
+        <v>44674</v>
+      </c>
+      <c r="G110" s="102">
+        <v>22000</v>
+      </c>
       <c r="H110" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="I110" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="J110" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K110" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L110" s="70" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="M110" s="73">
         <v>1</v>
       </c>
       <c r="N110" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O110" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O110" s="72"/>
     </row>
     <row r="111" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="70">
@@ -7834,34 +7901,28 @@
         <v>109</v>
       </c>
       <c r="B111" s="71">
-        <v>44292</v>
+        <v>44309</v>
       </c>
       <c r="C111" s="80" t="s">
-        <v>558</v>
+        <v>292</v>
       </c>
       <c r="D111" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="E111" s="67" t="s">
-        <v>669</v>
-      </c>
-      <c r="F111" s="71">
-        <v>44657</v>
-      </c>
-      <c r="G111" s="102">
-        <v>145000</v>
-      </c>
+      <c r="E111" s="67"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="102"/>
       <c r="H111" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="I111" s="67" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="J111" s="69" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K111" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L111" s="70" t="s">
         <v>531</v>
@@ -7870,9 +7931,11 @@
         <v>1</v>
       </c>
       <c r="N111" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O111" s="72"/>
+        <v>586</v>
+      </c>
+      <c r="O111" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="112" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="70">
@@ -7880,45 +7943,45 @@
         <v>110</v>
       </c>
       <c r="B112" s="71">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D112" s="67" t="s">
         <v>487</v>
       </c>
       <c r="E112" s="67" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F112" s="71">
-        <v>44674</v>
+        <v>44687</v>
       </c>
       <c r="G112" s="102">
-        <v>22000</v>
+        <v>65000</v>
       </c>
       <c r="H112" s="67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I112" s="67" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="J112" s="69" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="K112" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L112" s="70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M112" s="73">
         <v>1</v>
       </c>
       <c r="N112" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O112" s="72"/>
+        <v>586</v>
+      </c>
+      <c r="O112" s="10"/>
     </row>
     <row r="113" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="70">
@@ -7926,41 +7989,45 @@
         <v>111</v>
       </c>
       <c r="B113" s="71">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="C113" s="80" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D113" s="67" t="s">
         <v>488</v>
       </c>
-      <c r="E113" s="67"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="102"/>
+      <c r="E113" s="67" t="s">
+        <v>670</v>
+      </c>
+      <c r="F113" s="71">
+        <v>44698</v>
+      </c>
+      <c r="G113" s="102">
+        <v>2580000</v>
+      </c>
       <c r="H113" s="67" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="I113" s="67" t="s">
-        <v>596</v>
+        <v>690</v>
       </c>
       <c r="J113" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K113" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L113" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L113" s="70" t="s">
-        <v>533</v>
-      </c>
       <c r="M113" s="73">
         <v>1</v>
       </c>
       <c r="N113" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O113" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O113" s="10"/>
     </row>
     <row r="114" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="70">
@@ -7968,10 +8035,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="71">
-        <v>44322</v>
+        <v>44349</v>
       </c>
       <c r="C114" s="80" t="s">
-        <v>294</v>
+        <v>557</v>
       </c>
       <c r="D114" s="67" t="s">
         <v>489</v>
@@ -7980,33 +8047,35 @@
         <v>671</v>
       </c>
       <c r="F114" s="71">
-        <v>44687</v>
+        <v>44714</v>
       </c>
       <c r="G114" s="102">
-        <v>65000</v>
+        <v>365000</v>
       </c>
       <c r="H114" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I114" s="67" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="J114" s="69" t="s">
         <v>128</v>
       </c>
       <c r="K114" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L114" s="70" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M114" s="73">
         <v>1</v>
       </c>
       <c r="N114" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O114" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O114" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="115" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="70">
@@ -8014,43 +8083,37 @@
         <v>113</v>
       </c>
       <c r="B115" s="71">
-        <v>44333</v>
+        <v>44350</v>
       </c>
       <c r="C115" s="80" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="D115" s="67" t="s">
         <v>490</v>
       </c>
-      <c r="E115" s="67" t="s">
-        <v>672</v>
-      </c>
-      <c r="F115" s="71">
-        <v>44698</v>
-      </c>
-      <c r="G115" s="102">
-        <v>2580000</v>
-      </c>
+      <c r="E115" s="67"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="102"/>
       <c r="H115" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="I115" s="67" t="s">
         <v>594</v>
       </c>
-      <c r="I115" s="67" t="s">
-        <v>692</v>
-      </c>
       <c r="J115" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K115" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L115" s="70" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M115" s="73">
         <v>1</v>
       </c>
       <c r="N115" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O115" s="10"/>
     </row>
@@ -8060,34 +8123,28 @@
         <v>114</v>
       </c>
       <c r="B116" s="71">
-        <v>44349</v>
+        <v>44361</v>
       </c>
       <c r="C116" s="80" t="s">
-        <v>559</v>
+        <v>303</v>
       </c>
       <c r="D116" s="67" t="s">
         <v>491</v>
       </c>
-      <c r="E116" s="67" t="s">
-        <v>673</v>
-      </c>
-      <c r="F116" s="71">
-        <v>44714</v>
-      </c>
-      <c r="G116" s="102">
-        <v>365000</v>
-      </c>
+      <c r="E116" s="67"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="102"/>
       <c r="H116" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="I116" s="67" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="J116" s="69" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="K116" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L116" s="70" t="s">
         <v>532</v>
@@ -8096,11 +8153,9 @@
         <v>1</v>
       </c>
       <c r="N116" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O116" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O116" s="10"/>
     </row>
     <row r="117" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="70">
@@ -8108,37 +8163,43 @@
         <v>115</v>
       </c>
       <c r="B117" s="71">
-        <v>44350</v>
+        <v>44362</v>
       </c>
       <c r="C117" s="80" t="s">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="D117" s="67" t="s">
         <v>492</v>
       </c>
-      <c r="E117" s="67"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="102"/>
+      <c r="E117" s="67" t="s">
+        <v>672</v>
+      </c>
+      <c r="F117" s="71">
+        <v>44727</v>
+      </c>
+      <c r="G117" s="102">
+        <v>100000</v>
+      </c>
       <c r="H117" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I117" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J117" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K117" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L117" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L117" s="70" t="s">
-        <v>528</v>
-      </c>
       <c r="M117" s="73">
         <v>1</v>
       </c>
       <c r="N117" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O117" s="10"/>
     </row>
@@ -8148,10 +8209,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="71">
-        <v>44361</v>
+        <v>44372</v>
       </c>
       <c r="C118" s="80" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D118" s="67" t="s">
         <v>493</v>
@@ -8160,25 +8221,25 @@
       <c r="F118" s="71"/>
       <c r="G118" s="102"/>
       <c r="H118" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I118" s="67" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="J118" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K118" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L118" s="70" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M118" s="73">
         <v>1</v>
       </c>
       <c r="N118" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O118" s="10"/>
     </row>
@@ -8188,43 +8249,43 @@
         <v>117</v>
       </c>
       <c r="B119" s="71">
-        <v>44362</v>
+        <v>44392</v>
       </c>
       <c r="C119" s="80" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D119" s="67" t="s">
         <v>494</v>
       </c>
       <c r="E119" s="67" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F119" s="71">
-        <v>44727</v>
+        <v>44392</v>
       </c>
       <c r="G119" s="102">
-        <v>100000</v>
+        <v>24500</v>
       </c>
       <c r="H119" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I119" s="67" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="J119" s="69" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="K119" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L119" s="70" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M119" s="73">
         <v>1</v>
       </c>
       <c r="N119" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O119" s="10"/>
     </row>
@@ -8234,10 +8295,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="71">
-        <v>44372</v>
+        <v>44397</v>
       </c>
       <c r="C120" s="80" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D120" s="67" t="s">
         <v>495</v>
@@ -8246,25 +8307,25 @@
       <c r="F120" s="71"/>
       <c r="G120" s="102"/>
       <c r="H120" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I120" s="67" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="J120" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K120" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L120" s="70" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M120" s="73">
         <v>1</v>
       </c>
       <c r="N120" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O120" s="10"/>
     </row>
@@ -8274,43 +8335,37 @@
         <v>119</v>
       </c>
       <c r="B121" s="71">
-        <v>44392</v>
+        <v>44406</v>
       </c>
       <c r="C121" s="80" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D121" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="E121" s="67" t="s">
-        <v>675</v>
-      </c>
-      <c r="F121" s="71">
-        <v>44392</v>
-      </c>
-      <c r="G121" s="102">
-        <v>24500</v>
-      </c>
+      <c r="E121" s="67"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="102"/>
       <c r="H121" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="I121" s="67" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="J121" s="69" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="K121" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L121" s="70" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="M121" s="73">
         <v>1</v>
       </c>
       <c r="N121" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O121" s="10"/>
     </row>
@@ -8320,10 +8375,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="71">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="C122" s="80" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D122" s="67" t="s">
         <v>497</v>
@@ -8332,27 +8387,29 @@
       <c r="F122" s="71"/>
       <c r="G122" s="102"/>
       <c r="H122" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I122" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="J122" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K122" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L122" s="70" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M122" s="73">
         <v>1</v>
       </c>
-      <c r="N122" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O122" s="10"/>
+      <c r="N122" s="70" t="s">
+        <v>585</v>
+      </c>
+      <c r="O122" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="123" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="70">
@@ -8360,39 +8417,45 @@
         <v>121</v>
       </c>
       <c r="B123" s="71">
-        <v>44406</v>
+        <v>44435</v>
       </c>
       <c r="C123" s="80" t="s">
-        <v>314</v>
+        <v>559</v>
       </c>
       <c r="D123" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="E123" s="67"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="102"/>
+      <c r="E123" s="67" t="s">
+        <v>674</v>
+      </c>
+      <c r="F123" s="71">
+        <v>44435</v>
+      </c>
+      <c r="G123" s="102">
+        <v>22200000</v>
+      </c>
       <c r="H123" s="67" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="I123" s="67" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J123" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K123" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L123" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L123" s="70" t="s">
-        <v>535</v>
-      </c>
       <c r="M123" s="73">
         <v>1</v>
       </c>
       <c r="N123" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O123" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O123" s="72"/>
     </row>
     <row r="124" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="70">
@@ -8400,41 +8463,45 @@
         <v>122</v>
       </c>
       <c r="B124" s="71">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="C124" s="80" t="s">
-        <v>316</v>
+        <v>560</v>
       </c>
       <c r="D124" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="E124" s="67"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="102"/>
+      <c r="E124" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="F124" s="71">
+        <v>44438</v>
+      </c>
+      <c r="G124" s="102">
+        <v>3600000</v>
+      </c>
       <c r="H124" s="67" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="I124" s="67" t="s">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="J124" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K124" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L124" s="70" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M124" s="73">
         <v>1</v>
       </c>
-      <c r="N124" s="70" t="s">
-        <v>587</v>
-      </c>
-      <c r="O124" s="10" t="s">
-        <v>591</v>
-      </c>
+      <c r="N124" s="73" t="s">
+        <v>586</v>
+      </c>
+      <c r="O124" s="10"/>
     </row>
     <row r="125" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="70">
@@ -8442,7 +8509,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="71">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>561</v>
@@ -8450,37 +8517,33 @@
       <c r="D125" s="67" t="s">
         <v>500</v>
       </c>
-      <c r="E125" s="67" t="s">
-        <v>676</v>
-      </c>
-      <c r="F125" s="71">
-        <v>44435</v>
-      </c>
-      <c r="G125" s="102">
-        <v>22200000</v>
-      </c>
+      <c r="E125" s="67"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="102"/>
       <c r="H125" s="67" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="I125" s="67" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="J125" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K125" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L125" s="70" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M125" s="73">
         <v>1</v>
       </c>
       <c r="N125" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O125" s="72"/>
+        <v>586</v>
+      </c>
+      <c r="O125" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="126" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="70">
@@ -8488,7 +8551,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="71">
-        <v>44438</v>
+        <v>44447</v>
       </c>
       <c r="C126" s="80" t="s">
         <v>562</v>
@@ -8496,37 +8559,33 @@
       <c r="D126" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="E126" s="67" t="s">
-        <v>677</v>
-      </c>
-      <c r="F126" s="71">
-        <v>44438</v>
-      </c>
-      <c r="G126" s="102">
-        <v>3600000</v>
-      </c>
+      <c r="E126" s="67"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="102"/>
       <c r="H126" s="67" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="I126" s="67" t="s">
-        <v>692</v>
+        <v>601</v>
       </c>
       <c r="J126" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K126" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L126" s="70" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M126" s="73">
         <v>1</v>
       </c>
       <c r="N126" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O126" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O126" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="127" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="70">
@@ -8534,7 +8593,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="71">
-        <v>44442</v>
+        <v>44454</v>
       </c>
       <c r="C127" s="80" t="s">
         <v>563</v>
@@ -8542,33 +8601,37 @@
       <c r="D127" s="67" t="s">
         <v>502</v>
       </c>
-      <c r="E127" s="67"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="102"/>
+      <c r="E127" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="F127" s="71">
+        <v>44454</v>
+      </c>
+      <c r="G127" s="102">
+        <v>200000</v>
+      </c>
       <c r="H127" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I127" s="67" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="J127" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K127" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L127" s="70" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M127" s="73">
         <v>1</v>
       </c>
       <c r="N127" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O127" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O127" s="10"/>
     </row>
     <row r="128" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="70">
@@ -8576,7 +8639,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="71">
-        <v>44447</v>
+        <v>44463</v>
       </c>
       <c r="C128" s="80" t="s">
         <v>564</v>
@@ -8584,33 +8647,37 @@
       <c r="D128" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="E128" s="67"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="102"/>
+      <c r="E128" s="67" t="s">
+        <v>677</v>
+      </c>
+      <c r="F128" s="71">
+        <v>44463</v>
+      </c>
+      <c r="G128" s="102">
+        <v>4000500</v>
+      </c>
       <c r="H128" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I128" s="67" t="s">
-        <v>603</v>
+        <v>690</v>
       </c>
       <c r="J128" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K128" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L128" s="70" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M128" s="73">
         <v>1</v>
       </c>
       <c r="N128" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O128" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O128" s="72"/>
     </row>
     <row r="129" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="70">
@@ -8618,7 +8685,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="71">
-        <v>44454</v>
+        <v>44468</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>565</v>
@@ -8626,35 +8693,29 @@
       <c r="D129" s="67" t="s">
         <v>504</v>
       </c>
-      <c r="E129" s="67" t="s">
-        <v>678</v>
-      </c>
-      <c r="F129" s="71">
-        <v>44454</v>
-      </c>
-      <c r="G129" s="102">
-        <v>200000</v>
-      </c>
+      <c r="E129" s="67"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="102"/>
       <c r="H129" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="I129" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J129" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K129" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L129" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L129" s="70" t="s">
-        <v>528</v>
-      </c>
       <c r="M129" s="73">
         <v>1</v>
       </c>
       <c r="N129" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O129" s="10"/>
     </row>
@@ -8664,7 +8725,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="71">
-        <v>44463</v>
+        <v>44474</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>566</v>
@@ -8672,45 +8733,39 @@
       <c r="D130" s="67" t="s">
         <v>505</v>
       </c>
-      <c r="E130" s="67" t="s">
-        <v>679</v>
-      </c>
-      <c r="F130" s="71">
-        <v>44463</v>
-      </c>
-      <c r="G130" s="102">
-        <v>4000500</v>
-      </c>
+      <c r="E130" s="67"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="102"/>
       <c r="H130" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="I130" s="67" t="s">
-        <v>692</v>
+        <v>602</v>
+      </c>
+      <c r="I130" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J130" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K130" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L130" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M130" s="73">
         <v>1</v>
       </c>
       <c r="N130" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O130" s="72"/>
+        <v>586</v>
+      </c>
+      <c r="O130" s="10"/>
     </row>
     <row r="131" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A131:A148" si="2">A130+1</f>
         <v>129</v>
       </c>
       <c r="B131" s="71">
-        <v>44468</v>
+        <v>44484</v>
       </c>
       <c r="C131" s="80" t="s">
         <v>567</v>
@@ -8718,39 +8773,47 @@
       <c r="D131" s="67" t="s">
         <v>506</v>
       </c>
-      <c r="E131" s="67"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="102"/>
+      <c r="E131" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="F131" s="71">
+        <v>44484</v>
+      </c>
+      <c r="G131" s="102">
+        <v>3600000</v>
+      </c>
       <c r="H131" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="I131" s="67" t="s">
-        <v>596</v>
+        <v>592</v>
+      </c>
+      <c r="I131" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J131" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K131" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L131" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L131" s="70" t="s">
-        <v>529</v>
-      </c>
       <c r="M131" s="73">
         <v>1</v>
       </c>
       <c r="N131" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O131" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O131" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="132" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B132" s="71">
-        <v>44474</v>
+        <v>44488</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>568</v>
@@ -8762,35 +8825,37 @@
       <c r="F132" s="71"/>
       <c r="G132" s="102"/>
       <c r="H132" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="I132" s="69" t="s">
-        <v>594</v>
+        <v>602</v>
+      </c>
+      <c r="I132" s="67" t="s">
+        <v>602</v>
       </c>
       <c r="J132" s="69" t="s">
         <v>22</v>
       </c>
       <c r="K132" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L132" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L132" s="70" t="s">
-        <v>534</v>
-      </c>
       <c r="M132" s="73">
         <v>1</v>
       </c>
       <c r="N132" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O132" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O132" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="133" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="70">
-        <f t="shared" ref="A133:A150" si="2">A132+1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B133" s="71">
-        <v>44484</v>
+        <v>44517</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>569</v>
@@ -8798,39 +8863,31 @@
       <c r="D133" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="E133" s="67" t="s">
-        <v>680</v>
-      </c>
-      <c r="F133" s="71">
-        <v>44484</v>
-      </c>
-      <c r="G133" s="102">
-        <v>3600000</v>
-      </c>
+      <c r="E133" s="67"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="102"/>
       <c r="H133" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I133" s="69" t="s">
-        <v>594</v>
+        <v>602</v>
+      </c>
+      <c r="I133" s="67" t="s">
+        <v>591</v>
       </c>
       <c r="J133" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K133" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L133" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L133" s="70" t="s">
-        <v>529</v>
-      </c>
       <c r="M133" s="73">
         <v>1</v>
       </c>
       <c r="N133" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O133" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O133" s="10"/>
     </row>
     <row r="134" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="70">
@@ -8838,7 +8895,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="71">
-        <v>44488</v>
+        <v>44532</v>
       </c>
       <c r="C134" s="80" t="s">
         <v>570</v>
@@ -8846,33 +8903,37 @@
       <c r="D134" s="67" t="s">
         <v>509</v>
       </c>
-      <c r="E134" s="67"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="102"/>
+      <c r="E134" s="67" t="s">
+        <v>679</v>
+      </c>
+      <c r="F134" s="71">
+        <v>44532</v>
+      </c>
+      <c r="G134" s="102">
+        <v>25850000</v>
+      </c>
       <c r="H134" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="I134" s="67" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="J134" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K134" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L134" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L134" s="70" t="s">
-        <v>529</v>
-      </c>
       <c r="M134" s="73">
         <v>1</v>
       </c>
       <c r="N134" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O134" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O134" s="10"/>
     </row>
     <row r="135" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="70">
@@ -8880,7 +8941,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="71">
-        <v>44517</v>
+        <v>44544</v>
       </c>
       <c r="C135" s="80" t="s">
         <v>571</v>
@@ -8888,20 +8949,26 @@
       <c r="D135" s="67" t="s">
         <v>510</v>
       </c>
-      <c r="E135" s="67"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="102"/>
+      <c r="E135" s="67" t="s">
+        <v>680</v>
+      </c>
+      <c r="F135" s="71">
+        <v>44544</v>
+      </c>
+      <c r="G135" s="102">
+        <v>15420000</v>
+      </c>
       <c r="H135" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I135" s="67" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J135" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K135" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L135" s="70" t="s">
         <v>529</v>
@@ -8910,9 +8977,9 @@
         <v>1</v>
       </c>
       <c r="N135" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O135" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O135" s="52"/>
     </row>
     <row r="136" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="70">
@@ -8920,7 +8987,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="71">
-        <v>44532</v>
+        <v>44546</v>
       </c>
       <c r="C136" s="80" t="s">
         <v>572</v>
@@ -8932,33 +8999,35 @@
         <v>681</v>
       </c>
       <c r="F136" s="71">
-        <v>44532</v>
+        <v>44546</v>
       </c>
       <c r="G136" s="102">
-        <v>25850000</v>
+        <v>14750000</v>
       </c>
       <c r="H136" s="67" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I136" s="67" t="s">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="J136" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K136" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L136" s="70" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M136" s="73">
         <v>1</v>
       </c>
       <c r="N136" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O136" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O136" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="137" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="70">
@@ -8966,7 +9035,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="71">
-        <v>44544</v>
+        <v>44553</v>
       </c>
       <c r="C137" s="80" t="s">
         <v>573</v>
@@ -8978,31 +9047,31 @@
         <v>682</v>
       </c>
       <c r="F137" s="71">
-        <v>44544</v>
+        <v>44553</v>
       </c>
       <c r="G137" s="102">
-        <v>15420000</v>
+        <v>12300000</v>
       </c>
       <c r="H137" s="67" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I137" s="67" t="s">
-        <v>596</v>
+        <v>690</v>
       </c>
       <c r="J137" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K137" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L137" s="70" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M137" s="73">
         <v>1</v>
       </c>
       <c r="N137" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O137" s="52"/>
     </row>
@@ -9012,7 +9081,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="71">
-        <v>44546</v>
+        <v>44566</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>574</v>
@@ -9020,39 +9089,31 @@
       <c r="D138" s="67" t="s">
         <v>513</v>
       </c>
-      <c r="E138" s="67" t="s">
-        <v>683</v>
-      </c>
-      <c r="F138" s="71">
-        <v>44546</v>
-      </c>
-      <c r="G138" s="102">
-        <v>14750000</v>
-      </c>
+      <c r="E138" s="67"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="102"/>
       <c r="H138" s="67" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="I138" s="67" t="s">
-        <v>692</v>
+        <v>601</v>
       </c>
       <c r="J138" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K138" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L138" s="70" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="M138" s="73">
         <v>1</v>
       </c>
       <c r="N138" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O138" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O138" s="57"/>
     </row>
     <row r="139" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="70">
@@ -9060,7 +9121,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="71">
-        <v>44553</v>
+        <v>44573</v>
       </c>
       <c r="C139" s="80" t="s">
         <v>575</v>
@@ -9068,37 +9129,33 @@
       <c r="D139" s="67" t="s">
         <v>514</v>
       </c>
-      <c r="E139" s="67" t="s">
-        <v>684</v>
-      </c>
-      <c r="F139" s="71">
-        <v>44553</v>
-      </c>
-      <c r="G139" s="102">
-        <v>12300000</v>
-      </c>
+      <c r="E139" s="67"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="102"/>
       <c r="H139" s="67" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="I139" s="67" t="s">
-        <v>692</v>
+        <v>594</v>
       </c>
       <c r="J139" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K139" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L139" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M139" s="73">
         <v>1</v>
       </c>
       <c r="N139" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O139" s="52"/>
+        <v>586</v>
+      </c>
+      <c r="O139" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="140" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="70">
@@ -9106,7 +9163,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="71">
-        <v>44566</v>
+        <v>44575</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>576</v>
@@ -9114,31 +9171,37 @@
       <c r="D140" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="E140" s="67"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="102"/>
+      <c r="E140" s="67" t="s">
+        <v>683</v>
+      </c>
+      <c r="F140" s="71">
+        <v>44575</v>
+      </c>
+      <c r="G140" s="102">
+        <v>450000</v>
+      </c>
       <c r="H140" s="67" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="I140" s="67" t="s">
-        <v>603</v>
+        <v>690</v>
       </c>
       <c r="J140" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K140" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L140" s="70" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M140" s="73">
         <v>1</v>
       </c>
       <c r="N140" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O140" s="57"/>
+        <v>586</v>
+      </c>
+      <c r="O140" s="10"/>
     </row>
     <row r="141" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="70">
@@ -9146,7 +9209,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="71">
-        <v>44573</v>
+        <v>44586</v>
       </c>
       <c r="C141" s="80" t="s">
         <v>577</v>
@@ -9154,33 +9217,37 @@
       <c r="D141" s="67" t="s">
         <v>516</v>
       </c>
-      <c r="E141" s="67"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="102"/>
+      <c r="E141" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="F141" s="71">
+        <v>44586</v>
+      </c>
+      <c r="G141" s="102">
+        <v>157000</v>
+      </c>
       <c r="H141" s="67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I141" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J141" s="69" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
       <c r="K141" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L141" s="70" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M141" s="73">
         <v>1</v>
       </c>
       <c r="N141" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O141" s="10" t="s">
-        <v>591</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O141" s="10"/>
     </row>
     <row r="142" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="70">
@@ -9188,7 +9255,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="71">
-        <v>44575</v>
+        <v>44587</v>
       </c>
       <c r="C142" s="80" t="s">
         <v>578</v>
@@ -9196,26 +9263,20 @@
       <c r="D142" s="67" t="s">
         <v>517</v>
       </c>
-      <c r="E142" s="67" t="s">
-        <v>685</v>
-      </c>
-      <c r="F142" s="71">
-        <v>44575</v>
-      </c>
-      <c r="G142" s="102">
-        <v>450000</v>
-      </c>
+      <c r="E142" s="67"/>
+      <c r="F142" s="71"/>
+      <c r="G142" s="102"/>
       <c r="H142" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I142" s="67" t="s">
-        <v>692</v>
+        <v>602</v>
+      </c>
+      <c r="I142" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J142" s="69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K142" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L142" s="70" t="s">
         <v>534</v>
@@ -9224,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="N142" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O142" s="10"/>
     </row>
@@ -9234,7 +9295,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="71">
-        <v>44586</v>
+        <v>44593</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>579</v>
@@ -9242,35 +9303,29 @@
       <c r="D143" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="E143" s="67" t="s">
-        <v>686</v>
-      </c>
-      <c r="F143" s="71">
-        <v>44586</v>
-      </c>
-      <c r="G143" s="102">
-        <v>157000</v>
-      </c>
+      <c r="E143" s="67"/>
+      <c r="F143" s="71"/>
+      <c r="G143" s="102"/>
       <c r="H143" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="I143" s="67" t="s">
-        <v>596</v>
+        <v>602</v>
+      </c>
+      <c r="I143" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="J143" s="69" t="s">
-        <v>359</v>
+        <v>22</v>
       </c>
       <c r="K143" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L143" s="70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M143" s="73">
         <v>1</v>
       </c>
       <c r="N143" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O143" s="10"/>
     </row>
@@ -9280,7 +9335,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="71">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>580</v>
@@ -9288,31 +9343,39 @@
       <c r="D144" s="67" t="s">
         <v>519</v>
       </c>
-      <c r="E144" s="67"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="102"/>
-      <c r="H144" s="67" t="s">
-        <v>604</v>
+      <c r="E144" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="F144" s="71">
+        <v>44594</v>
+      </c>
+      <c r="G144" s="102">
+        <v>125800000</v>
+      </c>
+      <c r="H144" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="I144" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J144" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K144" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L144" s="70" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M144" s="73">
         <v>1</v>
       </c>
       <c r="N144" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O144" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O144" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="145" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="70">
@@ -9320,7 +9383,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="71">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>581</v>
@@ -9328,31 +9391,39 @@
       <c r="D145" s="67" t="s">
         <v>520</v>
       </c>
-      <c r="E145" s="67"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="102"/>
-      <c r="H145" s="67" t="s">
-        <v>604</v>
+      <c r="E145" s="67" t="s">
+        <v>686</v>
+      </c>
+      <c r="F145" s="71">
+        <v>44594</v>
+      </c>
+      <c r="G145" s="102">
+        <v>350000</v>
+      </c>
+      <c r="H145" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="I145" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J145" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K145" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L145" s="70" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M145" s="73">
         <v>1</v>
       </c>
       <c r="N145" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O145" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="O145" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="146" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="70">
@@ -9360,7 +9431,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="71">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="C146" s="80" t="s">
         <v>582</v>
@@ -9372,34 +9443,34 @@
         <v>687</v>
       </c>
       <c r="F146" s="71">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="G146" s="102">
-        <v>125800000</v>
+        <v>236500000</v>
       </c>
       <c r="H146" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I146" s="69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J146" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K146" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L146" s="70" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M146" s="73">
         <v>1</v>
       </c>
       <c r="N146" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O146" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="147" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9408,7 +9479,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="71">
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="C147" s="80" t="s">
         <v>583</v>
@@ -9420,43 +9491,43 @@
         <v>688</v>
       </c>
       <c r="F147" s="71">
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="G147" s="102">
-        <v>350000</v>
-      </c>
-      <c r="H147" s="69" t="s">
+        <v>28900</v>
+      </c>
+      <c r="H147" s="67" t="s">
         <v>594</v>
       </c>
-      <c r="I147" s="69" t="s">
-        <v>594</v>
+      <c r="I147" s="67" t="s">
+        <v>603</v>
       </c>
       <c r="J147" s="69" t="s">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c r="K147" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L147" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="L147" s="70" t="s">
-        <v>528</v>
-      </c>
       <c r="M147" s="73">
         <v>1</v>
       </c>
       <c r="N147" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O147" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="70">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B148" s="71">
-        <v>44596</v>
+        <v>44606</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>584</v>
@@ -9467,211 +9538,54 @@
       <c r="E148" s="67" t="s">
         <v>689</v>
       </c>
-      <c r="F148" s="71">
-        <v>44596</v>
-      </c>
+      <c r="F148" s="67"/>
       <c r="G148" s="102">
-        <v>236500000</v>
-      </c>
-      <c r="H148" s="69" t="s">
-        <v>594</v>
-      </c>
-      <c r="I148" s="69" t="s">
-        <v>594</v>
+        <v>8950000</v>
+      </c>
+      <c r="H148" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="I148" s="67" t="s">
+        <v>603</v>
       </c>
       <c r="J148" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K148" s="71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L148" s="70" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M148" s="73">
         <v>1</v>
       </c>
       <c r="N148" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O148" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="70">
-        <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-      <c r="B149" s="71">
-        <v>44603</v>
-      </c>
-      <c r="C149" s="80" t="s">
-        <v>585</v>
-      </c>
-      <c r="D149" s="67" t="s">
-        <v>524</v>
-      </c>
-      <c r="E149" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="F149" s="71">
-        <v>44603</v>
-      </c>
-      <c r="G149" s="102">
-        <v>28900</v>
-      </c>
-      <c r="H149" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="I149" s="67" t="s">
-        <v>605</v>
-      </c>
-      <c r="J149" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="K149" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="L149" s="70" t="s">
-        <v>529</v>
-      </c>
-      <c r="M149" s="73">
-        <v>1</v>
-      </c>
-      <c r="N149" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O149" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="70">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="B150" s="71">
-        <v>44606</v>
-      </c>
-      <c r="C150" s="80" t="s">
-        <v>586</v>
-      </c>
-      <c r="D150" s="67" t="s">
-        <v>525</v>
-      </c>
-      <c r="E150" s="67" t="s">
-        <v>691</v>
-      </c>
-      <c r="F150" s="67"/>
-      <c r="G150" s="102">
-        <v>8950000</v>
-      </c>
-      <c r="H150" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="I150" s="67" t="s">
-        <v>605</v>
-      </c>
-      <c r="J150" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K150" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="L150" s="70" t="s">
-        <v>528</v>
-      </c>
-      <c r="M150" s="73">
-        <v>1</v>
-      </c>
-      <c r="N150" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="O150" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="78"/>
-      <c r="C151" s="81"/>
-      <c r="G151" s="78"/>
-      <c r="K151" s="79"/>
-      <c r="L151" s="78"/>
-      <c r="N151" s="78"/>
-    </row>
-    <row r="152" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="78"/>
-      <c r="C152" s="81"/>
-      <c r="G152" s="78"/>
-      <c r="K152" s="78"/>
-      <c r="L152" s="78"/>
-      <c r="N152" s="78"/>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="78"/>
+      <c r="C149" s="81"/>
+      <c r="G149" s="78"/>
+      <c r="K149" s="79"/>
+      <c r="L149" s="78"/>
+      <c r="N149" s="78"/>
+    </row>
+    <row r="150" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="78"/>
+      <c r="C150" s="81"/>
+      <c r="G150" s="78"/>
+      <c r="K150" s="78"/>
+      <c r="L150" s="78"/>
+      <c r="N150" s="78"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O150" xr:uid="{E8193A89-A4D5-455A-9323-2060B1E8F87A}"/>
+  <autoFilter ref="A2:O148" xr:uid="{E8193A89-A4D5-455A-9323-2060B1E8F87A}"/>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B4AC96-11DB-4D96-B1C8-791E9D8AE765}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>592</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>593</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>594</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>595</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10067,7 +9981,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="16" t="s">
@@ -10102,7 +10016,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="16" t="s">
@@ -10112,7 +10026,7 @@
         <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10141,7 +10055,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="16">
@@ -10174,7 +10088,7 @@
         <v>32</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="16" t="s">
@@ -10276,7 +10190,7 @@
         <v>41</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="16" t="s">
@@ -10312,7 +10226,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="16">
@@ -10346,7 +10260,7 @@
         <v>57</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="16" t="s">
@@ -10380,7 +10294,7 @@
         <v>25</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="16">
@@ -10414,7 +10328,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="16">
@@ -10451,7 +10365,7 @@
         <v>41</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="16">
@@ -10518,7 +10432,7 @@
         <v>32</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="5" t="s">
@@ -10528,7 +10442,7 @@
         <v>49</v>
       </c>
       <c r="N24" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10591,7 +10505,7 @@
         <v>35</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="16">
@@ -10624,7 +10538,7 @@
         <v>35</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="16">
@@ -10658,7 +10572,7 @@
         <v>41</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K28" s="10">
         <v>2020</v>
@@ -10695,7 +10609,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="16" t="s">
@@ -10764,7 +10678,7 @@
         <v>97</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="16">
@@ -10832,7 +10746,7 @@
         <v>25</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="16">
@@ -10901,7 +10815,7 @@
         <v>35</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="16">
@@ -10909,7 +10823,7 @@
       </c>
       <c r="M35" s="33"/>
       <c r="N35" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10940,7 +10854,7 @@
         <v>32</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="16">
@@ -10950,7 +10864,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10979,7 +10893,7 @@
         <v>41</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="16" t="s">
@@ -10989,7 +10903,7 @@
         <v>111</v>
       </c>
       <c r="N37" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11020,7 +10934,7 @@
         <v>97</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="16">
@@ -11056,7 +10970,7 @@
         <v>35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="16">
@@ -11128,7 +11042,7 @@
         <v>35</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="16" t="s">
@@ -11198,7 +11112,7 @@
         <v>32</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="16">
@@ -11206,7 +11120,7 @@
       </c>
       <c r="M43" s="17"/>
       <c r="N43" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11236,7 +11150,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="16">
@@ -11270,7 +11184,7 @@
         <v>25</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="16">
@@ -11305,7 +11219,7 @@
         <v>41</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="16">
@@ -11375,7 +11289,7 @@
         <v>32</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="16">
@@ -11410,7 +11324,7 @@
         <v>32</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="16">
@@ -11445,7 +11359,7 @@
         <v>32</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="5" t="s">
@@ -11455,7 +11369,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N50" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11519,7 +11433,7 @@
         <v>41</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K52" s="10">
         <v>2021</v>
@@ -11531,7 +11445,7 @@
         <v>0.01</v>
       </c>
       <c r="N52" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11559,7 +11473,7 @@
         <v>97</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="16" t="s">
@@ -11595,7 +11509,7 @@
         <v>65</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="16">
@@ -11630,7 +11544,7 @@
         <v>32</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K55" s="10">
         <v>2020</v>
@@ -11702,7 +11616,7 @@
         <v>17</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="16">
@@ -11774,7 +11688,7 @@
         <v>57</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K59" s="10"/>
       <c r="L59" s="16">
@@ -11809,7 +11723,7 @@
         <v>97</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="16">
@@ -11974,7 +11888,7 @@
         <v>25</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="16">
@@ -12181,7 +12095,7 @@
         <v>57</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="16">
@@ -12284,7 +12198,7 @@
         <v>65</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="16">
@@ -12318,7 +12232,7 @@
         <v>97</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K75" s="10">
         <v>2020</v>
@@ -12356,7 +12270,7 @@
         <v>97</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="16">
@@ -12425,7 +12339,7 @@
         <v>97</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="16">
@@ -12525,7 +12439,7 @@
         <v>97</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="16">
@@ -12559,7 +12473,7 @@
         <v>57</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="16">
@@ -12597,7 +12511,7 @@
         <v>32</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K83" s="10">
         <v>2020</v>
@@ -12635,7 +12549,7 @@
         <v>35</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="16">
@@ -12701,7 +12615,7 @@
         <v>65</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K86" s="10">
         <v>2020</v>
@@ -12837,7 +12751,7 @@
         <v>41</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="16">
@@ -12939,7 +12853,7 @@
         <v>17</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="16">
@@ -13102,7 +13016,7 @@
         <v>17</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K98" s="10"/>
       <c r="L98" s="16">
@@ -13135,7 +13049,7 @@
         <v>97</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K99" s="10"/>
       <c r="L99" s="16">
@@ -13210,7 +13124,7 @@
         <v>0.02</v>
       </c>
       <c r="N101" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13275,7 +13189,7 @@
         <v>41</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K103" s="10"/>
       <c r="L103" s="16">
@@ -13706,7 +13620,7 @@
         <v>35</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K116" s="10"/>
       <c r="L116" s="5">
@@ -13877,7 +13791,7 @@
         <v>35</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K121" s="10"/>
       <c r="L121" s="5"/>
@@ -13971,7 +13885,7 @@
         <v>97</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K124" s="52"/>
       <c r="L124" s="5"/>
@@ -14227,12 +14141,12 @@
         <v>41</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K132" s="10"/>
       <c r="L132" s="5"/>
       <c r="M132" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14331,7 +14245,7 @@
         <v>57</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K135" s="10"/>
       <c r="L135" s="5"/>
@@ -14365,7 +14279,7 @@
         <v>57</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K136" s="10"/>
       <c r="L136" s="5"/>
@@ -14526,7 +14440,7 @@
         <v>65</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K141" s="10"/>
       <c r="L141" s="5"/>
@@ -14560,7 +14474,7 @@
         <v>65</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K142" s="10"/>
       <c r="L142" s="5"/>
@@ -14682,7 +14596,7 @@
         <v>57</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K146" s="10"/>
       <c r="L146" s="5"/>
@@ -14777,7 +14691,7 @@
         <v>32</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K149" s="10"/>
       <c r="L149" s="5"/>
@@ -14932,7 +14846,7 @@
         <v>57</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K154" s="10"/>
       <c r="L154" s="5"/>
@@ -14963,7 +14877,7 @@
         <v>57</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K155" s="10"/>
       <c r="L155" s="5"/>
@@ -14994,7 +14908,7 @@
         <v>35</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K156" s="10"/>
       <c r="L156" s="5"/>
@@ -15025,7 +14939,7 @@
         <v>65</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K157" s="10"/>
       <c r="L157" s="5"/>

--- a/BelInt_WebHelper/Docs/курсовая для работы/Книга регистрации клиентов.xlsx
+++ b/BelInt_WebHelper/Docs/курсовая для работы/Книга регистрации клиентов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doctor\source\repos\boyvano\BelInt_WebHelper\BelInt_WebHelper\Docs\курсовая для работы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28060942-9239-443A-8E74-6D3553E78A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB9F8C7-024A-4556-9745-B93C5C9E8169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">договоры!$A$2:$O$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">договоры!$A$2:$O$86</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="607">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1177,9 +1177,6 @@
     <t>Клиент 1</t>
   </si>
   <si>
-    <t>Клиент 2</t>
-  </si>
-  <si>
     <t>Клиент 3</t>
   </si>
   <si>
@@ -1189,15 +1186,9 @@
     <t>Клиент 5</t>
   </si>
   <si>
-    <t>Клиент 6</t>
-  </si>
-  <si>
     <t>Клиент 7</t>
   </si>
   <si>
-    <t>Клиент 8</t>
-  </si>
-  <si>
     <t>Клиент 9</t>
   </si>
   <si>
@@ -1207,9 +1198,6 @@
     <t>Клиент 11</t>
   </si>
   <si>
-    <t>Клиент 12</t>
-  </si>
-  <si>
     <t>Клиент 13</t>
   </si>
   <si>
@@ -1231,9 +1219,6 @@
     <t>Клиент 19</t>
   </si>
   <si>
-    <t>Клиент 20</t>
-  </si>
-  <si>
     <t>Клиент 21</t>
   </si>
   <si>
@@ -1243,87 +1228,27 @@
     <t>Клиент 23</t>
   </si>
   <si>
-    <t>Клиент 24</t>
-  </si>
-  <si>
-    <t>Клиент 25</t>
-  </si>
-  <si>
-    <t>Клиент 26</t>
-  </si>
-  <si>
     <t>Клиент 27</t>
   </si>
   <si>
-    <t>Клиент 28</t>
-  </si>
-  <si>
-    <t>Клиент 29</t>
-  </si>
-  <si>
-    <t>Клиент 30</t>
-  </si>
-  <si>
-    <t>Клиент 31</t>
-  </si>
-  <si>
-    <t>Клиент 32</t>
-  </si>
-  <si>
-    <t>Клиент 33</t>
-  </si>
-  <si>
-    <t>Клиент 34</t>
-  </si>
-  <si>
     <t>Клиент 35</t>
   </si>
   <si>
-    <t>Клиент 36</t>
-  </si>
-  <si>
     <t>Клиент 37</t>
   </si>
   <si>
-    <t>Клиент 38</t>
-  </si>
-  <si>
-    <t>Клиент 39</t>
-  </si>
-  <si>
-    <t>Клиент 40</t>
-  </si>
-  <si>
     <t>Клиент 41</t>
   </si>
   <si>
-    <t>Клиент 42</t>
-  </si>
-  <si>
     <t>Клиент 43</t>
   </si>
   <si>
-    <t>Клиент 44</t>
-  </si>
-  <si>
-    <t>Клиент 45</t>
-  </si>
-  <si>
     <t>Клиент 46</t>
   </si>
   <si>
     <t>Клиент 47</t>
   </si>
   <si>
-    <t>Клиент 48</t>
-  </si>
-  <si>
-    <t>Клиент 49</t>
-  </si>
-  <si>
-    <t>Клиент 50</t>
-  </si>
-  <si>
     <t>Клиент 51</t>
   </si>
   <si>
@@ -1333,24 +1258,9 @@
     <t>Клиент 53</t>
   </si>
   <si>
-    <t>Клиент 54</t>
-  </si>
-  <si>
     <t>Клиент 55</t>
   </si>
   <si>
-    <t>Клиент 58</t>
-  </si>
-  <si>
-    <t>Клиент 59</t>
-  </si>
-  <si>
-    <t>Клиент 60</t>
-  </si>
-  <si>
-    <t>Клиент 61</t>
-  </si>
-  <si>
     <t>Клиент 62</t>
   </si>
   <si>
@@ -1363,15 +1273,9 @@
     <t>Клиент 65</t>
   </si>
   <si>
-    <t>Клиент 66</t>
-  </si>
-  <si>
     <t>Клиент 67</t>
   </si>
   <si>
-    <t>Клиент 68</t>
-  </si>
-  <si>
     <t>Клиент 69</t>
   </si>
   <si>
@@ -1384,12 +1288,6 @@
     <t>Клиент 72</t>
   </si>
   <si>
-    <t>Клиент 73</t>
-  </si>
-  <si>
-    <t>Клиент 74</t>
-  </si>
-  <si>
     <t>Клиент 75</t>
   </si>
   <si>
@@ -1399,24 +1297,12 @@
     <t>Клиент 77</t>
   </si>
   <si>
-    <t>Клиент 78</t>
-  </si>
-  <si>
-    <t>Клиент 79</t>
-  </si>
-  <si>
     <t>Клиент 80</t>
   </si>
   <si>
     <t>Клиент 81</t>
   </si>
   <si>
-    <t>Клиент 82</t>
-  </si>
-  <si>
-    <t>Клиент 83</t>
-  </si>
-  <si>
     <t>Клиент 84</t>
   </si>
   <si>
@@ -1438,36 +1324,18 @@
     <t>Клиент 90</t>
   </si>
   <si>
-    <t>Клиент 91</t>
-  </si>
-  <si>
-    <t>Клиент 92</t>
-  </si>
-  <si>
     <t>Клиент 93</t>
   </si>
   <si>
-    <t>Клиент 94</t>
-  </si>
-  <si>
-    <t>Клиент 95</t>
-  </si>
-  <si>
     <t>Клиент 96</t>
   </si>
   <si>
     <t>Клиент 97</t>
   </si>
   <si>
-    <t>Клиент 98</t>
-  </si>
-  <si>
     <t>Клиент 99</t>
   </si>
   <si>
-    <t>Клиент 100</t>
-  </si>
-  <si>
     <t>Клиент 101</t>
   </si>
   <si>
@@ -1489,18 +1357,12 @@
     <t>Клиент 107</t>
   </si>
   <si>
-    <t>Клиент 108</t>
-  </si>
-  <si>
     <t>Клиент 109</t>
   </si>
   <si>
     <t>Клиент 110</t>
   </si>
   <si>
-    <t>Клиент 111</t>
-  </si>
-  <si>
     <t>Клиент 112</t>
   </si>
   <si>
@@ -1510,63 +1372,27 @@
     <t>Клиент 114</t>
   </si>
   <si>
-    <t>Клиент 115</t>
-  </si>
-  <si>
-    <t>Клиент 116</t>
-  </si>
-  <si>
     <t>Клиент 117</t>
   </si>
   <si>
-    <t>Клиент 118</t>
-  </si>
-  <si>
     <t>Клиент 119</t>
   </si>
   <si>
-    <t>Клиент 120</t>
-  </si>
-  <si>
-    <t>Клиент 121</t>
-  </si>
-  <si>
-    <t>Клиент 122</t>
-  </si>
-  <si>
     <t>Клиент 123</t>
   </si>
   <si>
     <t>Клиент 124</t>
   </si>
   <si>
-    <t>Клиент 125</t>
-  </si>
-  <si>
-    <t>Клиент 126</t>
-  </si>
-  <si>
     <t>Клиент 127</t>
   </si>
   <si>
     <t>Клиент 128</t>
   </si>
   <si>
-    <t>Клиент 129</t>
-  </si>
-  <si>
-    <t>Клиент 130</t>
-  </si>
-  <si>
     <t>Клиент 131</t>
   </si>
   <si>
-    <t>Клиент 132</t>
-  </si>
-  <si>
-    <t>Клиент 133</t>
-  </si>
-  <si>
     <t>Клиент 134</t>
   </si>
   <si>
@@ -1579,24 +1405,12 @@
     <t>Клиент 137</t>
   </si>
   <si>
-    <t>Клиент 138</t>
-  </si>
-  <si>
-    <t>Клиент 139</t>
-  </si>
-  <si>
     <t>Клиент 140</t>
   </si>
   <si>
     <t>Клиент 141</t>
   </si>
   <si>
-    <t>Клиент 142</t>
-  </si>
-  <si>
-    <t>Клиент 143</t>
-  </si>
-  <si>
     <t>Клиент 144</t>
   </si>
   <si>
@@ -1645,111 +1459,57 @@
     <t>исполнитель 8</t>
   </si>
   <si>
-    <t>исполнитель 9</t>
-  </si>
-  <si>
-    <t>№ Г - 043/18</t>
-  </si>
-  <si>
-    <t>№ Г - 089/19</t>
-  </si>
-  <si>
     <t>№ Г - 002/20</t>
   </si>
   <si>
     <t>№ Г - 008/20</t>
   </si>
   <si>
-    <t>№ Г - 024/20</t>
-  </si>
-  <si>
     <t xml:space="preserve">№ Г - 026/20 </t>
   </si>
   <si>
-    <t>№ Г - 037/20</t>
-  </si>
-  <si>
     <t>№ Г - 025/20</t>
   </si>
   <si>
-    <t>№ Г - 044/20</t>
-  </si>
-  <si>
     <t>№ Г - 056/20</t>
   </si>
   <si>
     <t>№ Г - 053/20</t>
   </si>
   <si>
-    <t>№ Г - 059/20</t>
-  </si>
-  <si>
     <t>№ Г - 001/21</t>
   </si>
   <si>
-    <t>№ Г - 003/21</t>
-  </si>
-  <si>
-    <t>№ Г - 004/21</t>
-  </si>
-  <si>
     <t>№ Г - 005/21</t>
   </si>
   <si>
     <t>№ Г - 006/21</t>
   </si>
   <si>
-    <t>№ Г - 007/21</t>
-  </si>
-  <si>
     <t>№ Г - 008/21</t>
   </si>
   <si>
-    <t>№ Г - 009/21</t>
-  </si>
-  <si>
     <t>№ Г - 020/21</t>
   </si>
   <si>
     <t>№ Г - 028/21</t>
   </si>
   <si>
-    <t>№ Г - 029/21</t>
-  </si>
-  <si>
     <t>№ Г - 038/21</t>
   </si>
   <si>
     <t>№ Г - 039/21</t>
   </si>
   <si>
-    <t>№ Г - 040/21</t>
-  </si>
-  <si>
-    <t>№ Г - 041/21</t>
-  </si>
-  <si>
     <t>№ Г - 042/21</t>
   </si>
   <si>
     <t>№ Г - 043/21</t>
   </si>
   <si>
-    <t>№ Г - 044/21</t>
-  </si>
-  <si>
-    <t>№ Г - 045/21</t>
-  </si>
-  <si>
     <t>№ Г - 048/21</t>
   </si>
   <si>
-    <t>№ Г - 049/21</t>
-  </si>
-  <si>
-    <t>№ Г - 050/21</t>
-  </si>
-  <si>
     <t>№ Г - 052/21</t>
   </si>
   <si>
@@ -1762,22 +1522,10 @@
     <t>№ Г - 056/21</t>
   </si>
   <si>
-    <t>№ Г - 001/22</t>
-  </si>
-  <si>
-    <t>№ Г - 002/22</t>
-  </si>
-  <si>
     <t>№ Г - 003/22</t>
   </si>
   <si>
     <t>№ Г - 004/22</t>
-  </si>
-  <si>
-    <t>№ Г - 005/22</t>
-  </si>
-  <si>
-    <t>№ Г - 006/22</t>
   </si>
   <si>
     <t>№ Г - 007/22</t>
@@ -2354,7 +2102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2539,12 +2287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2557,14 +2299,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2607,9 +2343,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2922,20 +2655,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>590</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>591</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>593</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>594</v>
+      <c r="A1" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2967,17 +2700,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8193A89-A4D5-455A-9323-2060B1E8F87A}">
-  <dimension ref="A1:P150"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A58"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="62" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="80" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
@@ -2993,100 +2726,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="68" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="88" t="s">
-        <v>598</v>
-      </c>
-      <c r="F1" s="88" t="s">
-        <v>599</v>
-      </c>
-      <c r="G1" s="88" t="s">
-        <v>604</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>605</v>
-      </c>
-      <c r="I1" s="88" t="s">
-        <v>596</v>
-      </c>
-      <c r="J1" s="90" t="s">
+      <c r="E1" s="84" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>520</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>521</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="90" t="s">
-        <v>595</v>
-      </c>
-      <c r="M1" s="90" t="s">
+      <c r="L1" s="86" t="s">
+        <v>511</v>
+      </c>
+      <c r="M1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="90" t="s">
-        <v>587</v>
-      </c>
-      <c r="O1" s="90" t="s">
-        <v>588</v>
+      <c r="N1" s="86" t="s">
+        <v>503</v>
+      </c>
+      <c r="O1" s="86" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87">
-        <v>1</v>
-      </c>
-      <c r="B2" s="91">
+      <c r="A2" s="83">
+        <v>1</v>
+      </c>
+      <c r="B2" s="87">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="C2" s="93">
+      <c r="C2" s="89">
         <v>3</v>
       </c>
-      <c r="D2" s="94">
+      <c r="D2" s="90">
         <v>4</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="84">
         <v>5</v>
       </c>
-      <c r="F2" s="88">
+      <c r="F2" s="84">
         <v>6</v>
       </c>
-      <c r="G2" s="97">
+      <c r="G2" s="93">
         <v>7</v>
       </c>
-      <c r="H2" s="99">
+      <c r="H2" s="95">
         <v>8</v>
       </c>
-      <c r="I2" s="96">
+      <c r="I2" s="92">
         <v>9</v>
       </c>
-      <c r="J2" s="88">
+      <c r="J2" s="84">
         <v>10</v>
       </c>
-      <c r="K2" s="100">
+      <c r="K2" s="96">
         <v>11</v>
       </c>
-      <c r="L2" s="88">
+      <c r="L2" s="84">
         <v>12</v>
       </c>
-      <c r="M2" s="92">
+      <c r="M2" s="88">
         <v>13</v>
       </c>
-      <c r="N2" s="95">
+      <c r="N2" s="91">
         <v>14</v>
       </c>
-      <c r="O2" s="88">
+      <c r="O2" s="84">
         <v>15</v>
       </c>
-      <c r="P2" s="98">
+      <c r="P2" s="94">
         <v>16</v>
       </c>
     </row>
@@ -3097,6494 +2830,3869 @@
       <c r="B3" s="71">
         <v>42048</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="78" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="67" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>606</v>
+        <v>522</v>
       </c>
       <c r="F3" s="71">
         <v>44240</v>
       </c>
-      <c r="G3" s="102">
+      <c r="G3" s="97">
         <v>20000</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>592</v>
+        <v>508</v>
       </c>
       <c r="I3" s="67" t="s">
-        <v>690</v>
+        <v>606</v>
       </c>
       <c r="J3" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L3" s="70" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="M3" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70">
-        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="71">
-        <v>42094</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>47</v>
+        <v>42104</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="101"/>
+      <c r="E4" s="67" t="s">
+        <v>523</v>
+      </c>
+      <c r="F4" s="71">
+        <v>44296</v>
+      </c>
+      <c r="G4" s="97">
+        <v>145000</v>
+      </c>
       <c r="H4" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I4" s="67" t="s">
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L4" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="83" t="s">
-        <v>585</v>
+        <v>471</v>
+      </c>
+      <c r="M4" s="73">
+        <v>1</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>502</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70">
-        <f t="shared" ref="A5:A66" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="71">
-        <v>42104</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>50</v>
+        <v>42334</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="67" t="s">
         <v>380</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>607</v>
+        <v>524</v>
       </c>
       <c r="F5" s="71">
-        <v>44296</v>
-      </c>
-      <c r="G5" s="102">
-        <v>145000</v>
+        <v>44526</v>
+      </c>
+      <c r="G5" s="97">
+        <v>25700</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>594</v>
+        <v>513</v>
       </c>
       <c r="J5" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L5" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M5" s="73">
-        <v>1</v>
-      </c>
-      <c r="N5" s="73" t="s">
-        <v>586</v>
+        <v>472</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="81" t="s">
+        <v>501</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="71">
-        <v>42334</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>52</v>
+        <v>42473</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>54</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>381</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>608</v>
+        <v>525</v>
       </c>
       <c r="F6" s="71">
-        <v>44526</v>
-      </c>
-      <c r="G6" s="102">
-        <v>25700</v>
+        <v>44299</v>
+      </c>
+      <c r="G6" s="97">
+        <v>1250000</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>597</v>
+        <v>516</v>
       </c>
       <c r="J6" s="69" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M6" s="73" t="s">
+        <v>464</v>
+      </c>
+      <c r="M6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="83" t="s">
-        <v>585</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>589</v>
-      </c>
+      <c r="N6" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="71">
-        <v>42473</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>54</v>
+        <v>42515</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>60</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>382</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>609</v>
+        <v>526</v>
       </c>
       <c r="F7" s="71">
-        <v>44299</v>
-      </c>
-      <c r="G7" s="102">
-        <v>1250000</v>
+        <v>44341</v>
+      </c>
+      <c r="G7" s="97">
+        <v>450000</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="I7" s="67" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>56</v>
+        <v>462</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L7" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M7" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="M7" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O7" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="71">
-        <v>42487</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>58</v>
+        <v>42692</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="102"/>
+      <c r="E8" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="F8" s="71">
+        <v>44518</v>
+      </c>
+      <c r="G8" s="97">
+        <v>785000</v>
+      </c>
       <c r="H8" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>601</v>
+        <v>510</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L8" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M8" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="M8" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O8" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="9" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="71">
-        <v>42515</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>60</v>
+        <v>42760</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>384</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>610</v>
+        <v>528</v>
       </c>
       <c r="F9" s="71">
-        <v>44341</v>
-      </c>
-      <c r="G9" s="102">
-        <v>450000</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>594</v>
+        <v>44586</v>
+      </c>
+      <c r="G9" s="97">
+        <v>368000</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>524</v>
+        <v>15</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L9" s="70" t="s">
-        <v>529</v>
-      </c>
-      <c r="M9" s="73" t="s">
-        <v>18</v>
+        <v>471</v>
+      </c>
+      <c r="M9" s="73">
+        <v>1</v>
       </c>
       <c r="N9" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="71">
-        <v>42660</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>63</v>
+        <v>42808</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>70</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>597</v>
+      <c r="E10" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="F10" s="71">
+        <v>44634</v>
+      </c>
+      <c r="G10" s="97">
+        <v>678200</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J10" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L10" s="70" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="M10" s="73">
         <v>1</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="71">
-        <v>42692</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>66</v>
+        <v>42948</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>75</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>386</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>611</v>
+        <v>530</v>
       </c>
       <c r="F11" s="71">
-        <v>44518</v>
-      </c>
-      <c r="G11" s="102">
-        <v>785000</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>594</v>
+        <v>44409</v>
+      </c>
+      <c r="G11" s="97">
+        <v>2564100</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I11" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J11" s="69" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K11" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L11" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M11" s="73" t="s">
-        <v>18</v>
+        <v>467</v>
+      </c>
+      <c r="M11" s="73">
+        <v>1</v>
       </c>
       <c r="N11" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="71">
-        <v>42760</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>68</v>
+        <v>43003</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>387</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>612</v>
+        <v>531</v>
       </c>
       <c r="F12" s="71">
-        <v>44586</v>
-      </c>
-      <c r="G12" s="102">
-        <v>368000</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>592</v>
+        <v>44464</v>
+      </c>
+      <c r="G12" s="97">
+        <v>3690000</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>509</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="K12" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L12" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M12" s="73">
-        <v>1</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>586</v>
+        <v>472</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>501</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="71">
-        <v>42808</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>70</v>
+        <v>43122</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>80</v>
       </c>
       <c r="D13" s="67" t="s">
         <v>388</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>613</v>
+        <v>532</v>
       </c>
       <c r="F13" s="71">
-        <v>44634</v>
-      </c>
-      <c r="G13" s="102">
-        <v>678200</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I13" s="69" t="s">
-        <v>592</v>
+        <v>44583</v>
+      </c>
+      <c r="G13" s="97">
+        <v>3589300</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>510</v>
       </c>
       <c r="J13" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L13" s="70" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="M13" s="73">
         <v>1</v>
       </c>
       <c r="N13" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="71">
-        <v>42899</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>72</v>
+        <v>43126</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>82</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="102"/>
+      <c r="E14" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="F14" s="71">
+        <v>44587</v>
+      </c>
+      <c r="G14" s="97">
+        <v>3256000</v>
+      </c>
       <c r="H14" s="67" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K14" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L14" s="70" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="M14" s="73">
         <v>1</v>
       </c>
       <c r="N14" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="71">
-        <v>42948</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>75</v>
+        <v>43276</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>390</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>614</v>
+        <v>534</v>
       </c>
       <c r="F15" s="71">
-        <v>44409</v>
-      </c>
-      <c r="G15" s="102">
-        <v>2564100</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I15" s="69" t="s">
-        <v>592</v>
+        <v>44737</v>
+      </c>
+      <c r="G15" s="97">
+        <v>4565000</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>516</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="K15" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L15" s="70" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="M15" s="73">
         <v>1</v>
       </c>
       <c r="N15" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O15" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="16" spans="1:16" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="71">
-        <v>43003</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>77</v>
+        <v>43291</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>87</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>391</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>615</v>
+        <v>535</v>
       </c>
       <c r="F16" s="71">
-        <v>44464</v>
-      </c>
-      <c r="G16" s="102">
-        <v>3690000</v>
+        <v>44387</v>
+      </c>
+      <c r="G16" s="97">
+        <v>24569000</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>593</v>
+        <v>517</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="K16" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M16" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="83" t="s">
-        <v>585</v>
+        <v>467</v>
+      </c>
+      <c r="M16" s="73">
+        <v>1</v>
+      </c>
+      <c r="N16" s="73" t="s">
+        <v>502</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="71">
-        <v>43122</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>80</v>
+        <v>43329</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>89</v>
       </c>
       <c r="D17" s="67" t="s">
         <v>392</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>616</v>
+        <v>536</v>
       </c>
       <c r="F17" s="71">
-        <v>44583</v>
-      </c>
-      <c r="G17" s="102">
-        <v>3589300</v>
+        <v>44425</v>
+      </c>
+      <c r="G17" s="97">
+        <v>4568000</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I17" s="67" t="s">
-        <v>594</v>
+        <v>508</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J17" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L17" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M17" s="73">
-        <v>1</v>
+        <v>464</v>
+      </c>
+      <c r="M17" s="73" t="s">
+        <v>18</v>
       </c>
       <c r="N17" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O17" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="18" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="71">
-        <v>43126</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>82</v>
+        <v>43389</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>94</v>
       </c>
       <c r="D18" s="67" t="s">
         <v>393</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>617</v>
+        <v>537</v>
       </c>
       <c r="F18" s="71">
-        <v>44587</v>
-      </c>
-      <c r="G18" s="102">
-        <v>3256000</v>
+        <v>44485</v>
+      </c>
+      <c r="G18" s="97">
+        <v>458750</v>
       </c>
       <c r="H18" s="67" t="s">
-        <v>592</v>
+        <v>510</v>
       </c>
       <c r="I18" s="67" t="s">
-        <v>690</v>
+        <v>510</v>
       </c>
       <c r="J18" s="69" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="K18" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L18" s="70" t="s">
-        <v>531</v>
+        <v>468</v>
       </c>
       <c r="M18" s="73">
         <v>1</v>
       </c>
       <c r="N18" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="71">
-        <v>43276</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>84</v>
+        <v>43403</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>98</v>
       </c>
       <c r="D19" s="67" t="s">
         <v>394</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>618</v>
+        <v>538</v>
       </c>
       <c r="F19" s="71">
-        <v>44737</v>
-      </c>
-      <c r="G19" s="102">
-        <v>4565000</v>
+        <v>44499</v>
+      </c>
+      <c r="G19" s="97">
+        <v>2556900</v>
       </c>
       <c r="H19" s="67" t="s">
-        <v>593</v>
+        <v>508</v>
       </c>
       <c r="I19" s="67" t="s">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="K19" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L19" s="70" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="M19" s="73">
         <v>1</v>
       </c>
       <c r="N19" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="71">
-        <v>43291</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>87</v>
+        <v>43409</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>100</v>
       </c>
       <c r="D20" s="67" t="s">
         <v>395</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>619</v>
+        <v>539</v>
       </c>
       <c r="F20" s="71">
-        <v>44387</v>
-      </c>
-      <c r="G20" s="102">
-        <v>24569000</v>
+        <v>44505</v>
+      </c>
+      <c r="G20" s="97">
+        <v>540000</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
       <c r="I20" s="67" t="s">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L20" s="70" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="M20" s="73">
         <v>1</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="71">
-        <v>43329</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>89</v>
+        <v>43462</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>108</v>
       </c>
       <c r="D21" s="67" t="s">
         <v>396</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="F21" s="71">
-        <v>44425</v>
-      </c>
-      <c r="G21" s="102">
-        <v>4568000</v>
+        <v>44558</v>
+      </c>
+      <c r="G21" s="97">
+        <v>56950</v>
       </c>
       <c r="H21" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I21" s="69" t="s">
-        <v>592</v>
+        <v>510</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>510</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="K21" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L21" s="70" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="M21" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="73" t="s">
-        <v>586</v>
+      <c r="N21" s="82" t="s">
+        <v>501</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="71">
-        <v>43355</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>536</v>
+        <v>43487</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>126</v>
       </c>
       <c r="D22" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="102"/>
+      <c r="E22" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="F22" s="71">
+        <v>44583</v>
+      </c>
+      <c r="G22" s="97">
+        <v>25800</v>
+      </c>
       <c r="H22" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I22" s="67" t="s">
-        <v>597</v>
+        <v>509</v>
+      </c>
+      <c r="I22" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="K22" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L22" s="70" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="M22" s="73">
         <v>1</v>
       </c>
       <c r="N22" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O22" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="23" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="71">
-        <v>43389</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>94</v>
+        <v>43497</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>131</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>398</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>621</v>
+        <v>542</v>
       </c>
       <c r="F23" s="71">
-        <v>44485</v>
-      </c>
-      <c r="G23" s="102">
-        <v>458750</v>
+        <v>44593</v>
+      </c>
+      <c r="G23" s="97">
+        <v>59750</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="I23" s="67" t="s">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="K23" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L23" s="70" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="M23" s="73">
         <v>1</v>
       </c>
       <c r="N23" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="71">
-        <v>43403</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>98</v>
+        <v>43608</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>139</v>
       </c>
       <c r="D24" s="67" t="s">
         <v>399</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>622</v>
+        <v>543</v>
       </c>
       <c r="F24" s="71">
-        <v>44499</v>
-      </c>
-      <c r="G24" s="102">
-        <v>2556900</v>
-      </c>
-      <c r="H24" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>592</v>
+        <v>44704</v>
+      </c>
+      <c r="G24" s="97">
+        <v>145800</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I24" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J24" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="M24" s="73">
         <v>1</v>
       </c>
       <c r="N24" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="71">
-        <v>43409</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>100</v>
+        <v>43651</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>143</v>
       </c>
       <c r="D25" s="67" t="s">
         <v>400</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>623</v>
+        <v>544</v>
       </c>
       <c r="F25" s="71">
-        <v>44505</v>
-      </c>
-      <c r="G25" s="102">
-        <v>540000</v>
+        <v>44382</v>
+      </c>
+      <c r="G25" s="97">
+        <v>2456000</v>
       </c>
       <c r="H25" s="67" t="s">
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="I25" s="67" t="s">
-        <v>592</v>
+        <v>510</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="K25" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L25" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M25" s="73">
-        <v>1</v>
+        <v>468</v>
+      </c>
+      <c r="M25" s="73" t="s">
+        <v>18</v>
       </c>
       <c r="N25" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="71">
-        <v>43434</v>
-      </c>
-      <c r="C26" s="80" t="s">
-        <v>102</v>
+        <v>43685</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>149</v>
       </c>
       <c r="D26" s="67" t="s">
         <v>401</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>602</v>
+      <c r="E26" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="F26" s="71">
+        <v>44416</v>
+      </c>
+      <c r="G26" s="97">
+        <v>369700</v>
+      </c>
+      <c r="H26" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I26" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K26" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L26" s="70" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="M26" s="73">
         <v>1</v>
       </c>
       <c r="N26" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="71">
-        <v>43445</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>104</v>
+        <v>43685</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>152</v>
       </c>
       <c r="D27" s="67" t="s">
         <v>402</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="102"/>
+      <c r="E27" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="F27" s="71">
+        <v>44416</v>
+      </c>
+      <c r="G27" s="97">
+        <v>478960</v>
+      </c>
       <c r="H27" s="67" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="I27" s="67" t="s">
-        <v>591</v>
+        <v>519</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="K27" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L27" s="70" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="M27" s="73">
         <v>1</v>
       </c>
       <c r="N27" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="71">
-        <v>43453</v>
-      </c>
-      <c r="C28" s="80" t="s">
-        <v>106</v>
+        <v>43794</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>161</v>
       </c>
       <c r="D28" s="67" t="s">
         <v>403</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="102"/>
+      <c r="E28" s="67" t="s">
+        <v>547</v>
+      </c>
+      <c r="F28" s="71">
+        <v>44525</v>
+      </c>
+      <c r="G28" s="97">
+        <v>254000</v>
+      </c>
       <c r="H28" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I28" s="67" t="s">
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K28" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L28" s="70" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
       <c r="M28" s="73">
         <v>1</v>
       </c>
-      <c r="N28" s="84" t="s">
-        <v>585</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>589</v>
-      </c>
+      <c r="N28" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="70">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="71">
-        <v>43462</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>108</v>
+        <v>43797</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>163</v>
       </c>
       <c r="D29" s="67" t="s">
         <v>404</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>624</v>
+        <v>548</v>
       </c>
       <c r="F29" s="71">
-        <v>44558</v>
-      </c>
-      <c r="G29" s="102">
-        <v>56950</v>
+        <v>44528</v>
+      </c>
+      <c r="G29" s="97">
+        <v>12300</v>
       </c>
       <c r="H29" s="67" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
       <c r="I29" s="67" t="s">
-        <v>594</v>
+        <v>513</v>
       </c>
       <c r="J29" s="69" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="K29" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L29" s="70" t="s">
-        <v>529</v>
-      </c>
-      <c r="M29" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" s="85" t="s">
-        <v>585</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="M29" s="73">
+        <v>1</v>
+      </c>
+      <c r="N29" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="71">
-        <v>43467</v>
-      </c>
-      <c r="C30" s="80" t="s">
-        <v>112</v>
+        <v>43811</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>165</v>
       </c>
       <c r="D30" s="67" t="s">
         <v>405</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="102"/>
+      <c r="E30" s="67" t="s">
+        <v>549</v>
+      </c>
+      <c r="F30" s="71">
+        <v>44542</v>
+      </c>
+      <c r="G30" s="97">
+        <v>258000</v>
+      </c>
       <c r="H30" s="67" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="I30" s="67" t="s">
-        <v>597</v>
+        <v>516</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="K30" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L30" s="70" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="M30" s="73">
         <v>1</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="70">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="71">
-        <v>43468</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>114</v>
+        <v>43817</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>169</v>
       </c>
       <c r="D31" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="102"/>
+      <c r="E31" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="F31" s="71">
+        <v>44548</v>
+      </c>
+      <c r="G31" s="97">
+        <v>255000</v>
+      </c>
       <c r="H31" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I31" s="67" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L31" s="70" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="M31" s="73">
         <v>1</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="71">
-        <v>43468</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>116</v>
+        <v>43847</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>473</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="102"/>
+      <c r="E32" s="67" t="s">
+        <v>551</v>
+      </c>
+      <c r="F32" s="71">
+        <v>44578</v>
+      </c>
+      <c r="G32" s="97">
+        <v>265000</v>
+      </c>
       <c r="H32" s="67" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="I32" s="67" t="s">
-        <v>601</v>
+        <v>509</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K32" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L32" s="70" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="M32" s="73">
         <v>1</v>
       </c>
       <c r="N32" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="71">
-        <v>43473</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>118</v>
+        <v>43861</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>188</v>
       </c>
       <c r="D33" s="67" t="s">
         <v>408</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="102"/>
+      <c r="E33" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="F33" s="71">
+        <v>44592</v>
+      </c>
+      <c r="G33" s="97">
+        <v>2589000</v>
+      </c>
       <c r="H33" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I33" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L33" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M33" s="73" t="s">
-        <v>18</v>
+        <v>469</v>
+      </c>
+      <c r="M33" s="73">
+        <v>1</v>
       </c>
       <c r="N33" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O33" s="10"/>
     </row>
     <row r="34" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="71">
-        <v>43475</v>
-      </c>
-      <c r="C34" s="80" t="s">
-        <v>120</v>
+        <v>43872</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>190</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="102"/>
+      <c r="E34" s="67" t="s">
+        <v>553</v>
+      </c>
+      <c r="F34" s="71">
+        <v>44603</v>
+      </c>
+      <c r="G34" s="97">
+        <v>2569000</v>
+      </c>
       <c r="H34" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I34" s="67" t="s">
-        <v>597</v>
+        <v>513</v>
       </c>
       <c r="J34" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K34" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L34" s="70" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
       <c r="M34" s="73">
         <v>1</v>
       </c>
       <c r="N34" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O34" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="35" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="71">
-        <v>43483</v>
-      </c>
-      <c r="C35" s="80" t="s">
-        <v>122</v>
+        <v>43878</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>474</v>
       </c>
       <c r="D35" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="102"/>
+      <c r="E35" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="F35" s="71">
+        <v>44609</v>
+      </c>
+      <c r="G35" s="97">
+        <v>148000</v>
+      </c>
       <c r="H35" s="67" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="I35" s="67" t="s">
-        <v>594</v>
+        <v>516</v>
       </c>
       <c r="J35" s="69" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="K35" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L35" s="70" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="M35" s="73">
         <v>1</v>
       </c>
       <c r="N35" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="71">
-        <v>43486</v>
-      </c>
-      <c r="C36" s="80" t="s">
-        <v>124</v>
+        <v>43879</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>196</v>
       </c>
       <c r="D36" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="102"/>
+      <c r="E36" s="67" t="s">
+        <v>555</v>
+      </c>
+      <c r="F36" s="71">
+        <v>44610</v>
+      </c>
+      <c r="G36" s="97">
+        <v>21000000</v>
+      </c>
       <c r="H36" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I36" s="69" t="s">
-        <v>592</v>
+        <v>510</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>510</v>
       </c>
       <c r="J36" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K36" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L36" s="70" t="s">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="M36" s="73">
         <v>1</v>
       </c>
       <c r="N36" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="70">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="71">
-        <v>43487</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>126</v>
+      <c r="B37" s="74">
+        <v>43902</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>200</v>
       </c>
       <c r="D37" s="67" t="s">
         <v>412</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>625</v>
-      </c>
-      <c r="F37" s="71">
-        <v>44583</v>
-      </c>
-      <c r="G37" s="102">
-        <v>25800</v>
+        <v>556</v>
+      </c>
+      <c r="F37" s="74">
+        <v>44632</v>
+      </c>
+      <c r="G37" s="97">
+        <v>145500</v>
       </c>
       <c r="H37" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I37" s="69" t="s">
-        <v>592</v>
+        <v>510</v>
+      </c>
+      <c r="I37" s="67" t="s">
+        <v>510</v>
       </c>
       <c r="J37" s="69" t="s">
         <v>128</v>
       </c>
       <c r="K37" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L37" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M37" s="73">
-        <v>1</v>
+        <v>470</v>
+      </c>
+      <c r="M37" s="73" t="s">
+        <v>18</v>
       </c>
       <c r="N37" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="71">
-        <v>43494</v>
-      </c>
-      <c r="C38" s="80" t="s">
-        <v>129</v>
+      <c r="B38" s="74">
+        <v>43910</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>204</v>
       </c>
       <c r="D38" s="67" t="s">
         <v>413</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="102"/>
+      <c r="E38" s="67" t="s">
+        <v>557</v>
+      </c>
+      <c r="F38" s="74">
+        <v>44640</v>
+      </c>
+      <c r="G38" s="97">
+        <v>365000</v>
+      </c>
       <c r="H38" s="67" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="J38" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K38" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L38" s="70" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="M38" s="73">
         <v>1</v>
       </c>
       <c r="N38" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="70">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="71">
-        <v>43497</v>
-      </c>
-      <c r="C39" s="80" t="s">
-        <v>131</v>
+      <c r="B39" s="74">
+        <v>43910</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>206</v>
       </c>
       <c r="D39" s="67" t="s">
         <v>414</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>626</v>
-      </c>
-      <c r="F39" s="71">
-        <v>44593</v>
-      </c>
-      <c r="G39" s="102">
-        <v>59750</v>
+        <v>558</v>
+      </c>
+      <c r="F39" s="74">
+        <v>44640</v>
+      </c>
+      <c r="G39" s="97">
+        <v>265000</v>
       </c>
       <c r="H39" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="I39" s="67" t="s">
-        <v>603</v>
+        <v>519</v>
       </c>
       <c r="J39" s="69" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="K39" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L39" s="70" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="M39" s="73">
         <v>1</v>
       </c>
       <c r="N39" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O39" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="40" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="70">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="71">
-        <v>43502</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>133</v>
+      <c r="B40" s="74">
+        <v>43927</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>208</v>
       </c>
       <c r="D40" s="67" t="s">
         <v>415</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="102"/>
+      <c r="E40" s="67" t="s">
+        <v>559</v>
+      </c>
+      <c r="F40" s="74">
+        <v>44657</v>
+      </c>
+      <c r="G40" s="97">
+        <v>5600000</v>
+      </c>
       <c r="H40" s="67" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>593</v>
+        <v>518</v>
       </c>
       <c r="J40" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K40" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L40" s="70" t="s">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="M40" s="73">
         <v>1</v>
       </c>
       <c r="N40" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="70">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="71">
-        <v>43529</v>
-      </c>
-      <c r="C41" s="80" t="s">
-        <v>135</v>
+      <c r="B41" s="74">
+        <v>43941</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>476</v>
       </c>
       <c r="D41" s="67" t="s">
         <v>416</v>
       </c>
-      <c r="E41" s="67"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="102"/>
+      <c r="E41" s="67" t="s">
+        <v>560</v>
+      </c>
+      <c r="F41" s="74">
+        <v>44671</v>
+      </c>
+      <c r="G41" s="97">
+        <v>258000</v>
+      </c>
       <c r="H41" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="J41" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K41" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L41" s="70" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="M41" s="73">
         <v>1</v>
       </c>
       <c r="N41" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="71">
-        <v>43549</v>
-      </c>
-      <c r="C42" s="80" t="s">
-        <v>137</v>
+      <c r="B42" s="74">
+        <v>43942</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>475</v>
       </c>
       <c r="D42" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="E42" s="67"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="102"/>
+      <c r="E42" s="67" t="s">
+        <v>561</v>
+      </c>
+      <c r="F42" s="74">
+        <v>44672</v>
+      </c>
+      <c r="G42" s="97">
+        <v>220000</v>
+      </c>
       <c r="H42" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>597</v>
+        <v>513</v>
       </c>
       <c r="J42" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K42" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L42" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M42" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" s="86" t="s">
-        <v>585</v>
+        <v>465</v>
+      </c>
+      <c r="M42" s="73">
+        <v>1</v>
+      </c>
+      <c r="N42" s="73" t="s">
+        <v>502</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="70">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="71">
-        <v>43608</v>
-      </c>
-      <c r="C43" s="80" t="s">
-        <v>139</v>
+      <c r="B43" s="74">
+        <v>43925</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>218</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>418</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>627</v>
-      </c>
-      <c r="F43" s="71">
-        <v>44704</v>
-      </c>
-      <c r="G43" s="102">
-        <v>145800</v>
-      </c>
-      <c r="H43" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I43" s="69" t="s">
-        <v>592</v>
+        <v>562</v>
+      </c>
+      <c r="F43" s="74">
+        <v>44655</v>
+      </c>
+      <c r="G43" s="97">
+        <v>5000000</v>
+      </c>
+      <c r="H43" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="I43" s="67" t="s">
+        <v>508</v>
       </c>
       <c r="J43" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L43" s="70" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="M43" s="73">
         <v>1</v>
       </c>
       <c r="N43" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O43" s="10"/>
     </row>
     <row r="44" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="70">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="71">
-        <v>43628</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>141</v>
+        <v>44043</v>
+      </c>
+      <c r="C44" s="78" t="s">
+        <v>224</v>
       </c>
       <c r="D44" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="102"/>
+      <c r="E44" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="F44" s="71">
+        <v>44408</v>
+      </c>
+      <c r="G44" s="97">
+        <v>300000</v>
+      </c>
       <c r="H44" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I44" s="67" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="J44" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K44" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L44" s="70" t="s">
-        <v>529</v>
-      </c>
-      <c r="M44" s="73" t="s">
-        <v>18</v>
+        <v>467</v>
+      </c>
+      <c r="M44" s="73">
+        <v>1</v>
       </c>
       <c r="N44" s="73" t="s">
-        <v>585</v>
+        <v>502</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="70">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="71">
-        <v>43651</v>
-      </c>
-      <c r="C45" s="80" t="s">
-        <v>143</v>
+        <v>44056</v>
+      </c>
+      <c r="C45" s="78" t="s">
+        <v>226</v>
       </c>
       <c r="D45" s="67" t="s">
         <v>420</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>628</v>
+        <v>564</v>
       </c>
       <c r="F45" s="71">
-        <v>44382</v>
-      </c>
-      <c r="G45" s="102">
-        <v>2456000</v>
+        <v>44421</v>
+      </c>
+      <c r="G45" s="97">
+        <v>2100</v>
       </c>
       <c r="H45" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="I45" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="J45" s="69" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="K45" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L45" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="M45" s="73" t="s">
-        <v>18</v>
+        <v>465</v>
+      </c>
+      <c r="M45" s="73">
+        <v>1</v>
       </c>
       <c r="N45" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O45" s="10"/>
     </row>
     <row r="46" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="70">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="71">
-        <v>43663</v>
-      </c>
-      <c r="C46" s="80" t="s">
-        <v>145</v>
+        <v>44096</v>
+      </c>
+      <c r="C46" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="D46" s="67" t="s">
         <v>421</v>
       </c>
-      <c r="E46" s="67"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="102"/>
+      <c r="E46" s="67" t="s">
+        <v>565</v>
+      </c>
+      <c r="F46" s="71">
+        <v>44461</v>
+      </c>
+      <c r="G46" s="97">
+        <v>360000</v>
+      </c>
       <c r="H46" s="67" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="I46" s="67" t="s">
-        <v>597</v>
+        <v>518</v>
       </c>
       <c r="J46" s="69" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="K46" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L46" s="70" t="s">
-        <v>527</v>
+        <v>468</v>
       </c>
       <c r="M46" s="73">
         <v>1</v>
       </c>
       <c r="N46" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O46" s="10"/>
     </row>
     <row r="47" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="71">
-        <v>43684</v>
-      </c>
-      <c r="C47" s="80" t="s">
-        <v>147</v>
+        <v>44097</v>
+      </c>
+      <c r="C47" s="78" t="s">
+        <v>234</v>
       </c>
       <c r="D47" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I47" s="67" t="s">
-        <v>594</v>
+      <c r="E47" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="F47" s="71">
+        <v>44462</v>
+      </c>
+      <c r="G47" s="97">
+        <v>450000</v>
+      </c>
+      <c r="H47" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I47" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J47" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K47" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L47" s="70" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="M47" s="73">
         <v>1</v>
       </c>
       <c r="N47" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="71">
-        <v>43685</v>
-      </c>
-      <c r="C48" s="80" t="s">
-        <v>149</v>
+        <v>44097</v>
+      </c>
+      <c r="C48" s="78" t="s">
+        <v>236</v>
       </c>
       <c r="D48" s="67" t="s">
         <v>423</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="F48" s="71">
-        <v>44416</v>
-      </c>
-      <c r="G48" s="102">
-        <v>369700</v>
-      </c>
-      <c r="H48" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I48" s="69" t="s">
-        <v>592</v>
+        <v>44462</v>
+      </c>
+      <c r="G48" s="97">
+        <v>2480000</v>
+      </c>
+      <c r="H48" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="I48" s="67" t="s">
+        <v>509</v>
       </c>
       <c r="J48" s="69" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="K48" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L48" s="70" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="M48" s="73">
         <v>1</v>
       </c>
       <c r="N48" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O48" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O48" s="72"/>
     </row>
     <row r="49" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="71">
-        <v>43685</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>152</v>
+        <v>44131</v>
+      </c>
+      <c r="C49" s="78" t="s">
+        <v>239</v>
       </c>
       <c r="D49" s="67" t="s">
         <v>424</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="F49" s="71">
-        <v>44416</v>
-      </c>
-      <c r="G49" s="102">
-        <v>478960</v>
+        <v>44496</v>
+      </c>
+      <c r="G49" s="97">
+        <v>2560000</v>
       </c>
       <c r="H49" s="67" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
       <c r="I49" s="67" t="s">
-        <v>603</v>
+        <v>510</v>
       </c>
       <c r="J49" s="69" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="K49" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L49" s="70" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="M49" s="73">
         <v>1</v>
       </c>
       <c r="N49" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O49" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O49" s="10"/>
     </row>
     <row r="50" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="71">
-        <v>43705</v>
-      </c>
-      <c r="C50" s="80" t="s">
-        <v>155</v>
+        <v>44166</v>
+      </c>
+      <c r="C50" s="78" t="s">
+        <v>478</v>
       </c>
       <c r="D50" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="102"/>
+      <c r="E50" s="67" t="s">
+        <v>569</v>
+      </c>
+      <c r="F50" s="71">
+        <v>44531</v>
+      </c>
+      <c r="G50" s="97">
+        <v>7800000</v>
+      </c>
       <c r="H50" s="67" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="I50" s="67" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J50" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K50" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L50" s="70" t="s">
-        <v>534</v>
+        <v>470</v>
       </c>
       <c r="M50" s="73">
         <v>1</v>
       </c>
       <c r="N50" s="73" t="s">
-        <v>585</v>
-      </c>
-      <c r="O50" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="51" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="70">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="71">
-        <v>43706</v>
-      </c>
-      <c r="C51" s="80" t="s">
-        <v>157</v>
+        <v>44172</v>
+      </c>
+      <c r="C51" s="78" t="s">
+        <v>243</v>
       </c>
       <c r="D51" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="E51" s="67"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="102"/>
+      <c r="E51" s="67" t="s">
+        <v>570</v>
+      </c>
+      <c r="F51" s="71">
+        <v>44537</v>
+      </c>
+      <c r="G51" s="97">
+        <v>9640000</v>
+      </c>
       <c r="H51" s="67" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="I51" s="67" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="J51" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K51" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L51" s="70" t="s">
-        <v>526</v>
+        <v>468</v>
       </c>
       <c r="M51" s="73">
         <v>1</v>
       </c>
       <c r="N51" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="70">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="71">
-        <v>43719</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>159</v>
+        <v>44175</v>
+      </c>
+      <c r="C52" s="78" t="s">
+        <v>477</v>
       </c>
       <c r="D52" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="E52" s="67"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="102"/>
+      <c r="E52" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="F52" s="71">
+        <v>44540</v>
+      </c>
+      <c r="G52" s="97">
+        <v>258000</v>
+      </c>
       <c r="H52" s="67" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>593</v>
+        <v>517</v>
       </c>
       <c r="J52" s="69" t="s">
-        <v>22</v>
+        <v>466</v>
       </c>
       <c r="K52" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L52" s="70" t="s">
-        <v>530</v>
+        <v>465</v>
       </c>
       <c r="M52" s="73">
         <v>1</v>
       </c>
       <c r="N52" s="73" t="s">
-        <v>585</v>
-      </c>
-      <c r="O52" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O52" s="10"/>
     </row>
     <row r="53" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="70">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="71">
-        <v>43794</v>
-      </c>
-      <c r="C53" s="80" t="s">
-        <v>161</v>
+        <v>44209</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>479</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>428</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>631</v>
+        <v>572</v>
       </c>
       <c r="F53" s="71">
-        <v>44525</v>
-      </c>
-      <c r="G53" s="102">
-        <v>254000</v>
+        <v>44574</v>
+      </c>
+      <c r="G53" s="97">
+        <v>245000</v>
       </c>
       <c r="H53" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="I53" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="J53" s="69" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="K53" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L53" s="70" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="M53" s="73">
         <v>1</v>
       </c>
       <c r="N53" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O53" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="54" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="70">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="71">
-        <v>43797</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>163</v>
+        <v>44228</v>
+      </c>
+      <c r="C54" s="78" t="s">
+        <v>480</v>
       </c>
       <c r="D54" s="67" t="s">
         <v>429</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>632</v>
+        <v>573</v>
       </c>
       <c r="F54" s="71">
-        <v>44528</v>
-      </c>
-      <c r="G54" s="102">
-        <v>12300</v>
+        <v>44593</v>
+      </c>
+      <c r="G54" s="97">
+        <v>8900000</v>
       </c>
       <c r="H54" s="67" t="s">
-        <v>593</v>
+        <v>508</v>
       </c>
       <c r="I54" s="67" t="s">
-        <v>597</v>
+        <v>518</v>
       </c>
       <c r="J54" s="69" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="K54" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L54" s="70" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
       <c r="M54" s="73">
         <v>1</v>
       </c>
       <c r="N54" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O54" s="10"/>
     </row>
     <row r="55" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="70">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="71">
-        <v>43811</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>165</v>
+        <v>44229</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>481</v>
       </c>
       <c r="D55" s="67" t="s">
         <v>430</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>633</v>
+        <v>574</v>
       </c>
       <c r="F55" s="71">
-        <v>44542</v>
-      </c>
-      <c r="G55" s="102">
-        <v>258000</v>
-      </c>
-      <c r="H55" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I55" s="67" t="s">
-        <v>600</v>
+        <v>44594</v>
+      </c>
+      <c r="G55" s="97">
+        <v>587000</v>
+      </c>
+      <c r="H55" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I55" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J55" s="69" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="K55" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L55" s="70" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="M55" s="73">
         <v>1</v>
       </c>
       <c r="N55" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O55" s="10"/>
     </row>
     <row r="56" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="70">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="71">
-        <v>43817</v>
-      </c>
-      <c r="C56" s="80" t="s">
-        <v>167</v>
+        <v>44231</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>482</v>
       </c>
       <c r="D56" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="E56" s="67"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="102"/>
+      <c r="E56" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="F56" s="71">
+        <v>44596</v>
+      </c>
+      <c r="G56" s="97">
+        <v>65000</v>
+      </c>
       <c r="H56" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I56" s="67" t="s">
-        <v>601</v>
+        <v>510</v>
       </c>
       <c r="J56" s="69" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="K56" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L56" s="70" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="M56" s="73">
         <v>1</v>
       </c>
       <c r="N56" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O56" s="10"/>
     </row>
     <row r="57" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="70">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" s="71">
-        <v>43817</v>
-      </c>
-      <c r="C57" s="80" t="s">
-        <v>169</v>
+        <v>44265</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>271</v>
       </c>
       <c r="D57" s="67" t="s">
         <v>432</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="F57" s="71">
-        <v>44548</v>
-      </c>
-      <c r="G57" s="102">
-        <v>255000</v>
+        <v>44630</v>
+      </c>
+      <c r="G57" s="97">
+        <v>112200</v>
       </c>
       <c r="H57" s="67" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
       <c r="I57" s="67" t="s">
-        <v>594</v>
+        <v>516</v>
       </c>
       <c r="J57" s="69" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K57" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L57" s="70" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="M57" s="73">
         <v>1</v>
       </c>
       <c r="N57" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O57" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O57" s="10"/>
     </row>
     <row r="58" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="71">
-        <v>43830</v>
-      </c>
-      <c r="C58" s="80" t="s">
-        <v>176</v>
+        <v>44265</v>
+      </c>
+      <c r="C58" s="78" t="s">
+        <v>273</v>
       </c>
       <c r="D58" s="67" t="s">
         <v>433</v>
       </c>
-      <c r="E58" s="67"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="102"/>
+      <c r="E58" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="F58" s="71">
+        <v>44630</v>
+      </c>
+      <c r="G58" s="97">
+        <v>870000</v>
+      </c>
       <c r="H58" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I58" s="69" t="s">
-        <v>592</v>
+        <v>509</v>
+      </c>
+      <c r="I58" s="67" t="s">
+        <v>517</v>
       </c>
       <c r="J58" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K58" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L58" s="70" t="s">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="M58" s="73">
         <v>1</v>
       </c>
       <c r="N58" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O58" s="10"/>
     </row>
     <row r="59" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="70">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="74">
-        <v>43830</v>
-      </c>
-      <c r="C59" s="75" t="s">
-        <v>537</v>
+      <c r="B59" s="71">
+        <v>44267</v>
+      </c>
+      <c r="C59" s="78" t="s">
+        <v>274</v>
       </c>
       <c r="D59" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="E59" s="67"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="102"/>
+      <c r="E59" s="67" t="s">
+        <v>578</v>
+      </c>
+      <c r="F59" s="71">
+        <v>44632</v>
+      </c>
+      <c r="G59" s="97">
+        <v>28000</v>
+      </c>
       <c r="H59" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I59" s="69" t="s">
-        <v>592</v>
+        <v>510</v>
+      </c>
+      <c r="I59" s="67" t="s">
+        <v>510</v>
       </c>
       <c r="J59" s="69" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="K59" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L59" s="70" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="M59" s="73">
         <v>1</v>
       </c>
       <c r="N59" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O59" s="10"/>
     </row>
     <row r="60" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" s="71">
-        <v>43840</v>
-      </c>
-      <c r="C60" s="80" t="s">
-        <v>181</v>
+        <v>44277</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>276</v>
       </c>
       <c r="D60" s="67" t="s">
         <v>435</v>
       </c>
-      <c r="E60" s="67"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="102"/>
+      <c r="E60" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="F60" s="71">
+        <v>44642</v>
+      </c>
+      <c r="G60" s="97">
+        <v>15000</v>
+      </c>
       <c r="H60" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I60" s="67" t="s">
-        <v>602</v>
+        <v>513</v>
       </c>
       <c r="J60" s="69" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K60" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L60" s="70" t="s">
-        <v>527</v>
+        <v>464</v>
       </c>
       <c r="M60" s="73">
         <v>1</v>
       </c>
       <c r="N60" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O60" s="10"/>
     </row>
     <row r="61" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="70">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" s="71">
-        <v>43840</v>
-      </c>
-      <c r="C61" s="80" t="s">
-        <v>183</v>
+        <v>44279</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>278</v>
       </c>
       <c r="D61" s="67" t="s">
         <v>436</v>
       </c>
-      <c r="E61" s="67"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="102"/>
+      <c r="E61" s="67" t="s">
+        <v>580</v>
+      </c>
+      <c r="F61" s="71">
+        <v>44644</v>
+      </c>
+      <c r="G61" s="97">
+        <v>150000</v>
+      </c>
       <c r="H61" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I61" s="67" t="s">
-        <v>591</v>
+        <v>510</v>
       </c>
       <c r="J61" s="69" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K61" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L61" s="70" t="s">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="M61" s="73">
         <v>1</v>
       </c>
       <c r="N61" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O61" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O61" s="10"/>
     </row>
     <row r="62" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" s="71">
-        <v>43847</v>
-      </c>
-      <c r="C62" s="80" t="s">
-        <v>538</v>
+        <v>44281</v>
+      </c>
+      <c r="C62" s="78" t="s">
+        <v>280</v>
       </c>
       <c r="D62" s="67" t="s">
         <v>437</v>
       </c>
       <c r="E62" s="67" t="s">
-        <v>635</v>
+        <v>581</v>
       </c>
       <c r="F62" s="71">
-        <v>44578</v>
-      </c>
-      <c r="G62" s="102">
-        <v>265000</v>
-      </c>
-      <c r="H62" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I62" s="67" t="s">
-        <v>593</v>
+        <v>44646</v>
+      </c>
+      <c r="G62" s="97">
+        <v>36980000</v>
+      </c>
+      <c r="H62" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I62" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J62" s="69" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K62" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L62" s="70" t="s">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="M62" s="73">
         <v>1</v>
       </c>
       <c r="N62" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O62" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="63" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="70">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B63" s="71">
-        <v>43861</v>
-      </c>
-      <c r="C63" s="80" t="s">
-        <v>188</v>
+        <v>44284</v>
+      </c>
+      <c r="C63" s="78" t="s">
+        <v>282</v>
       </c>
       <c r="D63" s="67" t="s">
         <v>438</v>
       </c>
       <c r="E63" s="67" t="s">
-        <v>636</v>
+        <v>582</v>
       </c>
       <c r="F63" s="71">
-        <v>44592</v>
-      </c>
-      <c r="G63" s="102">
-        <v>2589000</v>
+        <v>44649</v>
+      </c>
+      <c r="G63" s="97">
+        <v>154000</v>
       </c>
       <c r="H63" s="67" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
       <c r="I63" s="67" t="s">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="J63" s="69" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="K63" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L63" s="70" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="M63" s="73">
         <v>1</v>
       </c>
       <c r="N63" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O63" s="10"/>
     </row>
     <row r="64" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
-        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" s="71">
-        <v>43872</v>
-      </c>
-      <c r="C64" s="80" t="s">
-        <v>190</v>
+        <v>44292</v>
+      </c>
+      <c r="C64" s="78" t="s">
+        <v>483</v>
       </c>
       <c r="D64" s="67" t="s">
         <v>439</v>
       </c>
       <c r="E64" s="67" t="s">
-        <v>637</v>
+        <v>583</v>
       </c>
       <c r="F64" s="71">
-        <v>44603</v>
-      </c>
-      <c r="G64" s="102">
-        <v>2569000</v>
+        <v>44657</v>
+      </c>
+      <c r="G64" s="97">
+        <v>145000</v>
       </c>
       <c r="H64" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="I64" s="67" t="s">
-        <v>597</v>
+        <v>519</v>
       </c>
       <c r="J64" s="69" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K64" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L64" s="70" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="M64" s="73">
         <v>1</v>
       </c>
       <c r="N64" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O64" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O64" s="72"/>
     </row>
     <row r="65" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="70">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" s="71">
-        <v>43878</v>
-      </c>
-      <c r="C65" s="80" t="s">
-        <v>539</v>
+        <v>44309</v>
+      </c>
+      <c r="C65" s="78" t="s">
+        <v>290</v>
       </c>
       <c r="D65" s="67" t="s">
         <v>440</v>
       </c>
       <c r="E65" s="67" t="s">
-        <v>638</v>
+        <v>584</v>
       </c>
       <c r="F65" s="71">
-        <v>44609</v>
-      </c>
-      <c r="G65" s="102">
-        <v>148000</v>
+        <v>44674</v>
+      </c>
+      <c r="G65" s="97">
+        <v>22000</v>
       </c>
       <c r="H65" s="67" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
       <c r="I65" s="67" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="J65" s="69" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="K65" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L65" s="70" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="M65" s="73">
         <v>1</v>
       </c>
       <c r="N65" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O65" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O65" s="72"/>
     </row>
     <row r="66" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
-        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66" s="71">
-        <v>43879</v>
-      </c>
-      <c r="C66" s="80" t="s">
-        <v>194</v>
+        <v>44322</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>294</v>
       </c>
       <c r="D66" s="67" t="s">
         <v>441</v>
       </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="102"/>
+      <c r="E66" s="67" t="s">
+        <v>585</v>
+      </c>
+      <c r="F66" s="71">
+        <v>44687</v>
+      </c>
+      <c r="G66" s="97">
+        <v>65000</v>
+      </c>
       <c r="H66" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I66" s="67" t="s">
-        <v>601</v>
+        <v>513</v>
       </c>
       <c r="J66" s="69" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="K66" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L66" s="70" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
       <c r="M66" s="73">
         <v>1</v>
       </c>
       <c r="N66" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O66" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O66" s="10"/>
     </row>
     <row r="67" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="70">
-        <f t="shared" ref="A67:A130" si="1">A66+1</f>
         <v>65</v>
       </c>
       <c r="B67" s="71">
-        <v>43879</v>
-      </c>
-      <c r="C67" s="80" t="s">
-        <v>196</v>
+        <v>44333</v>
+      </c>
+      <c r="C67" s="78" t="s">
+        <v>296</v>
       </c>
       <c r="D67" s="67" t="s">
         <v>442</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>639</v>
+        <v>586</v>
       </c>
       <c r="F67" s="71">
-        <v>44610</v>
-      </c>
-      <c r="G67" s="102">
-        <v>21000000</v>
+        <v>44698</v>
+      </c>
+      <c r="G67" s="97">
+        <v>2580000</v>
       </c>
       <c r="H67" s="67" t="s">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="I67" s="67" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="J67" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K67" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L67" s="70" t="s">
-        <v>529</v>
+        <v>465</v>
       </c>
       <c r="M67" s="73">
         <v>1</v>
       </c>
       <c r="N67" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O67" s="10"/>
     </row>
     <row r="68" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="71">
-        <v>43901</v>
-      </c>
-      <c r="C68" s="80" t="s">
-        <v>198</v>
+        <v>44349</v>
+      </c>
+      <c r="C68" s="78" t="s">
+        <v>484</v>
       </c>
       <c r="D68" s="67" t="s">
         <v>443</v>
       </c>
-      <c r="E68" s="67"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="102"/>
+      <c r="E68" s="67" t="s">
+        <v>587</v>
+      </c>
+      <c r="F68" s="71">
+        <v>44714</v>
+      </c>
+      <c r="G68" s="97">
+        <v>365000</v>
+      </c>
       <c r="H68" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I68" s="67" t="s">
-        <v>597</v>
+        <v>519</v>
       </c>
       <c r="J68" s="69" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="K68" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L68" s="70" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="M68" s="73">
         <v>1</v>
       </c>
       <c r="N68" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
-        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="74">
-        <v>43902</v>
-      </c>
-      <c r="C69" s="75" t="s">
-        <v>200</v>
+      <c r="B69" s="71">
+        <v>44362</v>
+      </c>
+      <c r="C69" s="78" t="s">
+        <v>306</v>
       </c>
       <c r="D69" s="67" t="s">
         <v>444</v>
       </c>
       <c r="E69" s="67" t="s">
-        <v>640</v>
-      </c>
-      <c r="F69" s="74">
-        <v>44632</v>
-      </c>
-      <c r="G69" s="102">
-        <v>145500</v>
+        <v>588</v>
+      </c>
+      <c r="F69" s="71">
+        <v>44727</v>
+      </c>
+      <c r="G69" s="97">
+        <v>100000</v>
       </c>
       <c r="H69" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="I69" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="J69" s="69" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="K69" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L69" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M69" s="73" t="s">
-        <v>18</v>
+        <v>465</v>
+      </c>
+      <c r="M69" s="73">
+        <v>1</v>
       </c>
       <c r="N69" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O69" s="10"/>
     </row>
     <row r="70" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
-        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="74">
-        <v>43910</v>
-      </c>
-      <c r="C70" s="75" t="s">
-        <v>204</v>
+      <c r="B70" s="71">
+        <v>44392</v>
+      </c>
+      <c r="C70" s="78" t="s">
+        <v>310</v>
       </c>
       <c r="D70" s="67" t="s">
         <v>445</v>
       </c>
       <c r="E70" s="67" t="s">
-        <v>641</v>
-      </c>
-      <c r="F70" s="74">
-        <v>44640</v>
-      </c>
-      <c r="G70" s="102">
-        <v>365000</v>
+        <v>589</v>
+      </c>
+      <c r="F70" s="71">
+        <v>44392</v>
+      </c>
+      <c r="G70" s="97">
+        <v>24500</v>
       </c>
       <c r="H70" s="67" t="s">
-        <v>592</v>
+        <v>510</v>
       </c>
       <c r="I70" s="67" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
       <c r="J70" s="69" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="K70" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L70" s="70" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="M70" s="73">
         <v>1</v>
       </c>
       <c r="N70" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O70" s="10"/>
     </row>
     <row r="71" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
-        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="74">
-        <v>43910</v>
-      </c>
-      <c r="C71" s="75" t="s">
-        <v>206</v>
+      <c r="B71" s="71">
+        <v>44435</v>
+      </c>
+      <c r="C71" s="78" t="s">
+        <v>485</v>
       </c>
       <c r="D71" s="67" t="s">
         <v>446</v>
       </c>
       <c r="E71" s="67" t="s">
-        <v>642</v>
-      </c>
-      <c r="F71" s="74">
-        <v>44640</v>
-      </c>
-      <c r="G71" s="102">
-        <v>265000</v>
+        <v>590</v>
+      </c>
+      <c r="F71" s="71">
+        <v>44435</v>
+      </c>
+      <c r="G71" s="97">
+        <v>22200000</v>
       </c>
       <c r="H71" s="67" t="s">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="I71" s="67" t="s">
-        <v>603</v>
+        <v>510</v>
       </c>
       <c r="J71" s="69" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="K71" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L71" s="70" t="s">
-        <v>530</v>
+        <v>465</v>
       </c>
       <c r="M71" s="73">
         <v>1</v>
       </c>
       <c r="N71" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O71" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O71" s="72"/>
     </row>
     <row r="72" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
-        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="74">
-        <v>43927</v>
-      </c>
-      <c r="C72" s="75" t="s">
-        <v>208</v>
+      <c r="B72" s="71">
+        <v>44438</v>
+      </c>
+      <c r="C72" s="78" t="s">
+        <v>486</v>
       </c>
       <c r="D72" s="67" t="s">
         <v>447</v>
       </c>
       <c r="E72" s="67" t="s">
-        <v>643</v>
-      </c>
-      <c r="F72" s="74">
-        <v>44657</v>
-      </c>
-      <c r="G72" s="102">
-        <v>5600000</v>
+        <v>591</v>
+      </c>
+      <c r="F72" s="71">
+        <v>44438</v>
+      </c>
+      <c r="G72" s="97">
+        <v>3600000</v>
       </c>
       <c r="H72" s="67" t="s">
-        <v>593</v>
+        <v>508</v>
       </c>
       <c r="I72" s="67" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J72" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K72" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L72" s="70" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
       <c r="M72" s="73">
         <v>1</v>
       </c>
       <c r="N72" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O72" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O72" s="10"/>
     </row>
     <row r="73" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70">
-        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="74">
-        <v>43941</v>
-      </c>
-      <c r="C73" s="75" t="s">
-        <v>210</v>
+      <c r="B73" s="71">
+        <v>44454</v>
+      </c>
+      <c r="C73" s="78" t="s">
+        <v>487</v>
       </c>
       <c r="D73" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="E73" s="67"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="102"/>
+      <c r="E73" s="67" t="s">
+        <v>592</v>
+      </c>
+      <c r="F73" s="71">
+        <v>44454</v>
+      </c>
+      <c r="G73" s="97">
+        <v>200000</v>
+      </c>
       <c r="H73" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I73" s="67" t="s">
-        <v>591</v>
+        <v>510</v>
       </c>
       <c r="J73" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K73" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L73" s="70" t="s">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="M73" s="73">
         <v>1</v>
       </c>
       <c r="N73" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O73" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O73" s="10"/>
     </row>
     <row r="74" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
-        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="74">
-        <v>43941</v>
-      </c>
-      <c r="C74" s="75" t="s">
-        <v>540</v>
+      <c r="B74" s="71">
+        <v>44463</v>
+      </c>
+      <c r="C74" s="78" t="s">
+        <v>488</v>
       </c>
       <c r="D74" s="67" t="s">
         <v>449</v>
       </c>
-      <c r="E74" s="67"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="102"/>
+      <c r="E74" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="F74" s="71">
+        <v>44463</v>
+      </c>
+      <c r="G74" s="97">
+        <v>4000500</v>
+      </c>
       <c r="H74" s="67" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="I74" s="67" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="J74" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K74" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L74" s="70" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="M74" s="73">
         <v>1</v>
       </c>
       <c r="N74" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O74" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O74" s="72"/>
     </row>
     <row r="75" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70">
-        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="74">
-        <v>43941</v>
-      </c>
-      <c r="C75" s="75" t="s">
-        <v>543</v>
+      <c r="B75" s="71">
+        <v>44484</v>
+      </c>
+      <c r="C75" s="78" t="s">
+        <v>489</v>
       </c>
       <c r="D75" s="67" t="s">
         <v>450</v>
       </c>
       <c r="E75" s="67" t="s">
-        <v>644</v>
-      </c>
-      <c r="F75" s="74">
-        <v>44671</v>
-      </c>
-      <c r="G75" s="102">
-        <v>258000</v>
+        <v>594</v>
+      </c>
+      <c r="F75" s="71">
+        <v>44484</v>
+      </c>
+      <c r="G75" s="97">
+        <v>3600000</v>
       </c>
       <c r="H75" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I75" s="67" t="s">
-        <v>594</v>
+        <v>508</v>
+      </c>
+      <c r="I75" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J75" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K75" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L75" s="70" t="s">
-        <v>530</v>
+        <v>465</v>
       </c>
       <c r="M75" s="73">
         <v>1</v>
       </c>
       <c r="N75" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O75" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="76" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
-        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="74">
-        <v>43942</v>
-      </c>
-      <c r="C76" s="75" t="s">
-        <v>541</v>
+      <c r="B76" s="71">
+        <v>44532</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>490</v>
       </c>
       <c r="D76" s="67" t="s">
         <v>451</v>
       </c>
       <c r="E76" s="67" t="s">
-        <v>645</v>
-      </c>
-      <c r="F76" s="74">
-        <v>44672</v>
-      </c>
-      <c r="G76" s="102">
-        <v>220000</v>
+        <v>595</v>
+      </c>
+      <c r="F76" s="71">
+        <v>44532</v>
+      </c>
+      <c r="G76" s="97">
+        <v>25850000</v>
       </c>
       <c r="H76" s="67" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
       <c r="I76" s="67" t="s">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="J76" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K76" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L76" s="70" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="M76" s="73">
         <v>1</v>
       </c>
       <c r="N76" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O76" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O76" s="10"/>
     </row>
     <row r="77" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="70">
-        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B77" s="74">
-        <v>43925</v>
-      </c>
-      <c r="C77" s="75" t="s">
-        <v>218</v>
+      <c r="B77" s="71">
+        <v>44544</v>
+      </c>
+      <c r="C77" s="78" t="s">
+        <v>491</v>
       </c>
       <c r="D77" s="67" t="s">
         <v>452</v>
       </c>
       <c r="E77" s="67" t="s">
-        <v>646</v>
-      </c>
-      <c r="F77" s="74">
-        <v>44655</v>
-      </c>
-      <c r="G77" s="102">
-        <v>5000000</v>
+        <v>596</v>
+      </c>
+      <c r="F77" s="71">
+        <v>44544</v>
+      </c>
+      <c r="G77" s="97">
+        <v>15420000</v>
       </c>
       <c r="H77" s="67" t="s">
-        <v>592</v>
+        <v>510</v>
       </c>
       <c r="I77" s="67" t="s">
-        <v>592</v>
+        <v>510</v>
       </c>
       <c r="J77" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L77" s="70" t="s">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="M77" s="73">
         <v>1</v>
       </c>
       <c r="N77" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O77" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O77" s="52"/>
     </row>
     <row r="78" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
-        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B78" s="74">
-        <v>43955</v>
-      </c>
-      <c r="C78" s="75" t="s">
-        <v>220</v>
+      <c r="B78" s="71">
+        <v>44546</v>
+      </c>
+      <c r="C78" s="78" t="s">
+        <v>492</v>
       </c>
       <c r="D78" s="67" t="s">
         <v>453</v>
       </c>
-      <c r="E78" s="67"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="102"/>
+      <c r="E78" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="F78" s="71">
+        <v>44546</v>
+      </c>
+      <c r="G78" s="97">
+        <v>14750000</v>
+      </c>
       <c r="H78" s="67" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="I78" s="67" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="J78" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K78" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L78" s="70" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="M78" s="73">
         <v>1</v>
       </c>
       <c r="N78" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O78" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="79" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="70">
-        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B79" s="71">
-        <v>44018</v>
-      </c>
-      <c r="C79" s="80" t="s">
-        <v>542</v>
+        <v>44553</v>
+      </c>
+      <c r="C79" s="78" t="s">
+        <v>493</v>
       </c>
       <c r="D79" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="102"/>
+      <c r="E79" s="67" t="s">
+        <v>598</v>
+      </c>
+      <c r="F79" s="71">
+        <v>44553</v>
+      </c>
+      <c r="G79" s="97">
+        <v>12300000</v>
+      </c>
       <c r="H79" s="67" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="I79" s="67" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="J79" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K79" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L79" s="70" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="M79" s="73">
         <v>1</v>
       </c>
       <c r="N79" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O79" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O79" s="52"/>
     </row>
     <row r="80" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
-        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B80" s="71">
-        <v>44043</v>
-      </c>
-      <c r="C80" s="80" t="s">
-        <v>224</v>
+        <v>44575</v>
+      </c>
+      <c r="C80" s="78" t="s">
+        <v>494</v>
       </c>
       <c r="D80" s="67" t="s">
         <v>455</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>647</v>
+        <v>599</v>
       </c>
       <c r="F80" s="71">
-        <v>44408</v>
-      </c>
-      <c r="G80" s="102">
-        <v>300000</v>
+        <v>44575</v>
+      </c>
+      <c r="G80" s="97">
+        <v>450000</v>
       </c>
       <c r="H80" s="67" t="s">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="I80" s="67" t="s">
-        <v>690</v>
+        <v>606</v>
       </c>
       <c r="J80" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K80" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L80" s="70" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="M80" s="73">
         <v>1</v>
       </c>
       <c r="N80" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O80" s="10" t="s">
-        <v>589</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O80" s="10"/>
     </row>
     <row r="81" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="70">
-        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B81" s="71">
-        <v>44056</v>
-      </c>
-      <c r="C81" s="80" t="s">
-        <v>226</v>
+        <v>44586</v>
+      </c>
+      <c r="C81" s="78" t="s">
+        <v>495</v>
       </c>
       <c r="D81" s="67" t="s">
         <v>456</v>
       </c>
       <c r="E81" s="67" t="s">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="F81" s="71">
-        <v>44421</v>
-      </c>
-      <c r="G81" s="102">
-        <v>2100</v>
+        <v>44586</v>
+      </c>
+      <c r="G81" s="97">
+        <v>157000</v>
       </c>
       <c r="H81" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="I81" s="67" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="J81" s="69" t="s">
-        <v>128</v>
+        <v>359</v>
       </c>
       <c r="K81" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L81" s="70" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="M81" s="73">
         <v>1</v>
       </c>
       <c r="N81" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O81" s="10"/>
     </row>
     <row r="82" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
-        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B82" s="71">
-        <v>44057</v>
-      </c>
-      <c r="C82" s="80" t="s">
-        <v>228</v>
+        <v>44594</v>
+      </c>
+      <c r="C82" s="78" t="s">
+        <v>496</v>
       </c>
       <c r="D82" s="67" t="s">
         <v>457</v>
       </c>
-      <c r="E82" s="67"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="102"/>
-      <c r="H82" s="67" t="s">
-        <v>602</v>
+      <c r="E82" s="67" t="s">
+        <v>601</v>
+      </c>
+      <c r="F82" s="71">
+        <v>44594</v>
+      </c>
+      <c r="G82" s="97">
+        <v>125800000</v>
+      </c>
+      <c r="H82" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="I82" s="69" t="s">
-        <v>592</v>
+        <v>508</v>
       </c>
       <c r="J82" s="69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K82" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L82" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="M82" s="76">
+        <v>464</v>
+      </c>
+      <c r="M82" s="73">
         <v>1</v>
       </c>
       <c r="N82" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O82" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="83" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
-        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83" s="71">
-        <v>44071</v>
-      </c>
-      <c r="C83" s="75" t="s">
-        <v>544</v>
+        <v>44594</v>
+      </c>
+      <c r="C83" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="D83" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="E83" s="67"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="102"/>
-      <c r="H83" s="67" t="s">
+      <c r="E83" s="67" t="s">
         <v>602</v>
       </c>
+      <c r="F83" s="71">
+        <v>44594</v>
+      </c>
+      <c r="G83" s="97">
+        <v>350000</v>
+      </c>
+      <c r="H83" s="69" t="s">
+        <v>508</v>
+      </c>
       <c r="I83" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J83" s="77" t="s">
-        <v>22</v>
+        <v>508</v>
+      </c>
+      <c r="J83" s="69" t="s">
+        <v>15</v>
       </c>
       <c r="K83" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L83" s="72" t="s">
-        <v>532</v>
+        <v>463</v>
+      </c>
+      <c r="L83" s="70" t="s">
+        <v>464</v>
       </c>
       <c r="M83" s="73">
         <v>1</v>
       </c>
       <c r="N83" s="73" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="O83" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
-        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B84" s="71">
-        <v>44096</v>
-      </c>
-      <c r="C84" s="80" t="s">
-        <v>232</v>
+        <v>44596</v>
+      </c>
+      <c r="C84" s="78" t="s">
+        <v>498</v>
       </c>
       <c r="D84" s="67" t="s">
         <v>459</v>
       </c>
       <c r="E84" s="67" t="s">
-        <v>649</v>
+        <v>603</v>
       </c>
       <c r="F84" s="71">
-        <v>44461</v>
-      </c>
-      <c r="G84" s="102">
-        <v>360000</v>
-      </c>
-      <c r="H84" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I84" s="67" t="s">
-        <v>602</v>
+        <v>44596</v>
+      </c>
+      <c r="G84" s="97">
+        <v>236500000</v>
+      </c>
+      <c r="H84" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I84" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="J84" s="69" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="K84" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L84" s="70" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
       <c r="M84" s="73">
         <v>1</v>
       </c>
       <c r="N84" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O84" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="85" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70">
-        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85" s="71">
-        <v>44097</v>
-      </c>
-      <c r="C85" s="80" t="s">
-        <v>234</v>
+        <v>44603</v>
+      </c>
+      <c r="C85" s="78" t="s">
+        <v>499</v>
       </c>
       <c r="D85" s="67" t="s">
         <v>460</v>
       </c>
       <c r="E85" s="67" t="s">
-        <v>650</v>
+        <v>604</v>
       </c>
       <c r="F85" s="71">
-        <v>44462</v>
-      </c>
-      <c r="G85" s="102">
-        <v>450000</v>
-      </c>
-      <c r="H85" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I85" s="69" t="s">
-        <v>592</v>
+        <v>44603</v>
+      </c>
+      <c r="G85" s="97">
+        <v>28900</v>
+      </c>
+      <c r="H85" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="I85" s="67" t="s">
+        <v>519</v>
       </c>
       <c r="J85" s="69" t="s">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c r="K85" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L85" s="70" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
       <c r="M85" s="73">
         <v>1</v>
       </c>
       <c r="N85" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O85" s="10"/>
-    </row>
-    <row r="86" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
-        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B86" s="71">
-        <v>44097</v>
-      </c>
-      <c r="C86" s="80" t="s">
-        <v>236</v>
+        <v>44606</v>
+      </c>
+      <c r="C86" s="78" t="s">
+        <v>500</v>
       </c>
       <c r="D86" s="67" t="s">
         <v>461</v>
       </c>
       <c r="E86" s="67" t="s">
-        <v>651</v>
-      </c>
-      <c r="F86" s="71">
-        <v>44462</v>
-      </c>
-      <c r="G86" s="102">
-        <v>2480000</v>
+        <v>605</v>
+      </c>
+      <c r="F86" s="67"/>
+      <c r="G86" s="97">
+        <v>8950000</v>
       </c>
       <c r="H86" s="67" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
       <c r="I86" s="67" t="s">
-        <v>593</v>
+        <v>519</v>
       </c>
       <c r="J86" s="69" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="K86" s="71" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L86" s="70" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="M86" s="73">
         <v>1</v>
       </c>
       <c r="N86" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O86" s="72"/>
-    </row>
-    <row r="87" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="70">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B87" s="71">
-        <v>44131</v>
-      </c>
-      <c r="C87" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" s="67" t="s">
-        <v>462</v>
-      </c>
-      <c r="E87" s="67" t="s">
-        <v>652</v>
-      </c>
-      <c r="F87" s="71">
-        <v>44496</v>
-      </c>
-      <c r="G87" s="102">
-        <v>2560000</v>
-      </c>
-      <c r="H87" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I87" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J87" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="K87" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L87" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M87" s="73">
-        <v>1</v>
-      </c>
-      <c r="N87" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O87" s="10"/>
-    </row>
-    <row r="88" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="70">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B88" s="71">
-        <v>44166</v>
-      </c>
-      <c r="C88" s="80" t="s">
-        <v>546</v>
-      </c>
-      <c r="D88" s="67" t="s">
-        <v>463</v>
-      </c>
-      <c r="E88" s="67" t="s">
-        <v>653</v>
-      </c>
-      <c r="F88" s="71">
-        <v>44531</v>
-      </c>
-      <c r="G88" s="102">
-        <v>7800000</v>
-      </c>
-      <c r="H88" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I88" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="J88" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K88" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L88" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M88" s="73">
-        <v>1</v>
-      </c>
-      <c r="N88" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O88" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="70">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B89" s="71">
-        <v>44172</v>
-      </c>
-      <c r="C89" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="D89" s="67" t="s">
-        <v>464</v>
-      </c>
-      <c r="E89" s="67" t="s">
-        <v>654</v>
-      </c>
-      <c r="F89" s="71">
-        <v>44537</v>
-      </c>
-      <c r="G89" s="102">
-        <v>9640000</v>
-      </c>
-      <c r="H89" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I89" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="J89" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K89" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L89" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="M89" s="73">
-        <v>1</v>
-      </c>
-      <c r="N89" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O89" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="70">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B90" s="71">
-        <v>44175</v>
-      </c>
-      <c r="C90" s="80" t="s">
-        <v>545</v>
-      </c>
-      <c r="D90" s="67" t="s">
-        <v>465</v>
-      </c>
-      <c r="E90" s="67" t="s">
-        <v>655</v>
-      </c>
-      <c r="F90" s="71">
-        <v>44540</v>
-      </c>
-      <c r="G90" s="102">
-        <v>258000</v>
-      </c>
-      <c r="H90" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I90" s="67" t="s">
-        <v>601</v>
-      </c>
-      <c r="J90" s="69" t="s">
-        <v>528</v>
-      </c>
-      <c r="K90" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L90" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M90" s="73">
-        <v>1</v>
-      </c>
-      <c r="N90" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O90" s="10"/>
-    </row>
-    <row r="91" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="70">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B91" s="71">
-        <v>44183</v>
-      </c>
-      <c r="C91" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="D91" s="67" t="s">
-        <v>466</v>
-      </c>
-      <c r="E91" s="67"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="102"/>
-      <c r="H91" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I91" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J91" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L91" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M91" s="73">
-        <v>1</v>
-      </c>
-      <c r="N91" s="73" t="s">
-        <v>585</v>
-      </c>
-      <c r="O91" s="10"/>
-    </row>
-    <row r="92" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="70">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B92" s="71">
-        <v>44188</v>
-      </c>
-      <c r="C92" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="D92" s="67" t="s">
-        <v>467</v>
-      </c>
-      <c r="E92" s="67"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="102"/>
-      <c r="H92" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I92" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="J92" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L92" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="M92" s="73">
-        <v>1</v>
-      </c>
-      <c r="N92" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O92" s="10"/>
-    </row>
-    <row r="93" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="70">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B93" s="71">
-        <v>44209</v>
-      </c>
-      <c r="C93" s="80" t="s">
-        <v>548</v>
-      </c>
-      <c r="D93" s="67" t="s">
-        <v>468</v>
-      </c>
-      <c r="E93" s="67" t="s">
-        <v>656</v>
-      </c>
-      <c r="F93" s="71">
-        <v>44574</v>
-      </c>
-      <c r="G93" s="102">
-        <v>245000</v>
-      </c>
-      <c r="H93" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I93" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J93" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="K93" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L93" s="70" t="s">
-        <v>529</v>
-      </c>
-      <c r="M93" s="73">
-        <v>1</v>
-      </c>
-      <c r="N93" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O93" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="70">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B94" s="71">
-        <v>44222</v>
-      </c>
-      <c r="C94" s="80" t="s">
-        <v>549</v>
-      </c>
-      <c r="D94" s="67" t="s">
-        <v>469</v>
-      </c>
-      <c r="E94" s="67"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I94" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J94" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K94" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L94" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M94" s="73">
-        <v>1</v>
-      </c>
-      <c r="N94" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O94" s="10"/>
-    </row>
-    <row r="95" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="70">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B95" s="71">
-        <v>44228</v>
-      </c>
-      <c r="C95" s="80" t="s">
-        <v>550</v>
-      </c>
-      <c r="D95" s="67" t="s">
-        <v>470</v>
-      </c>
-      <c r="E95" s="67"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="102"/>
-      <c r="H95" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I95" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J95" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L95" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M95" s="73">
-        <v>1</v>
-      </c>
-      <c r="N95" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O95" s="10"/>
-    </row>
-    <row r="96" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="70">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B96" s="71">
-        <v>44228</v>
-      </c>
-      <c r="C96" s="80" t="s">
-        <v>551</v>
-      </c>
-      <c r="D96" s="67" t="s">
-        <v>471</v>
-      </c>
-      <c r="E96" s="67" t="s">
-        <v>657</v>
-      </c>
-      <c r="F96" s="71">
-        <v>44593</v>
-      </c>
-      <c r="G96" s="102">
-        <v>8900000</v>
-      </c>
-      <c r="H96" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I96" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="J96" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L96" s="70" t="s">
-        <v>529</v>
-      </c>
-      <c r="M96" s="73">
-        <v>1</v>
-      </c>
-      <c r="N96" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O96" s="10"/>
-    </row>
-    <row r="97" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="70">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B97" s="71">
-        <v>44229</v>
-      </c>
-      <c r="C97" s="80" t="s">
-        <v>552</v>
-      </c>
-      <c r="D97" s="67" t="s">
-        <v>472</v>
-      </c>
-      <c r="E97" s="67" t="s">
-        <v>658</v>
-      </c>
-      <c r="F97" s="71">
-        <v>44594</v>
-      </c>
-      <c r="G97" s="102">
-        <v>587000</v>
-      </c>
-      <c r="H97" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I97" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J97" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K97" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L97" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M97" s="73">
-        <v>1</v>
-      </c>
-      <c r="N97" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O97" s="10"/>
-    </row>
-    <row r="98" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="70">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B98" s="71">
-        <v>44229</v>
-      </c>
-      <c r="C98" s="80" t="s">
-        <v>553</v>
-      </c>
-      <c r="D98" s="67" t="s">
-        <v>473</v>
-      </c>
-      <c r="E98" s="67"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I98" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="J98" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K98" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L98" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M98" s="73">
-        <v>1</v>
-      </c>
-      <c r="N98" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O98" s="10"/>
-    </row>
-    <row r="99" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="70">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B99" s="71">
-        <v>44231</v>
-      </c>
-      <c r="C99" s="80" t="s">
-        <v>554</v>
-      </c>
-      <c r="D99" s="67" t="s">
-        <v>474</v>
-      </c>
-      <c r="E99" s="67" t="s">
-        <v>659</v>
-      </c>
-      <c r="F99" s="71">
-        <v>44596</v>
-      </c>
-      <c r="G99" s="102">
-        <v>65000</v>
-      </c>
-      <c r="H99" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I99" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J99" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="K99" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L99" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M99" s="73">
-        <v>1</v>
-      </c>
-      <c r="N99" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O99" s="10"/>
-    </row>
-    <row r="100" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="70">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B100" s="71">
-        <v>44231</v>
-      </c>
-      <c r="C100" s="80" t="s">
-        <v>555</v>
-      </c>
-      <c r="D100" s="67" t="s">
-        <v>475</v>
-      </c>
-      <c r="E100" s="67"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I100" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="J100" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L100" s="70" t="s">
-        <v>535</v>
-      </c>
-      <c r="M100" s="73">
-        <v>1</v>
-      </c>
-      <c r="N100" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O100" s="10"/>
-    </row>
-    <row r="101" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="70">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B101" s="71">
-        <v>44265</v>
-      </c>
-      <c r="C101" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="D101" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="E101" s="67" t="s">
-        <v>660</v>
-      </c>
-      <c r="F101" s="71">
-        <v>44630</v>
-      </c>
-      <c r="G101" s="102">
-        <v>112200</v>
-      </c>
-      <c r="H101" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I101" s="67" t="s">
-        <v>600</v>
-      </c>
-      <c r="J101" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L101" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="M101" s="73">
-        <v>1</v>
-      </c>
-      <c r="N101" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O101" s="10"/>
-    </row>
-    <row r="102" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="70">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B102" s="71">
-        <v>44265</v>
-      </c>
-      <c r="C102" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="D102" s="67" t="s">
-        <v>477</v>
-      </c>
-      <c r="E102" s="67" t="s">
-        <v>661</v>
-      </c>
-      <c r="F102" s="71">
-        <v>44630</v>
-      </c>
-      <c r="G102" s="102">
-        <v>870000</v>
-      </c>
-      <c r="H102" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I102" s="67" t="s">
-        <v>601</v>
-      </c>
-      <c r="J102" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L102" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M102" s="73">
-        <v>1</v>
-      </c>
-      <c r="N102" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O102" s="10"/>
-    </row>
-    <row r="103" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="70">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B103" s="71">
-        <v>44267</v>
-      </c>
-      <c r="C103" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="D103" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="E103" s="67" t="s">
-        <v>662</v>
-      </c>
-      <c r="F103" s="71">
-        <v>44632</v>
-      </c>
-      <c r="G103" s="102">
-        <v>28000</v>
-      </c>
-      <c r="H103" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I103" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J103" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="K103" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L103" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M103" s="73">
-        <v>1</v>
-      </c>
-      <c r="N103" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O103" s="10"/>
-    </row>
-    <row r="104" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="70">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B104" s="71">
-        <v>44277</v>
-      </c>
-      <c r="C104" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="D104" s="67" t="s">
-        <v>479</v>
-      </c>
-      <c r="E104" s="67" t="s">
-        <v>663</v>
-      </c>
-      <c r="F104" s="71">
-        <v>44642</v>
-      </c>
-      <c r="G104" s="102">
-        <v>15000</v>
-      </c>
-      <c r="H104" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I104" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="J104" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="K104" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L104" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M104" s="73">
-        <v>1</v>
-      </c>
-      <c r="N104" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O104" s="10"/>
-    </row>
-    <row r="105" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="70">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="B105" s="71">
-        <v>44279</v>
-      </c>
-      <c r="C105" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="D105" s="67" t="s">
-        <v>480</v>
-      </c>
-      <c r="E105" s="67" t="s">
-        <v>664</v>
-      </c>
-      <c r="F105" s="71">
-        <v>44644</v>
-      </c>
-      <c r="G105" s="102">
-        <v>150000</v>
-      </c>
-      <c r="H105" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I105" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J105" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="K105" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L105" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M105" s="73">
-        <v>1</v>
-      </c>
-      <c r="N105" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O105" s="10"/>
-    </row>
-    <row r="106" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="70">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B106" s="71">
-        <v>44281</v>
-      </c>
-      <c r="C106" s="80" t="s">
-        <v>280</v>
-      </c>
-      <c r="D106" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="E106" s="67" t="s">
-        <v>665</v>
-      </c>
-      <c r="F106" s="71">
-        <v>44646</v>
-      </c>
-      <c r="G106" s="102">
-        <v>36980000</v>
-      </c>
-      <c r="H106" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I106" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J106" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K106" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L106" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M106" s="73">
-        <v>1</v>
-      </c>
-      <c r="N106" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O106" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="70">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="B107" s="71">
-        <v>44284</v>
-      </c>
-      <c r="C107" s="80" t="s">
-        <v>282</v>
-      </c>
-      <c r="D107" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="E107" s="67" t="s">
-        <v>666</v>
-      </c>
-      <c r="F107" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G107" s="102">
-        <v>154000</v>
-      </c>
-      <c r="H107" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I107" s="67" t="s">
-        <v>603</v>
-      </c>
-      <c r="J107" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="K107" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L107" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M107" s="73">
-        <v>1</v>
-      </c>
-      <c r="N107" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O107" s="10"/>
-    </row>
-    <row r="108" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="70">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="B108" s="71">
-        <v>44284</v>
-      </c>
-      <c r="C108" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="D108" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="E108" s="67"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="102"/>
-      <c r="H108" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I108" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="J108" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K108" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L108" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M108" s="73">
-        <v>1</v>
-      </c>
-      <c r="N108" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O108" s="10"/>
-    </row>
-    <row r="109" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="70">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="B109" s="71">
-        <v>44292</v>
-      </c>
-      <c r="C109" s="80" t="s">
-        <v>556</v>
-      </c>
-      <c r="D109" s="67" t="s">
-        <v>484</v>
-      </c>
-      <c r="E109" s="67" t="s">
-        <v>667</v>
-      </c>
-      <c r="F109" s="71">
-        <v>44657</v>
-      </c>
-      <c r="G109" s="102">
-        <v>145000</v>
-      </c>
-      <c r="H109" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I109" s="67" t="s">
-        <v>603</v>
-      </c>
-      <c r="J109" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="K109" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L109" s="70" t="s">
-        <v>529</v>
-      </c>
-      <c r="M109" s="73">
-        <v>1</v>
-      </c>
-      <c r="N109" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O109" s="72"/>
-    </row>
-    <row r="110" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="70">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="B110" s="71">
-        <v>44309</v>
-      </c>
-      <c r="C110" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="D110" s="67" t="s">
-        <v>485</v>
-      </c>
-      <c r="E110" s="67" t="s">
-        <v>668</v>
-      </c>
-      <c r="F110" s="71">
-        <v>44674</v>
-      </c>
-      <c r="G110" s="102">
-        <v>22000</v>
-      </c>
-      <c r="H110" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I110" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="J110" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K110" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L110" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="M110" s="73">
-        <v>1</v>
-      </c>
-      <c r="N110" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O110" s="72"/>
-    </row>
-    <row r="111" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="70">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="B111" s="71">
-        <v>44309</v>
-      </c>
-      <c r="C111" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="D111" s="67" t="s">
-        <v>486</v>
-      </c>
-      <c r="E111" s="67"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="102"/>
-      <c r="H111" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I111" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J111" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K111" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L111" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M111" s="73">
-        <v>1</v>
-      </c>
-      <c r="N111" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O111" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="70">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="B112" s="71">
-        <v>44322</v>
-      </c>
-      <c r="C112" s="80" t="s">
-        <v>294</v>
-      </c>
-      <c r="D112" s="67" t="s">
-        <v>487</v>
-      </c>
-      <c r="E112" s="67" t="s">
-        <v>669</v>
-      </c>
-      <c r="F112" s="71">
-        <v>44687</v>
-      </c>
-      <c r="G112" s="102">
-        <v>65000</v>
-      </c>
-      <c r="H112" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I112" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="J112" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="K112" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L112" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M112" s="73">
-        <v>1</v>
-      </c>
-      <c r="N112" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O112" s="10"/>
-    </row>
-    <row r="113" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="70">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="B113" s="71">
-        <v>44333</v>
-      </c>
-      <c r="C113" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="D113" s="67" t="s">
-        <v>488</v>
-      </c>
-      <c r="E113" s="67" t="s">
-        <v>670</v>
-      </c>
-      <c r="F113" s="71">
-        <v>44698</v>
-      </c>
-      <c r="G113" s="102">
-        <v>2580000</v>
-      </c>
-      <c r="H113" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I113" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="J113" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K113" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L113" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M113" s="73">
-        <v>1</v>
-      </c>
-      <c r="N113" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O113" s="10"/>
-    </row>
-    <row r="114" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="70">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="B114" s="71">
-        <v>44349</v>
-      </c>
-      <c r="C114" s="80" t="s">
-        <v>557</v>
-      </c>
-      <c r="D114" s="67" t="s">
-        <v>489</v>
-      </c>
-      <c r="E114" s="67" t="s">
-        <v>671</v>
-      </c>
-      <c r="F114" s="71">
-        <v>44714</v>
-      </c>
-      <c r="G114" s="102">
-        <v>365000</v>
-      </c>
-      <c r="H114" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I114" s="67" t="s">
-        <v>603</v>
-      </c>
-      <c r="J114" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="K114" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L114" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="M114" s="73">
-        <v>1</v>
-      </c>
-      <c r="N114" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O114" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="70">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="B115" s="71">
-        <v>44350</v>
-      </c>
-      <c r="C115" s="80" t="s">
-        <v>558</v>
-      </c>
-      <c r="D115" s="67" t="s">
-        <v>490</v>
-      </c>
-      <c r="E115" s="67"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="102"/>
-      <c r="H115" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I115" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J115" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L115" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M115" s="73">
-        <v>1</v>
-      </c>
-      <c r="N115" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O115" s="10"/>
-    </row>
-    <row r="116" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="70">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="B116" s="71">
-        <v>44361</v>
-      </c>
-      <c r="C116" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="D116" s="67" t="s">
-        <v>491</v>
-      </c>
-      <c r="E116" s="67"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="102"/>
-      <c r="H116" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I116" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="J116" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K116" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L116" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M116" s="73">
-        <v>1</v>
-      </c>
-      <c r="N116" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O116" s="10"/>
-    </row>
-    <row r="117" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="70">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="B117" s="71">
-        <v>44362</v>
-      </c>
-      <c r="C117" s="80" t="s">
-        <v>306</v>
-      </c>
-      <c r="D117" s="67" t="s">
-        <v>492</v>
-      </c>
-      <c r="E117" s="67" t="s">
-        <v>672</v>
-      </c>
-      <c r="F117" s="71">
-        <v>44727</v>
-      </c>
-      <c r="G117" s="102">
-        <v>100000</v>
-      </c>
-      <c r="H117" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I117" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J117" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K117" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L117" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M117" s="73">
-        <v>1</v>
-      </c>
-      <c r="N117" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O117" s="10"/>
-    </row>
-    <row r="118" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="70">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="B118" s="71">
-        <v>44372</v>
-      </c>
-      <c r="C118" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="D118" s="67" t="s">
-        <v>493</v>
-      </c>
-      <c r="E118" s="67"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="102"/>
-      <c r="H118" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I118" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="J118" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L118" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="M118" s="73">
-        <v>1</v>
-      </c>
-      <c r="N118" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O118" s="10"/>
-    </row>
-    <row r="119" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="70">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="B119" s="71">
-        <v>44392</v>
-      </c>
-      <c r="C119" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="D119" s="67" t="s">
-        <v>494</v>
-      </c>
-      <c r="E119" s="67" t="s">
-        <v>673</v>
-      </c>
-      <c r="F119" s="71">
-        <v>44392</v>
-      </c>
-      <c r="G119" s="102">
-        <v>24500</v>
-      </c>
-      <c r="H119" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I119" s="67" t="s">
-        <v>603</v>
-      </c>
-      <c r="J119" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="K119" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L119" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M119" s="73">
-        <v>1</v>
-      </c>
-      <c r="N119" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O119" s="10"/>
-    </row>
-    <row r="120" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="70">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="B120" s="71">
-        <v>44397</v>
-      </c>
-      <c r="C120" s="80" t="s">
-        <v>312</v>
-      </c>
-      <c r="D120" s="67" t="s">
-        <v>495</v>
-      </c>
-      <c r="E120" s="67"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="102"/>
-      <c r="H120" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I120" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="J120" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K120" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L120" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M120" s="73">
-        <v>1</v>
-      </c>
-      <c r="N120" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O120" s="10"/>
-    </row>
-    <row r="121" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="70">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="B121" s="71">
-        <v>44406</v>
-      </c>
-      <c r="C121" s="80" t="s">
-        <v>314</v>
-      </c>
-      <c r="D121" s="67" t="s">
-        <v>496</v>
-      </c>
-      <c r="E121" s="67"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="102"/>
-      <c r="H121" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I121" s="67" t="s">
-        <v>591</v>
-      </c>
-      <c r="J121" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K121" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L121" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M121" s="73">
-        <v>1</v>
-      </c>
-      <c r="N121" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O121" s="10"/>
-    </row>
-    <row r="122" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="70">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="B122" s="71">
-        <v>44389</v>
-      </c>
-      <c r="C122" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="D122" s="67" t="s">
-        <v>497</v>
-      </c>
-      <c r="E122" s="67"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="102"/>
-      <c r="H122" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I122" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="J122" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K122" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L122" s="70" t="s">
-        <v>529</v>
-      </c>
-      <c r="M122" s="73">
-        <v>1</v>
-      </c>
-      <c r="N122" s="70" t="s">
-        <v>585</v>
-      </c>
-      <c r="O122" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="70">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="B123" s="71">
-        <v>44435</v>
-      </c>
-      <c r="C123" s="80" t="s">
-        <v>559</v>
-      </c>
-      <c r="D123" s="67" t="s">
-        <v>498</v>
-      </c>
-      <c r="E123" s="67" t="s">
-        <v>674</v>
-      </c>
-      <c r="F123" s="71">
-        <v>44435</v>
-      </c>
-      <c r="G123" s="102">
-        <v>22200000</v>
-      </c>
-      <c r="H123" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I123" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J123" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K123" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L123" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M123" s="73">
-        <v>1</v>
-      </c>
-      <c r="N123" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O123" s="72"/>
-    </row>
-    <row r="124" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="70">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="B124" s="71">
-        <v>44438</v>
-      </c>
-      <c r="C124" s="80" t="s">
-        <v>560</v>
-      </c>
-      <c r="D124" s="67" t="s">
-        <v>499</v>
-      </c>
-      <c r="E124" s="67" t="s">
-        <v>675</v>
-      </c>
-      <c r="F124" s="71">
-        <v>44438</v>
-      </c>
-      <c r="G124" s="102">
-        <v>3600000</v>
-      </c>
-      <c r="H124" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I124" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="J124" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K124" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L124" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M124" s="73">
-        <v>1</v>
-      </c>
-      <c r="N124" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O124" s="10"/>
-    </row>
-    <row r="125" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="70">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="B125" s="71">
-        <v>44442</v>
-      </c>
-      <c r="C125" s="80" t="s">
-        <v>561</v>
-      </c>
-      <c r="D125" s="67" t="s">
-        <v>500</v>
-      </c>
-      <c r="E125" s="67"/>
-      <c r="F125" s="71"/>
-      <c r="G125" s="102"/>
-      <c r="H125" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I125" s="67" t="s">
-        <v>600</v>
-      </c>
-      <c r="J125" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K125" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L125" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M125" s="73">
-        <v>1</v>
-      </c>
-      <c r="N125" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O125" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="70">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="B126" s="71">
-        <v>44447</v>
-      </c>
-      <c r="C126" s="80" t="s">
-        <v>562</v>
-      </c>
-      <c r="D126" s="67" t="s">
-        <v>501</v>
-      </c>
-      <c r="E126" s="67"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="102"/>
-      <c r="H126" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I126" s="67" t="s">
-        <v>601</v>
-      </c>
-      <c r="J126" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K126" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L126" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M126" s="73">
-        <v>1</v>
-      </c>
-      <c r="N126" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O126" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="70">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="B127" s="71">
-        <v>44454</v>
-      </c>
-      <c r="C127" s="80" t="s">
-        <v>563</v>
-      </c>
-      <c r="D127" s="67" t="s">
         <v>502</v>
       </c>
-      <c r="E127" s="67" t="s">
-        <v>676</v>
-      </c>
-      <c r="F127" s="71">
-        <v>44454</v>
-      </c>
-      <c r="G127" s="102">
-        <v>200000</v>
-      </c>
-      <c r="H127" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I127" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J127" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K127" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L127" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M127" s="73">
-        <v>1</v>
-      </c>
-      <c r="N127" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O127" s="10"/>
-    </row>
-    <row r="128" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="70">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="B128" s="71">
-        <v>44463</v>
-      </c>
-      <c r="C128" s="80" t="s">
-        <v>564</v>
-      </c>
-      <c r="D128" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="E128" s="67" t="s">
-        <v>677</v>
-      </c>
-      <c r="F128" s="71">
-        <v>44463</v>
-      </c>
-      <c r="G128" s="102">
-        <v>4000500</v>
-      </c>
-      <c r="H128" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I128" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="J128" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L128" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M128" s="73">
-        <v>1</v>
-      </c>
-      <c r="N128" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O128" s="72"/>
-    </row>
-    <row r="129" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="70">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="B129" s="71">
-        <v>44468</v>
-      </c>
-      <c r="C129" s="80" t="s">
-        <v>565</v>
-      </c>
-      <c r="D129" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="E129" s="67"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="102"/>
-      <c r="H129" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I129" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J129" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K129" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L129" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M129" s="73">
-        <v>1</v>
-      </c>
-      <c r="N129" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O129" s="10"/>
-    </row>
-    <row r="130" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="70">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="B130" s="71">
-        <v>44474</v>
-      </c>
-      <c r="C130" s="80" t="s">
-        <v>566</v>
-      </c>
-      <c r="D130" s="67" t="s">
+      <c r="O86" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="E130" s="67"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="102"/>
-      <c r="H130" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I130" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J130" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K130" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L130" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M130" s="73">
-        <v>1</v>
-      </c>
-      <c r="N130" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O130" s="10"/>
-    </row>
-    <row r="131" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="70">
-        <f t="shared" ref="A131:A148" si="2">A130+1</f>
-        <v>129</v>
-      </c>
-      <c r="B131" s="71">
-        <v>44484</v>
-      </c>
-      <c r="C131" s="80" t="s">
-        <v>567</v>
-      </c>
-      <c r="D131" s="67" t="s">
-        <v>506</v>
-      </c>
-      <c r="E131" s="67" t="s">
-        <v>678</v>
-      </c>
-      <c r="F131" s="71">
-        <v>44484</v>
-      </c>
-      <c r="G131" s="102">
-        <v>3600000</v>
-      </c>
-      <c r="H131" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I131" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J131" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K131" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L131" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M131" s="73">
-        <v>1</v>
-      </c>
-      <c r="N131" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O131" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="70">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="B132" s="71">
-        <v>44488</v>
-      </c>
-      <c r="C132" s="80" t="s">
-        <v>568</v>
-      </c>
-      <c r="D132" s="67" t="s">
-        <v>507</v>
-      </c>
-      <c r="E132" s="67"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="102"/>
-      <c r="H132" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I132" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="J132" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K132" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L132" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M132" s="73">
-        <v>1</v>
-      </c>
-      <c r="N132" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O132" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="70">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="B133" s="71">
-        <v>44517</v>
-      </c>
-      <c r="C133" s="80" t="s">
-        <v>569</v>
-      </c>
-      <c r="D133" s="67" t="s">
-        <v>508</v>
-      </c>
-      <c r="E133" s="67"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="102"/>
-      <c r="H133" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I133" s="67" t="s">
-        <v>591</v>
-      </c>
-      <c r="J133" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K133" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L133" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M133" s="73">
-        <v>1</v>
-      </c>
-      <c r="N133" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O133" s="10"/>
-    </row>
-    <row r="134" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="70">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="B134" s="71">
-        <v>44532</v>
-      </c>
-      <c r="C134" s="80" t="s">
-        <v>570</v>
-      </c>
-      <c r="D134" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="E134" s="67" t="s">
-        <v>679</v>
-      </c>
-      <c r="F134" s="71">
-        <v>44532</v>
-      </c>
-      <c r="G134" s="102">
-        <v>25850000</v>
-      </c>
-      <c r="H134" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I134" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="J134" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K134" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L134" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M134" s="73">
-        <v>1</v>
-      </c>
-      <c r="N134" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O134" s="10"/>
-    </row>
-    <row r="135" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="70">
-        <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="B135" s="71">
-        <v>44544</v>
-      </c>
-      <c r="C135" s="80" t="s">
-        <v>571</v>
-      </c>
-      <c r="D135" s="67" t="s">
-        <v>510</v>
-      </c>
-      <c r="E135" s="67" t="s">
-        <v>680</v>
-      </c>
-      <c r="F135" s="71">
-        <v>44544</v>
-      </c>
-      <c r="G135" s="102">
-        <v>15420000</v>
-      </c>
-      <c r="H135" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I135" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J135" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K135" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L135" s="70" t="s">
-        <v>529</v>
-      </c>
-      <c r="M135" s="73">
-        <v>1</v>
-      </c>
-      <c r="N135" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O135" s="52"/>
-    </row>
-    <row r="136" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="70">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="B136" s="71">
-        <v>44546</v>
-      </c>
-      <c r="C136" s="80" t="s">
-        <v>572</v>
-      </c>
-      <c r="D136" s="67" t="s">
-        <v>511</v>
-      </c>
-      <c r="E136" s="67" t="s">
-        <v>681</v>
-      </c>
-      <c r="F136" s="71">
-        <v>44546</v>
-      </c>
-      <c r="G136" s="102">
-        <v>14750000</v>
-      </c>
-      <c r="H136" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I136" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="J136" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K136" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L136" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M136" s="73">
-        <v>1</v>
-      </c>
-      <c r="N136" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O136" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="70">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="B137" s="71">
-        <v>44553</v>
-      </c>
-      <c r="C137" s="80" t="s">
-        <v>573</v>
-      </c>
-      <c r="D137" s="67" t="s">
-        <v>512</v>
-      </c>
-      <c r="E137" s="67" t="s">
-        <v>682</v>
-      </c>
-      <c r="F137" s="71">
-        <v>44553</v>
-      </c>
-      <c r="G137" s="102">
-        <v>12300000</v>
-      </c>
-      <c r="H137" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I137" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="J137" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K137" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L137" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M137" s="73">
-        <v>1</v>
-      </c>
-      <c r="N137" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O137" s="52"/>
-    </row>
-    <row r="138" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="70">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="B138" s="71">
-        <v>44566</v>
-      </c>
-      <c r="C138" s="80" t="s">
-        <v>574</v>
-      </c>
-      <c r="D138" s="67" t="s">
-        <v>513</v>
-      </c>
-      <c r="E138" s="67"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="102"/>
-      <c r="H138" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I138" s="67" t="s">
-        <v>601</v>
-      </c>
-      <c r="J138" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K138" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L138" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M138" s="73">
-        <v>1</v>
-      </c>
-      <c r="N138" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O138" s="57"/>
-    </row>
-    <row r="139" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="70">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="B139" s="71">
-        <v>44573</v>
-      </c>
-      <c r="C139" s="80" t="s">
-        <v>575</v>
-      </c>
-      <c r="D139" s="67" t="s">
-        <v>514</v>
-      </c>
-      <c r="E139" s="67"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="102"/>
-      <c r="H139" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I139" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J139" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K139" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L139" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M139" s="73">
-        <v>1</v>
-      </c>
-      <c r="N139" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O139" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="70">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="B140" s="71">
-        <v>44575</v>
-      </c>
-      <c r="C140" s="80" t="s">
-        <v>576</v>
-      </c>
-      <c r="D140" s="67" t="s">
-        <v>515</v>
-      </c>
-      <c r="E140" s="67" t="s">
-        <v>683</v>
-      </c>
-      <c r="F140" s="71">
-        <v>44575</v>
-      </c>
-      <c r="G140" s="102">
-        <v>450000</v>
-      </c>
-      <c r="H140" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I140" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="J140" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K140" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L140" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M140" s="73">
-        <v>1</v>
-      </c>
-      <c r="N140" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O140" s="10"/>
-    </row>
-    <row r="141" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="70">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="B141" s="71">
-        <v>44586</v>
-      </c>
-      <c r="C141" s="80" t="s">
-        <v>577</v>
-      </c>
-      <c r="D141" s="67" t="s">
-        <v>516</v>
-      </c>
-      <c r="E141" s="67" t="s">
-        <v>684</v>
-      </c>
-      <c r="F141" s="71">
-        <v>44586</v>
-      </c>
-      <c r="G141" s="102">
-        <v>157000</v>
-      </c>
-      <c r="H141" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I141" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J141" s="69" t="s">
-        <v>359</v>
-      </c>
-      <c r="K141" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L141" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="M141" s="73">
-        <v>1</v>
-      </c>
-      <c r="N141" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O141" s="10"/>
-    </row>
-    <row r="142" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="70">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="B142" s="71">
-        <v>44587</v>
-      </c>
-      <c r="C142" s="80" t="s">
-        <v>578</v>
-      </c>
-      <c r="D142" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="E142" s="67"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="102"/>
-      <c r="H142" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I142" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J142" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K142" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L142" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M142" s="73">
-        <v>1</v>
-      </c>
-      <c r="N142" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O142" s="10"/>
-    </row>
-    <row r="143" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="70">
-        <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="B143" s="71">
-        <v>44593</v>
-      </c>
-      <c r="C143" s="80" t="s">
-        <v>579</v>
-      </c>
-      <c r="D143" s="67" t="s">
-        <v>518</v>
-      </c>
-      <c r="E143" s="67"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="102"/>
-      <c r="H143" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I143" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J143" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K143" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L143" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M143" s="73">
-        <v>1</v>
-      </c>
-      <c r="N143" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O143" s="10"/>
-    </row>
-    <row r="144" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="70">
-        <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="B144" s="71">
-        <v>44594</v>
-      </c>
-      <c r="C144" s="80" t="s">
-        <v>580</v>
-      </c>
-      <c r="D144" s="67" t="s">
-        <v>519</v>
-      </c>
-      <c r="E144" s="67" t="s">
-        <v>685</v>
-      </c>
-      <c r="F144" s="71">
-        <v>44594</v>
-      </c>
-      <c r="G144" s="102">
-        <v>125800000</v>
-      </c>
-      <c r="H144" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I144" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J144" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K144" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L144" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M144" s="73">
-        <v>1</v>
-      </c>
-      <c r="N144" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O144" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="70">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="B145" s="71">
-        <v>44594</v>
-      </c>
-      <c r="C145" s="80" t="s">
-        <v>581</v>
-      </c>
-      <c r="D145" s="67" t="s">
-        <v>520</v>
-      </c>
-      <c r="E145" s="67" t="s">
-        <v>686</v>
-      </c>
-      <c r="F145" s="71">
-        <v>44594</v>
-      </c>
-      <c r="G145" s="102">
-        <v>350000</v>
-      </c>
-      <c r="H145" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I145" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J145" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K145" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L145" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M145" s="73">
-        <v>1</v>
-      </c>
-      <c r="N145" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O145" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="70">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="B146" s="71">
-        <v>44596</v>
-      </c>
-      <c r="C146" s="80" t="s">
-        <v>582</v>
-      </c>
-      <c r="D146" s="67" t="s">
-        <v>521</v>
-      </c>
-      <c r="E146" s="67" t="s">
-        <v>687</v>
-      </c>
-      <c r="F146" s="71">
-        <v>44596</v>
-      </c>
-      <c r="G146" s="102">
-        <v>236500000</v>
-      </c>
-      <c r="H146" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="I146" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="J146" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K146" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L146" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M146" s="73">
-        <v>1</v>
-      </c>
-      <c r="N146" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O146" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="70">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="B147" s="71">
-        <v>44603</v>
-      </c>
-      <c r="C147" s="80" t="s">
-        <v>583</v>
-      </c>
-      <c r="D147" s="67" t="s">
-        <v>522</v>
-      </c>
-      <c r="E147" s="67" t="s">
-        <v>688</v>
-      </c>
-      <c r="F147" s="71">
-        <v>44603</v>
-      </c>
-      <c r="G147" s="102">
-        <v>28900</v>
-      </c>
-      <c r="H147" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I147" s="67" t="s">
-        <v>603</v>
-      </c>
-      <c r="J147" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="K147" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L147" s="70" t="s">
-        <v>527</v>
-      </c>
-      <c r="M147" s="73">
-        <v>1</v>
-      </c>
-      <c r="N147" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O147" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="70">
-        <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
-      <c r="B148" s="71">
-        <v>44606</v>
-      </c>
-      <c r="C148" s="80" t="s">
-        <v>584</v>
-      </c>
-      <c r="D148" s="67" t="s">
-        <v>523</v>
-      </c>
-      <c r="E148" s="67" t="s">
-        <v>689</v>
-      </c>
-      <c r="F148" s="67"/>
-      <c r="G148" s="102">
-        <v>8950000</v>
-      </c>
-      <c r="H148" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="I148" s="67" t="s">
-        <v>603</v>
-      </c>
-      <c r="J148" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K148" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="L148" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="M148" s="73">
-        <v>1</v>
-      </c>
-      <c r="N148" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="O148" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="78"/>
-      <c r="C149" s="81"/>
-      <c r="G149" s="78"/>
-      <c r="K149" s="79"/>
-      <c r="L149" s="78"/>
-      <c r="N149" s="78"/>
-    </row>
-    <row r="150" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="78"/>
-      <c r="C150" s="81"/>
-      <c r="G150" s="78"/>
-      <c r="K150" s="78"/>
-      <c r="L150" s="78"/>
-      <c r="N150" s="78"/>
+    </row>
+    <row r="87" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="76"/>
+      <c r="C87" s="79"/>
+      <c r="G87" s="76"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="76"/>
+      <c r="N87" s="76"/>
+    </row>
+    <row r="88" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="76"/>
+      <c r="C88" s="79"/>
+      <c r="G88" s="76"/>
+      <c r="K88" s="76"/>
+      <c r="L88" s="76"/>
+      <c r="N88" s="76"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O148" xr:uid="{E8193A89-A4D5-455A-9323-2060B1E8F87A}"/>
+  <autoFilter ref="A2:O86" xr:uid="{E8193A89-A4D5-455A-9323-2060B1E8F87A}"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9981,7 +7089,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="16" t="s">
@@ -10016,7 +7124,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="16" t="s">
@@ -10026,7 +7134,7 @@
         <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10055,7 +7163,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="16">
@@ -10088,7 +7196,7 @@
         <v>32</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="16" t="s">
@@ -10190,7 +7298,7 @@
         <v>41</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="16" t="s">
@@ -10226,7 +7334,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="16">
@@ -10260,7 +7368,7 @@
         <v>57</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="16" t="s">
@@ -10294,7 +7402,7 @@
         <v>25</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="16">
@@ -10328,7 +7436,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="16">
@@ -10365,7 +7473,7 @@
         <v>41</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="16">
@@ -10432,7 +7540,7 @@
         <v>32</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="5" t="s">
@@ -10442,7 +7550,7 @@
         <v>49</v>
       </c>
       <c r="N24" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10505,7 +7613,7 @@
         <v>35</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="16">
@@ -10538,7 +7646,7 @@
         <v>35</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="16">
@@ -10572,7 +7680,7 @@
         <v>41</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K28" s="10">
         <v>2020</v>
@@ -10609,7 +7717,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="16" t="s">
@@ -10678,7 +7786,7 @@
         <v>97</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="16">
@@ -10746,7 +7854,7 @@
         <v>25</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="16">
@@ -10815,7 +7923,7 @@
         <v>35</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="16">
@@ -10823,7 +7931,7 @@
       </c>
       <c r="M35" s="33"/>
       <c r="N35" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10854,7 +7962,7 @@
         <v>32</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="16">
@@ -10864,7 +7972,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N36" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10893,7 +8001,7 @@
         <v>41</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="16" t="s">
@@ -10903,7 +8011,7 @@
         <v>111</v>
       </c>
       <c r="N37" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10934,7 +8042,7 @@
         <v>97</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="16">
@@ -10970,7 +8078,7 @@
         <v>35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="16">
@@ -11042,7 +8150,7 @@
         <v>35</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="16" t="s">
@@ -11112,7 +8220,7 @@
         <v>32</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="16">
@@ -11120,7 +8228,7 @@
       </c>
       <c r="M43" s="17"/>
       <c r="N43" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11150,7 +8258,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="16">
@@ -11184,7 +8292,7 @@
         <v>25</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="16">
@@ -11219,7 +8327,7 @@
         <v>41</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="16">
@@ -11289,7 +8397,7 @@
         <v>32</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="16">
@@ -11324,7 +8432,7 @@
         <v>32</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="16">
@@ -11359,7 +8467,7 @@
         <v>32</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="5" t="s">
@@ -11369,7 +8477,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N50" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11433,7 +8541,7 @@
         <v>41</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K52" s="10">
         <v>2021</v>
@@ -11445,7 +8553,7 @@
         <v>0.01</v>
       </c>
       <c r="N52" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11473,7 +8581,7 @@
         <v>97</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="16" t="s">
@@ -11509,7 +8617,7 @@
         <v>65</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="16">
@@ -11544,7 +8652,7 @@
         <v>32</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K55" s="10">
         <v>2020</v>
@@ -11616,7 +8724,7 @@
         <v>17</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="16">
@@ -11688,7 +8796,7 @@
         <v>57</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K59" s="10"/>
       <c r="L59" s="16">
@@ -11723,7 +8831,7 @@
         <v>97</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="16">
@@ -11888,7 +8996,7 @@
         <v>25</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="16">
@@ -12095,7 +9203,7 @@
         <v>57</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="16">
@@ -12198,7 +9306,7 @@
         <v>65</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="16">
@@ -12232,7 +9340,7 @@
         <v>97</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K75" s="10">
         <v>2020</v>
@@ -12270,7 +9378,7 @@
         <v>97</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="16">
@@ -12339,7 +9447,7 @@
         <v>97</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="16">
@@ -12439,7 +9547,7 @@
         <v>97</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="16">
@@ -12473,7 +9581,7 @@
         <v>57</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="16">
@@ -12511,7 +9619,7 @@
         <v>32</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K83" s="10">
         <v>2020</v>
@@ -12549,7 +9657,7 @@
         <v>35</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="16">
@@ -12615,7 +9723,7 @@
         <v>65</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K86" s="10">
         <v>2020</v>
@@ -12751,7 +9859,7 @@
         <v>41</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="16">
@@ -12853,7 +9961,7 @@
         <v>17</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="16">
@@ -13016,7 +10124,7 @@
         <v>17</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K98" s="10"/>
       <c r="L98" s="16">
@@ -13049,7 +10157,7 @@
         <v>97</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K99" s="10"/>
       <c r="L99" s="16">
@@ -13124,7 +10232,7 @@
         <v>0.02</v>
       </c>
       <c r="N101" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13189,7 +10297,7 @@
         <v>41</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K103" s="10"/>
       <c r="L103" s="16">
@@ -13620,7 +10728,7 @@
         <v>35</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K116" s="10"/>
       <c r="L116" s="5">
@@ -13791,7 +10899,7 @@
         <v>35</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K121" s="10"/>
       <c r="L121" s="5"/>
@@ -13885,7 +10993,7 @@
         <v>97</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K124" s="52"/>
       <c r="L124" s="5"/>
@@ -14141,12 +11249,12 @@
         <v>41</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K132" s="10"/>
       <c r="L132" s="5"/>
       <c r="M132" s="1" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14245,7 +11353,7 @@
         <v>57</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K135" s="10"/>
       <c r="L135" s="5"/>
@@ -14279,7 +11387,7 @@
         <v>57</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K136" s="10"/>
       <c r="L136" s="5"/>
@@ -14440,7 +11548,7 @@
         <v>65</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K141" s="10"/>
       <c r="L141" s="5"/>
@@ -14474,7 +11582,7 @@
         <v>65</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K142" s="10"/>
       <c r="L142" s="5"/>
@@ -14596,7 +11704,7 @@
         <v>57</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K146" s="10"/>
       <c r="L146" s="5"/>
@@ -14691,7 +11799,7 @@
         <v>32</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K149" s="10"/>
       <c r="L149" s="5"/>
@@ -14846,7 +11954,7 @@
         <v>57</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K154" s="10"/>
       <c r="L154" s="5"/>
@@ -14877,7 +11985,7 @@
         <v>57</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K155" s="10"/>
       <c r="L155" s="5"/>
@@ -14908,7 +12016,7 @@
         <v>35</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K156" s="10"/>
       <c r="L156" s="5"/>
@@ -14939,7 +12047,7 @@
         <v>65</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="K157" s="10"/>
       <c r="L157" s="5"/>
